--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -715,7 +715,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>令和2年11月17日時点</t>
+    <t>令和2年11月18日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -737,7 +737,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>※同意なし19名</t>
+    <t>※同意なし20名</t>
     <rPh sb="1" eb="3">
       <t>ドウイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L297"/>
+  <dimension ref="A1:L298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7417,7 +7417,7 @@
         <v>44151</v>
       </c>
       <c r="C296" s="9">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E296" s="8">
         <v>44151</v>
@@ -7433,6 +7433,12 @@
       </c>
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B297" s="74">
+        <v>44152</v>
+      </c>
+      <c r="C297" s="9">
+        <v>56</v>
+      </c>
       <c r="E297" s="8">
         <v>44152</v>
       </c>
@@ -7444,6 +7450,20 @@
       </c>
       <c r="I297" s="75">
         <v>71.857142857142861</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E298" s="8">
+        <v>44153</v>
+      </c>
+      <c r="F298" s="65">
+        <v>66</v>
+      </c>
+      <c r="H298" s="8">
+        <v>44153</v>
+      </c>
+      <c r="I298" s="75">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7455,7 +7475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9808,6 +9828,14 @@
         <v>1.5968253968253969</v>
       </c>
     </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B298" s="8">
+        <v>44153</v>
+      </c>
+      <c r="C298" s="62">
+        <v>1.44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9817,7 +9845,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15427,19 +15455,19 @@
         <v>44137</v>
       </c>
       <c r="C287" s="56">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D287" s="56">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="E287" s="56">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F287" s="56">
-        <v>1059.4285714285713</v>
+        <v>1058.2857142857142</v>
       </c>
       <c r="G287" s="56">
-        <v>2.939590075512406</v>
+        <v>2.9562634989200864</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15450,16 +15478,16 @@
         <v>28</v>
       </c>
       <c r="D288" s="56">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E288" s="56">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F288" s="56">
-        <v>951.28571428571433</v>
+        <v>950.57142857142856</v>
       </c>
       <c r="G288" s="56">
-        <v>3.093557591229914</v>
+        <v>3.110910730387737</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15467,19 +15495,19 @@
         <v>44139</v>
       </c>
       <c r="C289" s="56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D289" s="56">
-        <v>1400</v>
+        <v>1424</v>
       </c>
       <c r="E289" s="56">
-        <v>1457</v>
+        <v>1482</v>
       </c>
       <c r="F289" s="56">
-        <v>974.42857142857144</v>
+        <v>977.28571428571433</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3426183844011135</v>
+        <v>3.3620815670223645</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15487,19 +15515,19 @@
         <v>44140</v>
       </c>
       <c r="C290" s="56">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D290" s="56">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="E290" s="56">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="F290" s="56">
-        <v>949</v>
+        <v>954.14285714285722</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5676652115008278</v>
+        <v>3.5933522982482411</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15507,19 +15535,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D291" s="56">
-        <v>1137</v>
+        <v>1170</v>
       </c>
       <c r="E291" s="56">
-        <v>1191</v>
+        <v>1227</v>
       </c>
       <c r="F291" s="56">
-        <v>947.14285714285711</v>
+        <v>957.42857142857144</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8763197586726998</v>
+        <v>3.9242017308266188</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15527,19 +15555,19 @@
         <v>44142</v>
       </c>
       <c r="C292" s="56">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D292" s="56">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E292" s="56">
         <v>707</v>
       </c>
       <c r="F292" s="56">
-        <v>939.42857142857144</v>
+        <v>949.71428571428567</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2731143552311437</v>
+        <v>4.3321299638989172</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15550,16 +15578,16 @@
         <v>9</v>
       </c>
       <c r="D293" s="56">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E293" s="56">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F293" s="56">
-        <v>938.42857142857144</v>
+        <v>949.14285714285722</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1863297305525951</v>
+        <v>4.244431065623119</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15570,16 +15598,16 @@
         <v>54</v>
       </c>
       <c r="D294" s="56">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="E294" s="56">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="F294" s="56">
-        <v>903.85714285714289</v>
+        <v>918.85714285714278</v>
       </c>
       <c r="G294" s="56">
-        <v>4.5677256203571996</v>
+        <v>4.5864427860696519</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15590,16 +15618,16 @@
         <v>48</v>
       </c>
       <c r="D295" s="56">
-        <v>805</v>
+        <v>833</v>
       </c>
       <c r="E295" s="56">
-        <v>853</v>
+        <v>881</v>
       </c>
       <c r="F295" s="56">
-        <v>957.57142857142856</v>
+        <v>976.14285714285711</v>
       </c>
       <c r="G295" s="56">
-        <v>4.6098761748470833</v>
+        <v>4.609980974681692</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15610,16 +15638,16 @@
         <v>60</v>
       </c>
       <c r="D296" s="56">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="E296" s="56">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="F296" s="56">
-        <v>879.71428571428567</v>
+        <v>897.57142857142867</v>
       </c>
       <c r="G296" s="56">
-        <v>5.0665800584605387</v>
+        <v>5.0453604965780681</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15627,19 +15655,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D297" s="56">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="E297" s="56">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="F297" s="56">
-        <v>867.71428571428567</v>
+        <v>885.42857142857144</v>
       </c>
       <c r="G297" s="56">
-        <v>5.1860388541323683</v>
+        <v>5.1790900290416264</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15647,19 +15675,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D298" s="56">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="E298" s="56">
-        <v>877</v>
+        <v>910</v>
       </c>
       <c r="F298" s="56">
-        <v>822.85714285714278</v>
+        <v>840.14285714285711</v>
       </c>
       <c r="G298" s="56">
-        <v>5.7986111111111116</v>
+        <v>5.6793062404353005</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15670,16 +15698,16 @@
         <v>47</v>
       </c>
       <c r="D299" s="56">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E299" s="56">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F299" s="56">
-        <v>806.85714285714289</v>
+        <v>825.42857142857133</v>
       </c>
       <c r="G299" s="56">
-        <v>5.9313031161473084</v>
+        <v>5.7805469020422295</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15690,16 +15718,36 @@
         <v>53</v>
       </c>
       <c r="D300" s="56">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E300" s="56">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="F300" s="56">
-        <v>810.14285714285711</v>
+        <v>830</v>
       </c>
       <c r="G300" s="56">
-        <v>6.6831246693704829</v>
+        <v>6.5060240963855414</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B301" s="73">
+        <v>44151</v>
+      </c>
+      <c r="C301" s="56">
+        <v>50</v>
+      </c>
+      <c r="D301" s="56">
+        <v>712</v>
+      </c>
+      <c r="E301" s="56">
+        <v>762</v>
+      </c>
+      <c r="F301" s="56">
+        <v>791</v>
+      </c>
+      <c r="G301" s="56">
+        <v>6.7545602311721149</v>
       </c>
     </row>
   </sheetData>
@@ -15711,7 +15759,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -23376,6 +23424,41 @@
         <v>22</v>
       </c>
       <c r="L221" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B222" s="14">
+        <v>44153</v>
+      </c>
+      <c r="C222" s="15">
+        <v>6003</v>
+      </c>
+      <c r="D222" s="15">
+        <v>254</v>
+      </c>
+      <c r="E222" s="15">
+        <v>199</v>
+      </c>
+      <c r="F222" s="15">
+        <v>166</v>
+      </c>
+      <c r="G222" s="15">
+        <v>0</v>
+      </c>
+      <c r="H222" s="15">
+        <v>2723</v>
+      </c>
+      <c r="I222" s="15">
+        <v>2552</v>
+      </c>
+      <c r="J222" s="15">
+        <v>84</v>
+      </c>
+      <c r="K222" s="15">
+        <v>25</v>
+      </c>
+      <c r="L222" s="57">
         <v>8</v>
       </c>
     </row>
@@ -23429,7 +23512,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>881</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -23445,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -23453,7 +23536,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -23477,7 +23560,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -23517,7 +23600,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -23533,7 +23616,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -23541,7 +23624,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -23565,7 +23648,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -23573,7 +23656,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -23581,7 +23664,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -23605,7 +23688,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -23621,7 +23704,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -23629,7 +23712,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -23637,7 +23720,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -23645,7 +23728,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -23653,7 +23736,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -23669,7 +23752,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -23693,7 +23776,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -23765,7 +23848,7 @@
         <v>62</v>
       </c>
       <c r="C47" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
@@ -23865,7 +23948,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>5739</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -23873,7 +23956,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -23889,7 +23972,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>5923</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -23897,7 +23980,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>3658</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -23905,7 +23988,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>881</v>
+        <v>888</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -23913,7 +23996,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1200</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -23921,7 +24004,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -23992,10 +24075,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9908752957080096E-2</v>
+        <v>2.9750961056326259E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24003,10 +24086,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D6" s="44">
-        <v>6.0831361946603581E-2</v>
+        <v>6.0504763496573626E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24014,10 +24097,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25582967218654951</v>
+        <v>0.25555741266922949</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24025,10 +24108,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15968232510983441</v>
+        <v>0.16012034096607053</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24036,10 +24119,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14667117269347751</v>
+        <v>0.14775196389771017</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24047,10 +24130,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14886786076377154</v>
+        <v>0.14842052482032425</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24058,10 +24141,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D11" s="44">
-        <v>8.4994930719837783E-2</v>
+        <v>8.5074377402640816E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24069,10 +24152,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8296721865495102E-2</v>
+        <v>5.816480026742437E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24080,10 +24163,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3257857384251433E-2</v>
+        <v>4.3122179508607722E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24094,7 +24177,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1659344373099021E-2</v>
+        <v>1.1532675915092763E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24102,10 +24185,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>5918</v>
+        <v>5983</v>
       </c>
       <c r="D15" s="47">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -715,7 +715,17 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>令和2年11月18日時点</t>
+    <t>※同意なし20名</t>
+    <rPh sb="1" eb="3">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>令和2年11月19日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -733,16 +743,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ジテン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>※同意なし20名</t>
-    <rPh sb="1" eb="3">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L298"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1572,7 +1572,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E2" s="18"/>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -7377,7 +7377,7 @@
         <v>44149</v>
       </c>
       <c r="C294" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E294" s="8">
         <v>44149</v>
@@ -7437,7 +7437,7 @@
         <v>44152</v>
       </c>
       <c r="C297" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E297" s="8">
         <v>44152</v>
@@ -7453,6 +7453,12 @@
       </c>
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B298" s="74">
+        <v>44153</v>
+      </c>
+      <c r="C298" s="9">
+        <v>89</v>
+      </c>
       <c r="E298" s="8">
         <v>44153</v>
       </c>
@@ -7464,6 +7470,20 @@
       </c>
       <c r="I298" s="75">
         <v>72</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E299" s="8">
+        <v>44154</v>
+      </c>
+      <c r="F299" s="65">
+        <v>106</v>
+      </c>
+      <c r="H299" s="8">
+        <v>44154</v>
+      </c>
+      <c r="I299" s="75">
+        <v>76.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -7475,7 +7495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7496,7 +7516,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E2" s="60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -9834,6 +9854,14 @@
       </c>
       <c r="C298" s="62">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B299" s="8">
+        <v>44154</v>
+      </c>
+      <c r="C299" s="62">
+        <v>1.46448087431694</v>
       </c>
     </row>
   </sheetData>
@@ -9845,7 +9873,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -9870,7 +9898,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E2" s="49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="49"/>
     </row>
@@ -12998,16 +13026,16 @@
         <v>15</v>
       </c>
       <c r="D164" s="56">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E164" s="56">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F164" s="56">
-        <v>205.57142857142858</v>
+        <v>205.42857142857144</v>
       </c>
       <c r="G164" s="56">
-        <v>3.1966643502432244</v>
+        <v>3.1988873435326846</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.4">
@@ -13024,10 +13052,10 @@
         <v>412</v>
       </c>
       <c r="F165" s="56">
-        <v>243</v>
+        <v>242.85714285714283</v>
       </c>
       <c r="G165" s="56">
-        <v>3.0570252792475014</v>
+        <v>3.0588235294117649</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.4">
@@ -13044,10 +13072,10 @@
         <v>406</v>
       </c>
       <c r="F166" s="56">
-        <v>277.42857142857144</v>
+        <v>277.28571428571428</v>
       </c>
       <c r="G166" s="56">
-        <v>3.0381050463439752</v>
+        <v>3.0396702730551262</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.4">
@@ -13064,10 +13092,10 @@
         <v>255</v>
       </c>
       <c r="F167" s="56">
-        <v>303.28571428571428</v>
+        <v>303.14285714285711</v>
       </c>
       <c r="G167" s="56">
-        <v>3.0617051342439949</v>
+        <v>3.0631479736098024</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.4">
@@ -13075,19 +13103,19 @@
         <v>44018</v>
       </c>
       <c r="C168" s="56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" s="56">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="E168" s="56">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="F168" s="56">
-        <v>360.14285714285717</v>
+        <v>365</v>
       </c>
       <c r="G168" s="56">
-        <v>2.8956763189210628</v>
+        <v>2.8962818003913893</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.4">
@@ -13104,10 +13132,10 @@
         <v>563</v>
       </c>
       <c r="F169" s="56">
-        <v>413</v>
+        <v>417.85714285714289</v>
       </c>
       <c r="G169" s="56">
-        <v>2.6634382566585959</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.4">
@@ -13124,10 +13152,10 @@
         <v>670</v>
       </c>
       <c r="F170" s="56">
-        <v>454.85714285714283</v>
+        <v>459.71428571428572</v>
       </c>
       <c r="G170" s="56">
-        <v>2.7586206896551726</v>
+        <v>2.7605459057071959</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.4">
@@ -13138,13 +13166,13 @@
         <v>13</v>
       </c>
       <c r="D171" s="56">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E171" s="56">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F171" s="56">
-        <v>478.28571428571428</v>
+        <v>483.85714285714289</v>
       </c>
       <c r="G171" s="56">
         <v>2.5641025641025639</v>
@@ -13164,10 +13192,10 @@
         <v>655</v>
       </c>
       <c r="F172" s="56">
-        <v>513</v>
+        <v>518.57142857142856</v>
       </c>
       <c r="G172" s="56">
-        <v>2.668890742285237</v>
+        <v>2.6677667766776678</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.4">
@@ -13184,10 +13212,10 @@
         <v>461</v>
       </c>
       <c r="F173" s="56">
-        <v>520.85714285714289</v>
+        <v>526.42857142857144</v>
       </c>
       <c r="G173" s="56">
-        <v>3.1763417305585988</v>
+        <v>3.1698726632348952</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.4">
@@ -13204,10 +13232,10 @@
         <v>367</v>
       </c>
       <c r="F174" s="56">
-        <v>536.85714285714289</v>
+        <v>542.42857142857133</v>
       </c>
       <c r="G174" s="56">
-        <v>3.2678002125398518</v>
+        <v>3.2605837496713121</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.4">
@@ -13224,10 +13252,10 @@
         <v>729</v>
       </c>
       <c r="F175" s="56">
-        <v>574.42857142857144</v>
+        <v>575</v>
       </c>
       <c r="G175" s="56">
-        <v>3.5261981624037744</v>
+        <v>3.5226990821136193</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.4">
@@ -13244,10 +13272,10 @@
         <v>839</v>
       </c>
       <c r="F176" s="56">
-        <v>613.85714285714289</v>
+        <v>614.42857142857144</v>
       </c>
       <c r="G176" s="56">
-        <v>3.5788984429467821</v>
+        <v>3.5755746459252378</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.4">
@@ -13264,10 +13292,10 @@
         <v>986</v>
       </c>
       <c r="F177" s="56">
-        <v>659.85714285714289</v>
+        <v>660.42857142857144</v>
       </c>
       <c r="G177" s="56">
-        <v>3.3990041134444682</v>
+        <v>3.3960631624486259</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.4">
@@ -13298,16 +13326,16 @@
         <v>36</v>
       </c>
       <c r="D179" s="56">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="E179" s="56">
-        <v>784</v>
+        <v>828</v>
       </c>
       <c r="F179" s="56">
-        <v>730.42857142857144</v>
+        <v>736.71428571428578</v>
       </c>
       <c r="G179" s="56">
-        <v>3.5399960884021122</v>
+        <v>3.5097925150281171</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.4">
@@ -13324,10 +13352,10 @@
         <v>605</v>
       </c>
       <c r="F180" s="56">
-        <v>751</v>
+        <v>757.28571428571433</v>
       </c>
       <c r="G180" s="56">
-        <v>3.2528057827658357</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.4">
@@ -13344,10 +13372,10 @@
         <v>378</v>
       </c>
       <c r="F181" s="56">
-        <v>752.57142857142856</v>
+        <v>758.85714285714289</v>
       </c>
       <c r="G181" s="56">
-        <v>3.3219438116932425</v>
+        <v>3.2944277108433737</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.4">
@@ -13364,10 +13392,10 @@
         <v>765</v>
       </c>
       <c r="F182" s="56">
-        <v>757.71428571428567</v>
+        <v>764</v>
       </c>
       <c r="G182" s="56">
-        <v>3.2428355957767727</v>
+        <v>3.2161555721765147</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.4">
@@ -13384,10 +13412,10 @@
         <v>895</v>
       </c>
       <c r="F183" s="56">
-        <v>765.71428571428578</v>
+        <v>772</v>
       </c>
       <c r="G183" s="56">
-        <v>3.2462686567164183</v>
+        <v>3.2198371576609914</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.4">
@@ -13395,19 +13423,19 @@
         <v>44034</v>
       </c>
       <c r="C184" s="56">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D184" s="56">
-        <v>876</v>
+        <v>941</v>
       </c>
       <c r="E184" s="56">
-        <v>915</v>
+        <v>981</v>
       </c>
       <c r="F184" s="56">
-        <v>755.57142857142856</v>
+        <v>771.28571428571422</v>
       </c>
       <c r="G184" s="56">
-        <v>3.5167328417470225</v>
+        <v>3.4636043711798479</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.4">
@@ -13415,19 +13443,19 @@
         <v>44035</v>
       </c>
       <c r="C185" s="56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D185" s="56">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="E185" s="56">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="F185" s="56">
-        <v>691</v>
+        <v>710.57142857142867</v>
       </c>
       <c r="G185" s="56">
-        <v>3.8867066363448415</v>
+        <v>3.8399678327301969</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.4">
@@ -13438,16 +13466,16 @@
         <v>17</v>
       </c>
       <c r="D186" s="56">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E186" s="56">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F186" s="56">
-        <v>627.28571428571422</v>
+        <v>641.85714285714289</v>
       </c>
       <c r="G186" s="56">
-        <v>3.8487815987246639</v>
+        <v>3.8281771644780771</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.4">
@@ -13464,10 +13492,10 @@
         <v>556</v>
       </c>
       <c r="F187" s="56">
-        <v>620.28571428571422</v>
+        <v>634.85714285714289</v>
       </c>
       <c r="G187" s="56">
-        <v>3.9613081529249197</v>
+        <v>3.9378937893789381</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.4">
@@ -13484,10 +13512,10 @@
         <v>499</v>
       </c>
       <c r="F188" s="56">
-        <v>637.57142857142856</v>
+        <v>652.14285714285722</v>
       </c>
       <c r="G188" s="56">
-        <v>3.9883486444095904</v>
+        <v>3.964950711938664</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.4">
@@ -13498,16 +13526,16 @@
         <v>33</v>
       </c>
       <c r="D189" s="56">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="E189" s="56">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="F189" s="56">
-        <v>650.71428571428578</v>
+        <v>666.28571428571422</v>
       </c>
       <c r="G189" s="56">
-        <v>4.0395170142700332</v>
+        <v>4.0094339622641506</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.4">
@@ -13518,16 +13546,16 @@
         <v>53</v>
       </c>
       <c r="D190" s="56">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E190" s="56">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F190" s="56">
-        <v>667.42857142857144</v>
+        <v>682.71428571428578</v>
       </c>
       <c r="G190" s="56">
-        <v>4.5590753424657526</v>
+        <v>4.519774011299436</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.4">
@@ -13544,10 +13572,10 @@
         <v>1067</v>
       </c>
       <c r="F191" s="56">
-        <v>689.14285714285711</v>
+        <v>695</v>
       </c>
       <c r="G191" s="56">
-        <v>4.5605306799336649</v>
+        <v>4.563206577595067</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.4">
@@ -13564,10 +13592,10 @@
         <v>972</v>
       </c>
       <c r="F192" s="56">
-        <v>757.28571428571433</v>
+        <v>759.28571428571433</v>
       </c>
       <c r="G192" s="56">
-        <v>4.4897189209583095</v>
+        <v>4.4778927563499531</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.4">
@@ -13578,16 +13606,16 @@
         <v>74</v>
       </c>
       <c r="D193" s="56">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="E193" s="56">
-        <v>998</v>
+        <v>1041</v>
       </c>
       <c r="F193" s="56">
-        <v>851.57142857142856</v>
+        <v>858.42857142857144</v>
       </c>
       <c r="G193" s="56">
-        <v>4.9488340882402291</v>
+        <v>4.9093027125977704</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.4">
@@ -13604,10 +13632,10 @@
         <v>843</v>
       </c>
       <c r="F194" s="56">
-        <v>892.57142857142856</v>
+        <v>899.42857142857144</v>
       </c>
       <c r="G194" s="56">
-        <v>5.2656850192061464</v>
+        <v>5.2255400254129603</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.4">
@@ -13624,10 +13652,10 @@
         <v>493</v>
       </c>
       <c r="F195" s="56">
-        <v>891.71428571428567</v>
+        <v>898.57142857142856</v>
       </c>
       <c r="G195" s="56">
-        <v>5.3989106055751375</v>
+        <v>5.3577106518282989</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.4">
@@ -13644,10 +13672,10 @@
         <v>1125</v>
       </c>
       <c r="F196" s="56">
-        <v>930</v>
+        <v>935.85714285714289</v>
       </c>
       <c r="G196" s="56">
-        <v>5.3302611367127497</v>
+        <v>5.2969012364524497</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.4">
@@ -13664,10 +13692,10 @@
         <v>1342</v>
       </c>
       <c r="F197" s="56">
-        <v>977.14285714285711</v>
+        <v>983.28571428571422</v>
       </c>
       <c r="G197" s="56">
-        <v>4.9269005847953222</v>
+        <v>4.8961208775243357</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.4">
@@ -13684,10 +13712,10 @@
         <v>1353</v>
       </c>
       <c r="F198" s="56">
-        <v>1018</v>
+        <v>1024.1428571428571</v>
       </c>
       <c r="G198" s="56">
-        <v>5.0378894190289083</v>
+        <v>5.0076719207699822</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.4">
@@ -13704,10 +13732,10 @@
         <v>1191</v>
       </c>
       <c r="F199" s="56">
-        <v>1049.2857142857142</v>
+        <v>1055.4285714285716</v>
       </c>
       <c r="G199" s="56">
-        <v>5.1055139550714772</v>
+        <v>5.0757985923118571</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.4">
@@ -14738,16 +14766,16 @@
         <v>12</v>
       </c>
       <c r="D251" s="56">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E251" s="56">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F251" s="56">
-        <v>867.14285714285711</v>
+        <v>866.14285714285711</v>
       </c>
       <c r="G251" s="56">
-        <v>2.5370675453047777</v>
+        <v>2.5399967013029854</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.4">
@@ -14764,10 +14792,10 @@
         <v>1319</v>
       </c>
       <c r="F252" s="56">
-        <v>975.85714285714278</v>
+        <v>974.85714285714278</v>
       </c>
       <c r="G252" s="56">
-        <v>2.4740155174937781</v>
+        <v>2.4765533411488865</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.4">
@@ -14784,10 +14812,10 @@
         <v>1166</v>
       </c>
       <c r="F253" s="56">
-        <v>1070.2857142857144</v>
+        <v>1069.2857142857144</v>
       </c>
       <c r="G253" s="56">
-        <v>2.295782167645489</v>
+        <v>2.2979291917167672</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.4">
@@ -14798,16 +14826,16 @@
         <v>46</v>
       </c>
       <c r="D254" s="56">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E254" s="56">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F254" s="56">
-        <v>1044.1428571428571</v>
+        <v>1043.2857142857142</v>
       </c>
       <c r="G254" s="56">
-        <v>2.5584895334519091</v>
+        <v>2.560591537724223</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.4">
@@ -14818,10 +14846,10 @@
         <v>31</v>
       </c>
       <c r="D255" s="56">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="E255" s="56">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="F255" s="56">
         <v>1076.7142857142858</v>
@@ -14838,16 +14866,16 @@
         <v>39</v>
       </c>
       <c r="D256" s="56">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="E256" s="56">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="F256" s="56">
-        <v>1073.4285714285713</v>
+        <v>1073.8571428571429</v>
       </c>
       <c r="G256" s="56">
-        <v>2.7947830715996806</v>
+        <v>2.7936676865770917</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.4">
@@ -14858,16 +14886,16 @@
         <v>39</v>
       </c>
       <c r="D257" s="56">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E257" s="56">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F257" s="56">
-        <v>1064.8571428571429</v>
+        <v>1065.7142857142858</v>
       </c>
       <c r="G257" s="56">
-        <v>3.072176012878991</v>
+        <v>3.0697050938337798</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.4">
@@ -14878,16 +14906,16 @@
         <v>16</v>
       </c>
       <c r="D258" s="56">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E258" s="56">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F258" s="56">
-        <v>1068.7142857142856</v>
+        <v>1070.7142857142856</v>
       </c>
       <c r="G258" s="56">
-        <v>3.1141406041165465</v>
+        <v>3.1083244397011738</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.4">
@@ -14895,19 +14923,19 @@
         <v>44109</v>
       </c>
       <c r="C259" s="56">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D259" s="56">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="E259" s="56">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="F259" s="56">
-        <v>1084.1428571428571</v>
+        <v>1087.1428571428571</v>
       </c>
       <c r="G259" s="56">
-        <v>3.0434782608695654</v>
+        <v>3.0482196820391541</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.4">
@@ -14918,16 +14946,16 @@
         <v>46</v>
       </c>
       <c r="D260" s="56">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="E260" s="56">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="F260" s="56">
-        <v>1118.2857142857142</v>
+        <v>1122</v>
       </c>
       <c r="G260" s="56">
-        <v>3.167709796908929</v>
+        <v>3.1699554423933805</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.4">
@@ -14938,16 +14966,16 @@
         <v>35</v>
       </c>
       <c r="D261" s="56">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E261" s="56">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="F261" s="56">
-        <v>1143.8571428571429</v>
+        <v>1147.5714285714287</v>
       </c>
       <c r="G261" s="56">
-        <v>2.9595404595404591</v>
+        <v>2.9624097585262632</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.4">
@@ -14955,19 +14983,19 @@
         <v>44112</v>
       </c>
       <c r="C262" s="56">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D262" s="56">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="E262" s="56">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="F262" s="56">
-        <v>1153.7142857142858</v>
+        <v>1157.1428571428571</v>
       </c>
       <c r="G262" s="56">
-        <v>2.9342577689736284</v>
+        <v>2.9502530551783734</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.4">
@@ -14978,16 +15006,16 @@
         <v>35</v>
       </c>
       <c r="D263" s="56">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="E263" s="56">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="F263" s="56">
-        <v>1156.4285714285713</v>
+        <v>1160</v>
       </c>
       <c r="G263" s="56">
-        <v>2.8779644268774702</v>
+        <v>2.8937322989779584</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.4">
@@ -14998,16 +15026,16 @@
         <v>42</v>
       </c>
       <c r="D264" s="56">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E264" s="56">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F264" s="56">
-        <v>1179.4285714285716</v>
+        <v>1182.8571428571429</v>
       </c>
       <c r="G264" s="56">
-        <v>2.85818093738646</v>
+        <v>2.8740490278951816</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.4">
@@ -15018,16 +15046,16 @@
         <v>8</v>
       </c>
       <c r="D265" s="56">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E265" s="56">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F265" s="56">
-        <v>1175</v>
+        <v>1178.4285714285716</v>
       </c>
       <c r="G265" s="56">
-        <v>2.7720364741641337</v>
+        <v>2.7882167535458842</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.4">
@@ -15038,16 +15066,16 @@
         <v>20</v>
       </c>
       <c r="D266" s="56">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="E266" s="56">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="F266" s="56">
-        <v>1170.4285714285713</v>
+        <v>1173.5714285714284</v>
       </c>
       <c r="G266" s="56">
-        <v>2.6486024655193461</v>
+        <v>2.6536822884966522</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.4">
@@ -15055,19 +15083,19 @@
         <v>44117</v>
       </c>
       <c r="C267" s="56">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D267" s="56">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E267" s="56">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F267" s="56">
-        <v>1147.5714285714287</v>
+        <v>1150.2857142857142</v>
       </c>
       <c r="G267" s="56">
-        <v>2.5270758122743682</v>
+        <v>2.5459513164431198</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.4">
@@ -15075,19 +15103,19 @@
         <v>44118</v>
       </c>
       <c r="C268" s="56">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D268" s="56">
         <v>1336</v>
       </c>
       <c r="E268" s="56">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F268" s="56">
-        <v>1144.8571428571429</v>
+        <v>1147.5714285714287</v>
       </c>
       <c r="G268" s="56">
-        <v>2.6703269278762169</v>
+        <v>2.7013569027760487</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.4">
@@ -15098,16 +15126,16 @@
         <v>31</v>
       </c>
       <c r="D269" s="56">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="E269" s="56">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="F269" s="56">
-        <v>1117</v>
+        <v>1119.7142857142858</v>
       </c>
       <c r="G269" s="56">
-        <v>2.736922880163704</v>
+        <v>2.7558050523092623</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.4">
@@ -15118,16 +15146,16 @@
         <v>30</v>
       </c>
       <c r="D270" s="56">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="E270" s="56">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="F270" s="56">
-        <v>1098.8571428571429</v>
+        <v>1101.5714285714284</v>
       </c>
       <c r="G270" s="56">
-        <v>2.717108684347374</v>
+        <v>2.7363506678770584</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.4">
@@ -15138,16 +15166,16 @@
         <v>26</v>
       </c>
       <c r="D271" s="56">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E271" s="56">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F271" s="56">
-        <v>1081.5714285714287</v>
+        <v>1084.1428571428571</v>
       </c>
       <c r="G271" s="56">
-        <v>2.549200898164047</v>
+        <v>2.5695084991434971</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.4">
@@ -15164,10 +15192,10 @@
         <v>493</v>
       </c>
       <c r="F272" s="56">
-        <v>1084.2857142857144</v>
+        <v>1086.7142857142858</v>
       </c>
       <c r="G272" s="56">
-        <v>2.5559947299077739</v>
+        <v>2.5765742079663467</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.4">
@@ -15178,16 +15206,16 @@
         <v>34</v>
       </c>
       <c r="D273" s="56">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="E273" s="56">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="F273" s="56">
-        <v>1072.2857142857144</v>
+        <v>1074.5714285714287</v>
       </c>
       <c r="G273" s="56">
-        <v>2.7711164401811885</v>
+        <v>2.7918106886466365</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.4">
@@ -15198,16 +15226,16 @@
         <v>50</v>
       </c>
       <c r="D274" s="56">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E274" s="56">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F274" s="56">
-        <v>1063.1428571428571</v>
+        <v>1065.4285714285713</v>
       </c>
       <c r="G274" s="56">
-        <v>3.0368180596613814</v>
+        <v>3.043711450791097</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.4">
@@ -15218,16 +15246,16 @@
         <v>40</v>
       </c>
       <c r="D275" s="56">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="E275" s="56">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="F275" s="56">
-        <v>1033.1428571428571</v>
+        <v>1035.7142857142858</v>
       </c>
       <c r="G275" s="56">
-        <v>3.046247576848518</v>
+        <v>3.0386740331491713</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.4">
@@ -15238,16 +15266,16 @@
         <v>56</v>
       </c>
       <c r="D276" s="56">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E276" s="56">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="F276" s="56">
-        <v>1054</v>
+        <v>1056.2857142857142</v>
       </c>
       <c r="G276" s="56">
-        <v>3.3251900108577628</v>
+        <v>3.3179848320693393</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.4">
@@ -15258,16 +15286,16 @@
         <v>43</v>
       </c>
       <c r="D277" s="56">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E277" s="56">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F277" s="56">
-        <v>1065.5714285714287</v>
+        <v>1067.5714285714287</v>
       </c>
       <c r="G277" s="56">
-        <v>3.4635521546516306</v>
+        <v>3.4570548036982442</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.4">
@@ -15275,19 +15303,19 @@
         <v>44128</v>
       </c>
       <c r="C278" s="56">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D278" s="56">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E278" s="56">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="F278" s="56">
-        <v>1081.2857142857142</v>
+        <v>1083.5714285714284</v>
       </c>
       <c r="G278" s="56">
-        <v>3.518983992591612</v>
+        <v>3.5247524752475252</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.4">
@@ -15304,10 +15332,10 @@
         <v>563</v>
       </c>
       <c r="F279" s="56">
-        <v>1091.2857142857142</v>
+        <v>1093.5714285714284</v>
       </c>
       <c r="G279" s="56">
-        <v>3.6964215493511601</v>
+        <v>3.701765860039242</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.4">
@@ -15318,16 +15346,16 @@
         <v>41</v>
       </c>
       <c r="D280" s="56">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="E280" s="56">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F280" s="56">
-        <v>1102.7142857142856</v>
+        <v>1104.7142857142856</v>
       </c>
       <c r="G280" s="56">
-        <v>3.7488649630302247</v>
+        <v>3.7550174802537875</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.4">
@@ -15338,16 +15366,16 @@
         <v>40</v>
       </c>
       <c r="D281" s="56">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E281" s="56">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F281" s="56">
-        <v>1110.2857142857142</v>
+        <v>1112.1428571428571</v>
       </c>
       <c r="G281" s="56">
-        <v>3.594434424117495</v>
+        <v>3.6012861736334405</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.4">
@@ -15358,16 +15386,16 @@
         <v>35</v>
       </c>
       <c r="D282" s="56">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E282" s="56">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F282" s="56">
-        <v>1127.8571428571429</v>
+        <v>1129.4285714285713</v>
       </c>
       <c r="G282" s="56">
-        <v>3.4705509816339455</v>
+        <v>3.4783708575765244</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.4">
@@ -15378,16 +15406,16 @@
         <v>32</v>
       </c>
       <c r="D283" s="56">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="E283" s="56">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="F283" s="56">
-        <v>1113</v>
+        <v>1115.8571428571429</v>
       </c>
       <c r="G283" s="56">
-        <v>3.208830702092158</v>
+        <v>3.2134169760594031</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.4">
@@ -15398,16 +15426,16 @@
         <v>34</v>
       </c>
       <c r="D284" s="56">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="E284" s="56">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F284" s="56">
-        <v>1115.4285714285713</v>
+        <v>1118.2857142857144</v>
       </c>
       <c r="G284" s="56">
-        <v>3.0865778688524594</v>
+        <v>3.0914665304036788</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.4">
@@ -15418,16 +15446,16 @@
         <v>22</v>
       </c>
       <c r="D285" s="56">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E285" s="56">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F285" s="56">
-        <v>1097.1428571428571</v>
+        <v>1100.4285714285716</v>
       </c>
       <c r="G285" s="56">
-        <v>2.9817708333333335</v>
+        <v>2.9728677138777102</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.4">
@@ -15444,10 +15472,10 @@
         <v>435</v>
       </c>
       <c r="F286" s="56">
-        <v>1078.8571428571429</v>
+        <v>1082.1428571428571</v>
       </c>
       <c r="G286" s="56">
-        <v>2.8998940677966099</v>
+        <v>2.8910891089108914</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15458,16 +15486,16 @@
         <v>41</v>
       </c>
       <c r="D287" s="56">
-        <v>1206</v>
+        <v>1228</v>
       </c>
       <c r="E287" s="56">
-        <v>1247</v>
+        <v>1269</v>
       </c>
       <c r="F287" s="56">
-        <v>1058.2857142857142</v>
+        <v>1064.4285714285713</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9562634989200864</v>
+        <v>2.9392027915716015</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15478,16 +15506,16 @@
         <v>28</v>
       </c>
       <c r="D288" s="56">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E288" s="56">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F288" s="56">
-        <v>950.57142857142856</v>
+        <v>957.85714285714289</v>
       </c>
       <c r="G288" s="56">
-        <v>3.110910730387737</v>
+        <v>3.087248322147651</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15495,19 +15523,19 @@
         <v>44139</v>
       </c>
       <c r="C289" s="56">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D289" s="56">
-        <v>1424</v>
+        <v>1460</v>
       </c>
       <c r="E289" s="56">
-        <v>1482</v>
+        <v>1517</v>
       </c>
       <c r="F289" s="56">
-        <v>977.28571428571433</v>
+        <v>989.42857142857133</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3620815670223645</v>
+        <v>3.3063817499278088</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15515,19 +15543,19 @@
         <v>44140</v>
       </c>
       <c r="C290" s="56">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D290" s="56">
-        <v>1028</v>
+        <v>1066</v>
       </c>
       <c r="E290" s="56">
-        <v>1070</v>
+        <v>1110</v>
       </c>
       <c r="F290" s="56">
-        <v>954.14285714285722</v>
+        <v>970.42857142857144</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5933522982482411</v>
+        <v>3.5477697629913143</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15535,19 +15563,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D291" s="56">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="E291" s="56">
-        <v>1227</v>
+        <v>1261</v>
       </c>
       <c r="F291" s="56">
-        <v>957.42857142857144</v>
+        <v>978.28571428571433</v>
       </c>
       <c r="G291" s="56">
-        <v>3.9242017308266188</v>
+        <v>3.9135514018691584</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15555,19 +15583,19 @@
         <v>44142</v>
       </c>
       <c r="C292" s="56">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D292" s="56">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="E292" s="56">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="F292" s="56">
-        <v>949.71428571428567</v>
+        <v>974.42857142857144</v>
       </c>
       <c r="G292" s="56">
-        <v>4.3321299638989172</v>
+        <v>4.3395396569417972</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15584,10 +15612,10 @@
         <v>431</v>
       </c>
       <c r="F293" s="56">
-        <v>949.14285714285722</v>
+        <v>973.85714285714289</v>
       </c>
       <c r="G293" s="56">
-        <v>4.244431065623119</v>
+        <v>4.2540707055889682</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15595,19 +15623,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D294" s="56">
-        <v>981</v>
+        <v>1509</v>
       </c>
       <c r="E294" s="56">
-        <v>1035</v>
+        <v>1569</v>
       </c>
       <c r="F294" s="56">
-        <v>918.85714285714278</v>
+        <v>1016.7142857142857</v>
       </c>
       <c r="G294" s="56">
-        <v>4.5864427860696519</v>
+        <v>4.3417170155964602</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15615,19 +15643,19 @@
         <v>44145</v>
       </c>
       <c r="C295" s="56">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D295" s="56">
-        <v>833</v>
+        <v>1245</v>
       </c>
       <c r="E295" s="56">
-        <v>881</v>
+        <v>1299</v>
       </c>
       <c r="F295" s="56">
-        <v>976.14285714285711</v>
+        <v>1132.4285714285716</v>
       </c>
       <c r="G295" s="56">
-        <v>4.609980974681692</v>
+        <v>4.2260628232622679</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15635,19 +15663,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D296" s="56">
-        <v>872</v>
+        <v>1304</v>
       </c>
       <c r="E296" s="56">
-        <v>932</v>
+        <v>1374</v>
       </c>
       <c r="F296" s="56">
-        <v>897.57142857142867</v>
+        <v>1112</v>
       </c>
       <c r="G296" s="56">
-        <v>5.0453604965780681</v>
+        <v>4.4707091469681393</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15655,19 +15683,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D297" s="56">
-        <v>939</v>
+        <v>1361</v>
       </c>
       <c r="E297" s="56">
-        <v>985</v>
+        <v>1418</v>
       </c>
       <c r="F297" s="56">
-        <v>885.42857142857144</v>
+        <v>1156</v>
       </c>
       <c r="G297" s="56">
-        <v>5.1790900290416264</v>
+        <v>4.4611962432031635</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15675,19 +15703,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D298" s="56">
-        <v>840</v>
+        <v>1204</v>
       </c>
       <c r="E298" s="56">
-        <v>910</v>
+        <v>1289</v>
       </c>
       <c r="F298" s="56">
-        <v>840.14285714285711</v>
+        <v>1160</v>
       </c>
       <c r="G298" s="56">
-        <v>5.6793062404353005</v>
+        <v>4.7413793103448274</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15695,19 +15723,19 @@
         <v>44149</v>
       </c>
       <c r="C299" s="56">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D299" s="56">
-        <v>557</v>
+        <v>773</v>
       </c>
       <c r="E299" s="56">
-        <v>604</v>
+        <v>829</v>
       </c>
       <c r="F299" s="56">
-        <v>825.42857142857133</v>
+        <v>1172.7142857142858</v>
       </c>
       <c r="G299" s="56">
-        <v>5.7805469020422295</v>
+        <v>4.7630649287367515</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15715,19 +15743,19 @@
         <v>44150</v>
       </c>
       <c r="C300" s="56">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>410</v>
+        <v>521</v>
       </c>
       <c r="E300" s="56">
-        <v>463</v>
+        <v>586</v>
       </c>
       <c r="F300" s="56">
-        <v>830</v>
+        <v>1194.8571428571429</v>
       </c>
       <c r="G300" s="56">
-        <v>6.5060240963855414</v>
+        <v>5.3443328550932563</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -15735,19 +15763,39 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D301" s="56">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="E301" s="56">
-        <v>762</v>
+        <v>850</v>
       </c>
       <c r="F301" s="56">
-        <v>791</v>
+        <v>1092.1428571428571</v>
       </c>
       <c r="G301" s="56">
-        <v>6.7545602311721149</v>
+        <v>5.7423152387181169</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B302" s="73">
+        <v>44152</v>
+      </c>
+      <c r="C302" s="56">
+        <v>55</v>
+      </c>
+      <c r="D302" s="56">
+        <v>815</v>
+      </c>
+      <c r="E302" s="56">
+        <v>870</v>
+      </c>
+      <c r="F302" s="56">
+        <v>1030.8571428571429</v>
+      </c>
+      <c r="G302" s="56">
+        <v>6.0975609756097553</v>
       </c>
     </row>
   </sheetData>
@@ -15759,7 +15807,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15789,7 +15837,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E2" s="51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -23459,6 +23507,41 @@
         <v>25</v>
       </c>
       <c r="L222" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B223" s="14">
+        <v>44154</v>
+      </c>
+      <c r="C223" s="15">
+        <v>6109</v>
+      </c>
+      <c r="D223" s="15">
+        <v>304</v>
+      </c>
+      <c r="E223" s="15">
+        <v>200</v>
+      </c>
+      <c r="F223" s="15">
+        <v>177</v>
+      </c>
+      <c r="G223" s="15">
+        <v>0</v>
+      </c>
+      <c r="H223" s="15">
+        <v>2730</v>
+      </c>
+      <c r="I223" s="15">
+        <v>2584</v>
+      </c>
+      <c r="J223" s="15">
+        <v>85</v>
+      </c>
+      <c r="K223" s="15">
+        <v>29</v>
+      </c>
+      <c r="L223" s="57">
         <v>8</v>
       </c>
     </row>
@@ -23493,7 +23576,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E2" s="50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -23512,7 +23595,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -23528,7 +23611,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -23536,7 +23619,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>782</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -23560,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -23568,7 +23651,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -23584,7 +23667,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -23600,7 +23683,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -23624,7 +23707,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -23640,7 +23723,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -23648,7 +23731,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -23664,7 +23747,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -23680,7 +23763,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -23688,7 +23771,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -23704,7 +23787,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -23720,7 +23803,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -23728,7 +23811,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -23736,7 +23819,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -23752,7 +23835,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -23776,7 +23859,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -23800,7 +23883,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -23948,7 +24031,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>5804</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -23956,7 +24039,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -23972,7 +24055,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>5989</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -23980,7 +24063,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>3706</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -23988,7 +24071,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -23996,7 +24079,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1210</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24004,7 +24087,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24012,7 +24095,7 @@
         <v>109</v>
       </c>
       <c r="C70" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -24053,7 +24136,7 @@
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
@@ -24075,10 +24158,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9750961056326259E-2</v>
+        <v>2.9397273772376418E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24086,10 +24169,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D6" s="44">
-        <v>6.0504763496573626E-2</v>
+        <v>6.0272622762358348E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24097,10 +24180,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25555741266922949</v>
+        <v>0.25505009032681886</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24108,10 +24191,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16012034096607053</v>
+        <v>0.15913943176219411</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24119,10 +24202,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14775196389771017</v>
+        <v>0.14764329118081787</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24130,10 +24213,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14842052482032425</v>
+        <v>0.14928559697815733</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24141,10 +24224,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D11" s="44">
-        <v>8.5074377402640816E-2</v>
+        <v>8.5564132041386104E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24152,10 +24235,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D12" s="44">
-        <v>5.816480026742437E-2</v>
+        <v>5.8630316965018886E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24163,10 +24246,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3122179508607722E-2</v>
+        <v>4.3356873049761865E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24174,10 +24257,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1532675915092763E-2</v>
+        <v>1.1660371161110199E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24185,16 +24268,16 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>5983</v>
+        <v>6089</v>
       </c>
       <c r="D15" s="47">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="48"/>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月19日時点</t>
+    <t>令和2年11月21日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L299"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7437,7 +7437,7 @@
         <v>44152</v>
       </c>
       <c r="C297" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E297" s="8">
         <v>44152</v>
@@ -7457,7 +7457,7 @@
         <v>44153</v>
       </c>
       <c r="C298" s="9">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E298" s="8">
         <v>44153</v>
@@ -7473,6 +7473,12 @@
       </c>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B299" s="74">
+        <v>44154</v>
+      </c>
+      <c r="C299" s="9">
+        <v>82</v>
+      </c>
       <c r="E299" s="8">
         <v>44154</v>
       </c>
@@ -7484,6 +7490,40 @@
       </c>
       <c r="I299" s="75">
         <v>76.571428571428569</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B300" s="74">
+        <v>44155</v>
+      </c>
+      <c r="C300" s="9">
+        <v>91</v>
+      </c>
+      <c r="E300" s="8">
+        <v>44155</v>
+      </c>
+      <c r="F300" s="65">
+        <v>90</v>
+      </c>
+      <c r="H300" s="8">
+        <v>44155</v>
+      </c>
+      <c r="I300" s="75">
+        <v>80.857142857142861</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E301" s="8">
+        <v>44156</v>
+      </c>
+      <c r="F301" s="65">
+        <v>109</v>
+      </c>
+      <c r="H301" s="8">
+        <v>44156</v>
+      </c>
+      <c r="I301" s="75">
+        <v>83.857142857142861</v>
       </c>
     </row>
   </sheetData>
@@ -7495,7 +7535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9864,6 +9904,22 @@
         <v>1.46448087431694</v>
       </c>
     </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B300" s="8">
+        <v>44155</v>
+      </c>
+      <c r="C300" s="62">
+        <v>1.4739583333333333</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B301" s="8">
+        <v>44156</v>
+      </c>
+      <c r="C301" s="62">
+        <v>1.4282238442822384</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9873,7 +9929,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -14866,16 +14922,16 @@
         <v>39</v>
       </c>
       <c r="D256" s="56">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="E256" s="56">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F256" s="56">
-        <v>1073.8571428571429</v>
+        <v>1074.1428571428571</v>
       </c>
       <c r="G256" s="56">
-        <v>2.7936676865770917</v>
+        <v>2.7929245910360421</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.4">
@@ -14892,10 +14948,10 @@
         <v>742</v>
       </c>
       <c r="F257" s="56">
-        <v>1065.7142857142858</v>
+        <v>1066</v>
       </c>
       <c r="G257" s="56">
-        <v>3.0697050938337798</v>
+        <v>3.0688823371750202</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.4">
@@ -14912,10 +14968,10 @@
         <v>507</v>
       </c>
       <c r="F258" s="56">
-        <v>1070.7142857142856</v>
+        <v>1071</v>
       </c>
       <c r="G258" s="56">
-        <v>3.1083244397011738</v>
+        <v>3.1074953320885572</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.4">
@@ -14926,16 +14982,16 @@
         <v>32</v>
       </c>
       <c r="D259" s="56">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="E259" s="56">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="F259" s="56">
-        <v>1087.1428571428571</v>
+        <v>1088</v>
       </c>
       <c r="G259" s="56">
-        <v>3.0482196820391541</v>
+        <v>3.0458185637390054</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.4">
@@ -14946,16 +15002,16 @@
         <v>46</v>
       </c>
       <c r="D260" s="56">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E260" s="56">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F260" s="56">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G260" s="56">
-        <v>3.1699554423933805</v>
+        <v>3.1671330450267106</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.4">
@@ -14966,16 +15022,16 @@
         <v>35</v>
       </c>
       <c r="D261" s="56">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="E261" s="56">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F261" s="56">
-        <v>1147.5714285714287</v>
+        <v>1148.8571428571429</v>
       </c>
       <c r="G261" s="56">
-        <v>2.9624097585262632</v>
+        <v>2.959094865100087</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.4">
@@ -14986,16 +15042,16 @@
         <v>32</v>
       </c>
       <c r="D262" s="56">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="E262" s="56">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="F262" s="56">
-        <v>1157.1428571428571</v>
+        <v>1158.8571428571429</v>
       </c>
       <c r="G262" s="56">
-        <v>2.9502530551783734</v>
+        <v>2.9458893134475534</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.4">
@@ -15012,10 +15068,10 @@
         <v>1237</v>
       </c>
       <c r="F263" s="56">
-        <v>1160</v>
+        <v>1161.4285714285716</v>
       </c>
       <c r="G263" s="56">
-        <v>2.8937322989779584</v>
+        <v>2.8901734104046239</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.4">
@@ -15023,19 +15079,19 @@
         <v>44114</v>
       </c>
       <c r="C264" s="56">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D264" s="56">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E264" s="56">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F264" s="56">
-        <v>1182.8571428571429</v>
+        <v>1184.5714285714284</v>
       </c>
       <c r="G264" s="56">
-        <v>2.8740490278951816</v>
+        <v>2.8819486313758595</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.4">
@@ -15052,10 +15108,10 @@
         <v>475</v>
       </c>
       <c r="F265" s="56">
-        <v>1178.4285714285716</v>
+        <v>1180.1428571428571</v>
       </c>
       <c r="G265" s="56">
-        <v>2.7882167535458842</v>
+        <v>2.7962716378162451</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.4">
@@ -15063,19 +15119,19 @@
         <v>44116</v>
       </c>
       <c r="C266" s="56">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D266" s="56">
-        <v>1380</v>
+        <v>1387</v>
       </c>
       <c r="E266" s="56">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="F266" s="56">
-        <v>1173.5714285714284</v>
+        <v>1175.8571428571427</v>
       </c>
       <c r="G266" s="56">
-        <v>2.6536822884966522</v>
+        <v>2.6728222573198881</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.4">
@@ -15083,19 +15139,19 @@
         <v>44117</v>
       </c>
       <c r="C267" s="56">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D267" s="56">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E267" s="56">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F267" s="56">
-        <v>1150.2857142857142</v>
+        <v>1152.7142857142858</v>
       </c>
       <c r="G267" s="56">
-        <v>2.5459513164431198</v>
+        <v>2.5777667616805058</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.4">
@@ -15106,16 +15162,16 @@
         <v>47</v>
       </c>
       <c r="D268" s="56">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E268" s="56">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="F268" s="56">
-        <v>1147.5714285714287</v>
+        <v>1150.1428571428571</v>
       </c>
       <c r="G268" s="56">
-        <v>2.7013569027760487</v>
+        <v>2.7325798037510869</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.4">
@@ -15126,16 +15182,16 @@
         <v>31</v>
       </c>
       <c r="D269" s="56">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="E269" s="56">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="F269" s="56">
-        <v>1119.7142857142858</v>
+        <v>1122.2857142857142</v>
       </c>
       <c r="G269" s="56">
-        <v>2.7558050523092623</v>
+        <v>2.7876782077393076</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.4">
@@ -15146,16 +15202,16 @@
         <v>30</v>
       </c>
       <c r="D270" s="56">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E270" s="56">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F270" s="56">
-        <v>1101.5714285714284</v>
+        <v>1104.2857142857144</v>
       </c>
       <c r="G270" s="56">
-        <v>2.7363506678770584</v>
+        <v>2.76843467011643</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.4">
@@ -15166,16 +15222,16 @@
         <v>26</v>
       </c>
       <c r="D271" s="56">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E271" s="56">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F271" s="56">
-        <v>1084.1428571428571</v>
+        <v>1086.8571428571429</v>
       </c>
       <c r="G271" s="56">
-        <v>2.5695084991434971</v>
+        <v>2.5893796004206098</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.4">
@@ -15186,16 +15242,16 @@
         <v>9</v>
       </c>
       <c r="D272" s="56">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E272" s="56">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F272" s="56">
-        <v>1086.7142857142858</v>
+        <v>1089.8571428571429</v>
       </c>
       <c r="G272" s="56">
-        <v>2.5765742079663467</v>
+        <v>2.595359811246559</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.4">
@@ -15206,16 +15262,16 @@
         <v>34</v>
       </c>
       <c r="D273" s="56">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E273" s="56">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F273" s="56">
-        <v>1074.5714285714287</v>
+        <v>1076.7142857142858</v>
       </c>
       <c r="G273" s="56">
-        <v>2.7918106886466365</v>
+        <v>2.7995223563752152</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.4">
@@ -15226,16 +15282,16 @@
         <v>50</v>
       </c>
       <c r="D274" s="56">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="E274" s="56">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="F274" s="56">
-        <v>1065.4285714285713</v>
+        <v>1068.2857142857142</v>
       </c>
       <c r="G274" s="56">
-        <v>3.043711450791097</v>
+        <v>3.035571008290987</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.4">
@@ -15246,16 +15302,16 @@
         <v>40</v>
       </c>
       <c r="D275" s="56">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E275" s="56">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F275" s="56">
-        <v>1035.7142857142858</v>
+        <v>1038.4285714285713</v>
       </c>
       <c r="G275" s="56">
-        <v>3.0386740331491713</v>
+        <v>3.0307204849152773</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.4">
@@ -15263,19 +15319,19 @@
         <v>44126</v>
       </c>
       <c r="C276" s="56">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D276" s="56">
         <v>1282</v>
       </c>
       <c r="E276" s="56">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F276" s="56">
-        <v>1056.2857142857142</v>
+        <v>1058.7142857142858</v>
       </c>
       <c r="G276" s="56">
-        <v>3.3179848320693393</v>
+        <v>3.3238751520064862</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.4">
@@ -15286,16 +15342,16 @@
         <v>43</v>
       </c>
       <c r="D277" s="56">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E277" s="56">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F277" s="56">
-        <v>1067.5714285714287</v>
+        <v>1070</v>
       </c>
       <c r="G277" s="56">
-        <v>3.4570548036982442</v>
+        <v>3.4625668449197859</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.4">
@@ -15306,16 +15362,16 @@
         <v>35</v>
       </c>
       <c r="D278" s="56">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E278" s="56">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F278" s="56">
-        <v>1083.5714285714284</v>
+        <v>1086.1428571428571</v>
       </c>
       <c r="G278" s="56">
-        <v>3.5247524752475252</v>
+        <v>3.5295667061767415</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.4">
@@ -15332,10 +15388,10 @@
         <v>563</v>
       </c>
       <c r="F279" s="56">
-        <v>1093.5714285714284</v>
+        <v>1095.7142857142858</v>
       </c>
       <c r="G279" s="56">
-        <v>3.701765860039242</v>
+        <v>3.7075718015665795</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.4">
@@ -15346,16 +15402,16 @@
         <v>41</v>
       </c>
       <c r="D280" s="56">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E280" s="56">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F280" s="56">
-        <v>1104.7142857142856</v>
+        <v>1106.8571428571429</v>
       </c>
       <c r="G280" s="56">
-        <v>3.7550174802537875</v>
+        <v>3.7606616696820887</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.4">
@@ -15363,19 +15419,19 @@
         <v>44131</v>
       </c>
       <c r="C281" s="56">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D281" s="56">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="E281" s="56">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="F281" s="56">
-        <v>1112.1428571428571</v>
+        <v>1114</v>
       </c>
       <c r="G281" s="56">
-        <v>3.6012861736334405</v>
+        <v>3.6209553158705701</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.4">
@@ -15386,16 +15442,16 @@
         <v>35</v>
       </c>
       <c r="D282" s="56">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E282" s="56">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F282" s="56">
-        <v>1129.4285714285713</v>
+        <v>1131.1428571428573</v>
       </c>
       <c r="G282" s="56">
-        <v>3.4783708575765244</v>
+        <v>3.4983581712553677</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.4">
@@ -15406,16 +15462,16 @@
         <v>32</v>
       </c>
       <c r="D283" s="56">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="E283" s="56">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="F283" s="56">
-        <v>1115.8571428571429</v>
+        <v>1117.8571428571429</v>
       </c>
       <c r="G283" s="56">
-        <v>3.2134169760594031</v>
+        <v>3.220447284345048</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.4">
@@ -15426,16 +15482,16 @@
         <v>34</v>
       </c>
       <c r="D284" s="56">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="E284" s="56">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="F284" s="56">
-        <v>1118.2857142857144</v>
+        <v>1120.5714285714287</v>
       </c>
       <c r="G284" s="56">
-        <v>3.0914665304036788</v>
+        <v>3.0979092299847015</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.4">
@@ -15446,16 +15502,16 @@
         <v>22</v>
       </c>
       <c r="D285" s="56">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E285" s="56">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F285" s="56">
-        <v>1100.4285714285716</v>
+        <v>1102.4285714285716</v>
       </c>
       <c r="G285" s="56">
-        <v>2.9728677138777102</v>
+        <v>2.9804328106777245</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.4">
@@ -15472,10 +15528,10 @@
         <v>435</v>
       </c>
       <c r="F286" s="56">
-        <v>1082.1428571428571</v>
+        <v>1084.1428571428571</v>
       </c>
       <c r="G286" s="56">
-        <v>2.8910891089108914</v>
+        <v>2.898932665700356</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15492,10 +15548,10 @@
         <v>1269</v>
       </c>
       <c r="F287" s="56">
-        <v>1064.4285714285713</v>
+        <v>1066.2857142857142</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9392027915716015</v>
+        <v>2.947481243301179</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15506,16 +15562,16 @@
         <v>28</v>
       </c>
       <c r="D288" s="56">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E288" s="56">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F288" s="56">
-        <v>957.85714285714289</v>
+        <v>959.57142857142856</v>
       </c>
       <c r="G288" s="56">
-        <v>3.087248322147651</v>
+        <v>3.081732916480572</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15526,16 +15582,16 @@
         <v>57</v>
       </c>
       <c r="D289" s="56">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="E289" s="56">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="F289" s="56">
-        <v>989.42857142857133</v>
+        <v>991.42857142857133</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3063817499278088</v>
+        <v>3.29971181556196</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15543,19 +15599,19 @@
         <v>44140</v>
       </c>
       <c r="C290" s="56">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="E290" s="56">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="F290" s="56">
-        <v>970.42857142857144</v>
+        <v>972.85714285714289</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5477697629913143</v>
+        <v>3.5535976505139497</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15563,19 +15619,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D291" s="56">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="E291" s="56">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="F291" s="56">
-        <v>978.28571428571433</v>
+        <v>981</v>
       </c>
       <c r="G291" s="56">
-        <v>3.9135514018691584</v>
+        <v>3.9318479685452163</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15583,19 +15639,19 @@
         <v>44142</v>
       </c>
       <c r="C292" s="56">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D292" s="56">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="E292" s="56">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="F292" s="56">
-        <v>974.42857142857144</v>
+        <v>977.71428571428567</v>
       </c>
       <c r="G292" s="56">
-        <v>4.3395396569417972</v>
+        <v>4.3687901811805965</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15612,10 +15668,10 @@
         <v>431</v>
       </c>
       <c r="F293" s="56">
-        <v>973.85714285714289</v>
+        <v>977.14285714285722</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2540707055889682</v>
+        <v>4.2836257309941521</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15626,16 +15682,16 @@
         <v>60</v>
       </c>
       <c r="D294" s="56">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="E294" s="56">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="F294" s="56">
-        <v>1016.7142857142857</v>
+        <v>1020.8571428571429</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3417170155964602</v>
+        <v>4.3660789252728796</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15646,16 +15702,16 @@
         <v>54</v>
       </c>
       <c r="D295" s="56">
-        <v>1245</v>
+        <v>1252</v>
       </c>
       <c r="E295" s="56">
-        <v>1299</v>
+        <v>1306</v>
       </c>
       <c r="F295" s="56">
-        <v>1132.4285714285716</v>
+        <v>1137</v>
       </c>
       <c r="G295" s="56">
-        <v>4.2260628232622679</v>
+        <v>4.2467646689282574</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15666,16 +15722,16 @@
         <v>70</v>
       </c>
       <c r="D296" s="56">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="E296" s="56">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="F296" s="56">
-        <v>1112</v>
+        <v>1116.8571428571429</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4707091469681393</v>
+        <v>4.4896392939370688</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15683,19 +15739,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D297" s="56">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="E297" s="56">
-        <v>1418</v>
+        <v>1440</v>
       </c>
       <c r="F297" s="56">
-        <v>1156</v>
+        <v>1163.1428571428571</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4611962432031635</v>
+        <v>4.4829280275116687</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15703,19 +15759,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D298" s="56">
-        <v>1204</v>
+        <v>1217</v>
       </c>
       <c r="E298" s="56">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="F298" s="56">
-        <v>1160</v>
+        <v>1168.4285714285716</v>
       </c>
       <c r="G298" s="56">
-        <v>4.7413793103448274</v>
+        <v>4.7560826506907938</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15723,19 +15779,19 @@
         <v>44149</v>
       </c>
       <c r="C299" s="56">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D299" s="56">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E299" s="56">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="F299" s="56">
-        <v>1172.7142857142858</v>
+        <v>1182.7142857142856</v>
       </c>
       <c r="G299" s="56">
-        <v>4.7630649287367515</v>
+        <v>4.7711076216934414</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15752,10 +15808,10 @@
         <v>586</v>
       </c>
       <c r="F300" s="56">
-        <v>1194.8571428571429</v>
+        <v>1204.8571428571427</v>
       </c>
       <c r="G300" s="56">
-        <v>5.3443328550932563</v>
+        <v>5.3474033673227419</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -15766,16 +15822,16 @@
         <v>52</v>
       </c>
       <c r="D301" s="56">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="E301" s="56">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="F301" s="56">
-        <v>1092.1428571428571</v>
+        <v>1103.5714285714284</v>
       </c>
       <c r="G301" s="56">
-        <v>5.7423152387181169</v>
+        <v>5.7346278317152093</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -15783,19 +15839,59 @@
         <v>44152</v>
       </c>
       <c r="C302" s="56">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D302" s="56">
-        <v>815</v>
+        <v>878</v>
       </c>
       <c r="E302" s="56">
-        <v>870</v>
+        <v>935</v>
       </c>
       <c r="F302" s="56">
-        <v>1030.8571428571429</v>
+        <v>1050.5714285714287</v>
       </c>
       <c r="G302" s="56">
-        <v>6.0975609756097553</v>
+        <v>6.0647266793581718</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B303" s="73">
+        <v>44153</v>
+      </c>
+      <c r="C303" s="56">
+        <v>68</v>
+      </c>
+      <c r="D303" s="56">
+        <v>952</v>
+      </c>
+      <c r="E303" s="56">
+        <v>1020</v>
+      </c>
+      <c r="F303" s="56">
+        <v>999.28571428571433</v>
+      </c>
+      <c r="G303" s="56">
+        <v>6.3473909935668331</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B304" s="73">
+        <v>44154</v>
+      </c>
+      <c r="C304" s="56">
+        <v>58</v>
+      </c>
+      <c r="D304" s="56">
+        <v>975</v>
+      </c>
+      <c r="E304" s="56">
+        <v>1033</v>
+      </c>
+      <c r="F304" s="56">
+        <v>941.14285714285722</v>
+      </c>
+      <c r="G304" s="56">
+        <v>6.7243472981177899</v>
       </c>
     </row>
   </sheetData>
@@ -15807,7 +15903,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -23543,6 +23639,76 @@
       </c>
       <c r="L223" s="57">
         <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B224" s="14">
+        <v>44155</v>
+      </c>
+      <c r="C224" s="15">
+        <v>6199</v>
+      </c>
+      <c r="D224" s="15">
+        <v>321</v>
+      </c>
+      <c r="E224" s="15">
+        <v>219</v>
+      </c>
+      <c r="F224" s="15">
+        <v>182</v>
+      </c>
+      <c r="G224" s="15">
+        <v>1</v>
+      </c>
+      <c r="H224" s="15">
+        <v>2739</v>
+      </c>
+      <c r="I224" s="15">
+        <v>2622</v>
+      </c>
+      <c r="J224" s="15">
+        <v>86</v>
+      </c>
+      <c r="K224" s="15">
+        <v>29</v>
+      </c>
+      <c r="L224" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B225" s="14">
+        <v>44156</v>
+      </c>
+      <c r="C225" s="15">
+        <v>6308</v>
+      </c>
+      <c r="D225" s="15">
+        <v>344</v>
+      </c>
+      <c r="E225" s="15">
+        <v>254</v>
+      </c>
+      <c r="F225" s="15">
+        <v>172</v>
+      </c>
+      <c r="G225" s="15">
+        <v>0</v>
+      </c>
+      <c r="H225" s="15">
+        <v>2764</v>
+      </c>
+      <c r="I225" s="15">
+        <v>2658</v>
+      </c>
+      <c r="J225" s="15">
+        <v>86</v>
+      </c>
+      <c r="K225" s="15">
+        <v>30</v>
+      </c>
+      <c r="L225" s="57">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -23595,7 +23761,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>906</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -23611,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -23619,7 +23785,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>796</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -23635,7 +23801,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -23643,7 +23809,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>656</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -23651,7 +23817,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -23659,7 +23825,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -23667,7 +23833,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -23675,7 +23841,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -23683,7 +23849,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -23699,7 +23865,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -23707,7 +23873,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>487</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -23723,7 +23889,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -23731,7 +23897,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -23739,7 +23905,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -23747,7 +23913,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -23763,7 +23929,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -23787,7 +23953,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -23811,7 +23977,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -23819,7 +23985,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -23827,7 +23993,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -23835,7 +24001,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -23867,7 +24033,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -23883,7 +24049,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -23915,7 +24081,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
@@ -24031,7 +24197,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>5906</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24039,7 +24205,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24055,7 +24221,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6094</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24063,7 +24229,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>3772</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24071,7 +24237,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>906</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24079,7 +24245,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1228</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24087,7 +24253,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24158,10 +24324,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9397273772376418E-2</v>
+        <v>2.8944020356234095E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24169,10 +24335,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D6" s="44">
-        <v>6.0272622762358348E-2</v>
+        <v>6.1545801526717556E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24180,10 +24346,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1553</v>
+        <v>1602</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25505009032681886</v>
+        <v>0.25477099236641221</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24191,10 +24357,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15913943176219411</v>
+        <v>0.15887404580152673</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24202,10 +24368,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14764329118081787</v>
+        <v>0.14646946564885496</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24213,10 +24379,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>909</v>
+        <v>934</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14928559697815733</v>
+        <v>0.14853689567430026</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24224,10 +24390,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="D11" s="44">
-        <v>8.5564132041386104E-2</v>
+        <v>8.6513994910941472E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24235,10 +24401,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8630316965018886E-2</v>
+        <v>5.9001272264631047E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24246,10 +24412,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3356873049761865E-2</v>
+        <v>4.3893129770992363E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24257,10 +24423,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1660371161110199E-2</v>
+        <v>1.1450381679389313E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24268,7 +24434,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6089</v>
+        <v>6288</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月21日時点</t>
+    <t>令和2年11月22日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:L302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7477,7 +7477,7 @@
         <v>44154</v>
       </c>
       <c r="C299" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E299" s="8">
         <v>44154</v>
@@ -7497,7 +7497,7 @@
         <v>44155</v>
       </c>
       <c r="C300" s="9">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E300" s="8">
         <v>44155</v>
@@ -7513,6 +7513,12 @@
       </c>
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B301" s="74">
+        <v>44156</v>
+      </c>
+      <c r="C301" s="9">
+        <v>64</v>
+      </c>
       <c r="E301" s="8">
         <v>44156</v>
       </c>
@@ -7524,6 +7530,20 @@
       </c>
       <c r="I301" s="75">
         <v>83.857142857142861</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E302" s="8">
+        <v>44157</v>
+      </c>
+      <c r="F302" s="65">
+        <v>80</v>
+      </c>
+      <c r="H302" s="8">
+        <v>44157</v>
+      </c>
+      <c r="I302" s="75">
+        <v>86.714285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -7535,7 +7555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9920,6 +9940,14 @@
         <v>1.4282238442822384</v>
       </c>
     </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B302" s="8">
+        <v>44157</v>
+      </c>
+      <c r="C302" s="62">
+        <v>1.4215456674473068</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9929,7 +9957,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15879,19 +15907,39 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D304" s="56">
         <v>975</v>
       </c>
       <c r="E304" s="56">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F304" s="56">
-        <v>941.14285714285722</v>
+        <v>941.28571428571433</v>
       </c>
       <c r="G304" s="56">
-        <v>6.7243472981177899</v>
+        <v>6.7385035665503104</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B305" s="73">
+        <v>44155</v>
+      </c>
+      <c r="C305" s="56">
+        <v>58</v>
+      </c>
+      <c r="D305" s="56">
+        <v>442</v>
+      </c>
+      <c r="E305" s="56">
+        <v>500</v>
+      </c>
+      <c r="F305" s="56">
+        <v>826.57142857142856</v>
+      </c>
+      <c r="G305" s="56">
+        <v>7.1897684064984455</v>
       </c>
     </row>
   </sheetData>
@@ -15903,7 +15951,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -23708,6 +23756,41 @@
         <v>30</v>
       </c>
       <c r="L225" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B226" s="14">
+        <v>44157</v>
+      </c>
+      <c r="C226" s="15">
+        <v>6388</v>
+      </c>
+      <c r="D226" s="15">
+        <v>346</v>
+      </c>
+      <c r="E226" s="15">
+        <v>285</v>
+      </c>
+      <c r="F226" s="15">
+        <v>168</v>
+      </c>
+      <c r="G226" s="15">
+        <v>0</v>
+      </c>
+      <c r="H226" s="15">
+        <v>2779</v>
+      </c>
+      <c r="I226" s="15">
+        <v>2694</v>
+      </c>
+      <c r="J226" s="15">
+        <v>86</v>
+      </c>
+      <c r="K226" s="15">
+        <v>30</v>
+      </c>
+      <c r="L226" s="57">
         <v>9</v>
       </c>
     </row>
@@ -23761,7 +23844,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -23777,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -23785,7 +23868,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -23809,7 +23892,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -23825,7 +23908,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -23841,7 +23924,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -23849,7 +23932,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -23873,7 +23956,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -23889,7 +23972,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -23905,7 +23988,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -23913,7 +23996,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -23929,7 +24012,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -23953,7 +24036,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -23985,7 +24068,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24001,7 +24084,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -24025,7 +24108,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -24197,7 +24280,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6102</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24205,7 +24288,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24221,7 +24304,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6293</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24229,7 +24312,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>3912</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24237,7 +24320,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24245,7 +24328,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1260</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24253,7 +24336,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24327,7 +24410,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="44">
-        <v>2.8944020356234095E-2</v>
+        <v>2.858040201005025E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24335,10 +24418,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D6" s="44">
-        <v>6.1545801526717556E-2</v>
+        <v>6.1714824120603015E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24346,10 +24429,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1602</v>
+        <v>1621</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25477099236641221</v>
+        <v>0.25455402010050249</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24357,10 +24440,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15887404580152673</v>
+        <v>0.15970477386934673</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24368,10 +24451,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14646946564885496</v>
+        <v>0.14777010050251257</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24379,10 +24462,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14853689567430026</v>
+        <v>0.14777010050251257</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24390,10 +24473,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D11" s="44">
-        <v>8.6513994910941472E-2</v>
+        <v>8.621231155778894E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24401,10 +24484,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D12" s="44">
-        <v>5.9001272264631047E-2</v>
+        <v>5.8888190954773871E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24412,10 +24495,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3893129770992363E-2</v>
+        <v>4.3498743718592962E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24426,7 +24509,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1450381679389313E-2</v>
+        <v>1.1306532663316583E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24434,7 +24517,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6288</v>
+        <v>6368</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月22日時点</t>
+    <t>令和2年11月23日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L302"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7497,7 +7497,7 @@
         <v>44155</v>
       </c>
       <c r="C300" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E300" s="8">
         <v>44155</v>
@@ -7517,7 +7517,7 @@
         <v>44156</v>
       </c>
       <c r="C301" s="9">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E301" s="8">
         <v>44156</v>
@@ -7533,6 +7533,12 @@
       </c>
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B302" s="74">
+        <v>44157</v>
+      </c>
+      <c r="C302" s="9">
+        <v>36</v>
+      </c>
       <c r="E302" s="8">
         <v>44157</v>
       </c>
@@ -7544,6 +7550,20 @@
       </c>
       <c r="I302" s="75">
         <v>86.714285714285708</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E303" s="8">
+        <v>44158</v>
+      </c>
+      <c r="F303" s="65">
+        <v>59</v>
+      </c>
+      <c r="H303" s="8">
+        <v>44158</v>
+      </c>
+      <c r="I303" s="75">
+        <v>84.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -7555,7 +7575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9948,6 +9968,14 @@
         <v>1.4215456674473068</v>
       </c>
     </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B303" s="8">
+        <v>44158</v>
+      </c>
+      <c r="C303" s="62">
+        <v>1.2478813559322033</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9957,7 +9985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15942,6 +15970,26 @@
         <v>7.1897684064984455</v>
       </c>
     </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B306" s="73">
+        <v>44156</v>
+      </c>
+      <c r="C306" s="56">
+        <v>40</v>
+      </c>
+      <c r="D306" s="56">
+        <v>380</v>
+      </c>
+      <c r="E306" s="56">
+        <v>420</v>
+      </c>
+      <c r="F306" s="56">
+        <v>765.85714285714289</v>
+      </c>
+      <c r="G306" s="56">
+        <v>7.4426412982652481</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15951,7 +15999,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -23791,6 +23839,41 @@
         <v>30</v>
       </c>
       <c r="L226" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B227" s="14">
+        <v>44158</v>
+      </c>
+      <c r="C227" s="15">
+        <v>6447</v>
+      </c>
+      <c r="D227" s="15">
+        <v>341</v>
+      </c>
+      <c r="E227" s="15">
+        <v>291</v>
+      </c>
+      <c r="F227" s="15">
+        <v>160</v>
+      </c>
+      <c r="G227" s="15">
+        <v>0</v>
+      </c>
+      <c r="H227" s="15">
+        <v>2794</v>
+      </c>
+      <c r="I227" s="15">
+        <v>2745</v>
+      </c>
+      <c r="J227" s="15">
+        <v>86</v>
+      </c>
+      <c r="K227" s="15">
+        <v>30</v>
+      </c>
+      <c r="L227" s="57">
         <v>9</v>
       </c>
     </row>
@@ -23844,7 +23927,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -23860,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>630</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -23868,7 +23951,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -23892,7 +23975,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -23916,7 +23999,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -23948,7 +24031,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -23956,7 +24039,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -23988,7 +24071,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -23996,7 +24079,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24036,7 +24119,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24076,7 +24159,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -24108,7 +24191,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -24280,7 +24363,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6179</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24304,7 +24387,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6373</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24312,7 +24395,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>3971</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24320,7 +24403,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24328,7 +24411,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1272</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24407,10 +24490,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D5" s="44">
-        <v>2.858040201005025E-2</v>
+        <v>2.9096001244748718E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24418,10 +24501,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D6" s="44">
-        <v>6.1714824120603015E-2</v>
+        <v>6.1459467869923762E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24429,10 +24512,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1621</v>
+        <v>1629</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25455402010050249</v>
+        <v>0.25346195736735644</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24440,10 +24523,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15970477386934673</v>
+        <v>0.15995021005134588</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24451,10 +24534,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14777010050251257</v>
+        <v>0.14812509724599346</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24462,10 +24545,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14777010050251257</v>
+        <v>0.14781391006690525</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24473,10 +24556,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D11" s="44">
-        <v>8.621231155778894E-2</v>
+        <v>8.6976816555157932E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24484,10 +24567,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8888190954773871E-2</v>
+        <v>5.8503189668585656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24495,10 +24578,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3498743718592962E-2</v>
+        <v>4.3410611482806907E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24509,7 +24592,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1306532663316583E-2</v>
+        <v>1.1202738447175977E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24517,7 +24600,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6368</v>
+        <v>6427</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月23日時点</t>
+    <t>令和2年11月24日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L303"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7517,7 +7517,7 @@
         <v>44156</v>
       </c>
       <c r="C301" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E301" s="8">
         <v>44156</v>
@@ -7537,7 +7537,7 @@
         <v>44157</v>
       </c>
       <c r="C302" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E302" s="8">
         <v>44157</v>
@@ -7553,6 +7553,12 @@
       </c>
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B303" s="74">
+        <v>44158</v>
+      </c>
+      <c r="C303" s="9">
+        <v>24</v>
+      </c>
       <c r="E303" s="8">
         <v>44158</v>
       </c>
@@ -7564,6 +7570,20 @@
       </c>
       <c r="I303" s="75">
         <v>84.142857142857139</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E304" s="8">
+        <v>44159</v>
+      </c>
+      <c r="F304" s="65">
+        <v>42</v>
+      </c>
+      <c r="H304" s="8">
+        <v>44159</v>
+      </c>
+      <c r="I304" s="76">
+        <v>78.857142857142861</v>
       </c>
     </row>
   </sheetData>
@@ -7575,7 +7595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9976,6 +9996,14 @@
         <v>1.2478813559322033</v>
       </c>
     </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B304" s="8">
+        <v>44159</v>
+      </c>
+      <c r="C304" s="62">
+        <v>1.0974155069582505</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9985,7 +10013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15578,16 +15606,16 @@
         <v>15</v>
       </c>
       <c r="D286" s="56">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E286" s="56">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F286" s="56">
-        <v>1084.1428571428571</v>
+        <v>1084.5714285714284</v>
       </c>
       <c r="G286" s="56">
-        <v>2.898932665700356</v>
+        <v>2.8977871443624865</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15595,19 +15623,19 @@
         <v>44137</v>
       </c>
       <c r="C287" s="56">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D287" s="56">
-        <v>1228</v>
+        <v>1273</v>
       </c>
       <c r="E287" s="56">
-        <v>1269</v>
+        <v>1315</v>
       </c>
       <c r="F287" s="56">
-        <v>1066.2857142857142</v>
+        <v>1073.2857142857144</v>
       </c>
       <c r="G287" s="56">
-        <v>2.947481243301179</v>
+        <v>2.9415679488885935</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15618,16 +15646,16 @@
         <v>28</v>
       </c>
       <c r="D288" s="56">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E288" s="56">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F288" s="56">
-        <v>959.57142857142856</v>
+        <v>967.14285714285711</v>
       </c>
       <c r="G288" s="56">
-        <v>3.081732916480572</v>
+        <v>3.0723781388478586</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15638,16 +15666,16 @@
         <v>57</v>
       </c>
       <c r="D289" s="56">
-        <v>1463</v>
+        <v>1512</v>
       </c>
       <c r="E289" s="56">
-        <v>1520</v>
+        <v>1569</v>
       </c>
       <c r="F289" s="56">
-        <v>991.42857142857133</v>
+        <v>1006</v>
       </c>
       <c r="G289" s="56">
-        <v>3.29971181556196</v>
+        <v>3.2661175802328879</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15658,16 +15686,16 @@
         <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1071</v>
+        <v>1102</v>
       </c>
       <c r="E290" s="56">
-        <v>1116</v>
+        <v>1147</v>
       </c>
       <c r="F290" s="56">
-        <v>972.85714285714289</v>
+        <v>991.85714285714278</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5535976505139497</v>
+        <v>3.499927985020884</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15675,19 +15703,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1204</v>
+        <v>1237</v>
       </c>
       <c r="E291" s="56">
-        <v>1266</v>
+        <v>1300</v>
       </c>
       <c r="F291" s="56">
-        <v>981</v>
+        <v>1004.8571428571429</v>
       </c>
       <c r="G291" s="56">
-        <v>3.9318479685452163</v>
+        <v>3.8669320443559849</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15695,19 +15723,19 @@
         <v>44142</v>
       </c>
       <c r="C292" s="56">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D292" s="56">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="E292" s="56">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="F292" s="56">
-        <v>977.71428571428567</v>
+        <v>1005.7142857142857</v>
       </c>
       <c r="G292" s="56">
-        <v>4.3687901811805965</v>
+        <v>4.3323863636363642</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15718,16 +15746,16 @@
         <v>9</v>
       </c>
       <c r="D293" s="56">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E293" s="56">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F293" s="56">
-        <v>977.14285714285722</v>
+        <v>1005.8571428571428</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2836257309941521</v>
+        <v>4.2465558869478768</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15735,19 +15763,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D294" s="56">
-        <v>1515</v>
+        <v>1575</v>
       </c>
       <c r="E294" s="56">
-        <v>1575</v>
+        <v>1636</v>
       </c>
       <c r="F294" s="56">
-        <v>1020.8571428571429</v>
+        <v>1051.7142857142858</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3660789252728796</v>
+        <v>4.3194784026079871</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15755,19 +15783,19 @@
         <v>44145</v>
       </c>
       <c r="C295" s="56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D295" s="56">
-        <v>1252</v>
+        <v>1296</v>
       </c>
       <c r="E295" s="56">
-        <v>1306</v>
+        <v>1351</v>
       </c>
       <c r="F295" s="56">
-        <v>1137</v>
+        <v>1173.7142857142856</v>
       </c>
       <c r="G295" s="56">
-        <v>4.2467646689282574</v>
+        <v>4.1991236611489766</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15775,19 +15803,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D296" s="56">
-        <v>1309</v>
+        <v>1334</v>
       </c>
       <c r="E296" s="56">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="F296" s="56">
-        <v>1116.8571428571429</v>
+        <v>1150.4285714285713</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4896392939370688</v>
+        <v>4.4703837079349311</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15798,16 +15826,16 @@
         <v>59</v>
       </c>
       <c r="D297" s="56">
-        <v>1381</v>
+        <v>1413</v>
       </c>
       <c r="E297" s="56">
-        <v>1440</v>
+        <v>1472</v>
       </c>
       <c r="F297" s="56">
-        <v>1163.1428571428571</v>
+        <v>1196.8571428571427</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4829280275116687</v>
+        <v>4.4640725710193365</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15815,19 +15843,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D298" s="56">
-        <v>1217</v>
+        <v>1240</v>
       </c>
       <c r="E298" s="56">
-        <v>1303</v>
+        <v>1327</v>
       </c>
       <c r="F298" s="56">
-        <v>1168.4285714285716</v>
+        <v>1200.7142857142858</v>
       </c>
       <c r="G298" s="56">
-        <v>4.7560826506907938</v>
+        <v>4.735276621058893</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15835,19 +15863,19 @@
         <v>44149</v>
       </c>
       <c r="C299" s="56">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D299" s="56">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="E299" s="56">
-        <v>845</v>
+        <v>892</v>
       </c>
       <c r="F299" s="56">
-        <v>1182.7142857142856</v>
+        <v>1217.5714285714284</v>
       </c>
       <c r="G299" s="56">
-        <v>4.7711076216934414</v>
+        <v>4.7166490672298487</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15858,16 +15886,16 @@
         <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E300" s="56">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F300" s="56">
-        <v>1204.8571428571427</v>
+        <v>1239.4285714285713</v>
       </c>
       <c r="G300" s="56">
-        <v>5.3474033673227419</v>
+        <v>5.2789303826648233</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -15875,19 +15903,19 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D301" s="56">
-        <v>814</v>
+        <v>864</v>
       </c>
       <c r="E301" s="56">
-        <v>866</v>
+        <v>918</v>
       </c>
       <c r="F301" s="56">
-        <v>1103.5714285714284</v>
+        <v>1136.8571428571427</v>
       </c>
       <c r="G301" s="56">
-        <v>5.7346278317152093</v>
+        <v>5.6672530786629807</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -15895,19 +15923,19 @@
         <v>44152</v>
       </c>
       <c r="C302" s="56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D302" s="56">
-        <v>878</v>
+        <v>951</v>
       </c>
       <c r="E302" s="56">
-        <v>935</v>
+        <v>1009</v>
       </c>
       <c r="F302" s="56">
-        <v>1050.5714285714287</v>
+        <v>1088</v>
       </c>
       <c r="G302" s="56">
-        <v>6.0647266793581718</v>
+        <v>5.9611344537815132</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -15915,19 +15943,19 @@
         <v>44153</v>
       </c>
       <c r="C303" s="56">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D303" s="56">
-        <v>952</v>
+        <v>1045</v>
       </c>
       <c r="E303" s="56">
-        <v>1020</v>
+        <v>1117</v>
       </c>
       <c r="F303" s="56">
-        <v>999.28571428571433</v>
+        <v>1046.7142857142858</v>
       </c>
       <c r="G303" s="56">
-        <v>6.3473909935668331</v>
+        <v>6.1962604067148899</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -15935,19 +15963,19 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D304" s="56">
-        <v>975</v>
+        <v>1103</v>
       </c>
       <c r="E304" s="56">
-        <v>1034</v>
+        <v>1166</v>
       </c>
       <c r="F304" s="56">
-        <v>941.28571428571433</v>
+        <v>1003</v>
       </c>
       <c r="G304" s="56">
-        <v>6.7385035665503104</v>
+        <v>6.5232872810141007</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -15955,19 +15983,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D305" s="56">
-        <v>442</v>
+        <v>816</v>
       </c>
       <c r="E305" s="56">
-        <v>500</v>
+        <v>887</v>
       </c>
       <c r="F305" s="56">
-        <v>826.57142857142856</v>
+        <v>940.14285714285711</v>
       </c>
       <c r="G305" s="56">
-        <v>7.1897684064984455</v>
+        <v>6.7163045129919468</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -15975,19 +16003,39 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D306" s="56">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="E306" s="56">
-        <v>420</v>
+        <v>607</v>
       </c>
       <c r="F306" s="56">
-        <v>765.85714285714289</v>
+        <v>899.42857142857144</v>
       </c>
       <c r="G306" s="56">
-        <v>7.4426412982652481</v>
+        <v>6.8138500635324011</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B307" s="73">
+        <v>44157</v>
+      </c>
+      <c r="C307" s="56">
+        <v>42</v>
+      </c>
+      <c r="D307" s="56">
+        <v>246</v>
+      </c>
+      <c r="E307" s="56">
+        <v>288</v>
+      </c>
+      <c r="F307" s="56">
+        <v>856</v>
+      </c>
+      <c r="G307" s="56">
+        <v>6.7757009345794383</v>
       </c>
     </row>
   </sheetData>
@@ -15999,7 +16047,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L227"/>
+  <dimension ref="A1:L228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -23874,6 +23922,41 @@
         <v>30</v>
       </c>
       <c r="L227" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B228" s="14">
+        <v>44159</v>
+      </c>
+      <c r="C228" s="15">
+        <v>6489</v>
+      </c>
+      <c r="D228" s="15">
+        <v>343</v>
+      </c>
+      <c r="E228" s="15">
+        <v>244</v>
+      </c>
+      <c r="F228" s="15">
+        <v>163</v>
+      </c>
+      <c r="G228" s="15">
+        <v>0</v>
+      </c>
+      <c r="H228" s="15">
+        <v>2817</v>
+      </c>
+      <c r="I228" s="15">
+        <v>2809</v>
+      </c>
+      <c r="J228" s="15">
+        <v>86</v>
+      </c>
+      <c r="K228" s="15">
+        <v>27</v>
+      </c>
+      <c r="L228" s="57">
         <v>9</v>
       </c>
     </row>
@@ -23927,7 +24010,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -23943,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -23951,7 +24034,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -23975,7 +24058,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24007,7 +24090,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24031,7 +24114,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24039,7 +24122,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24063,7 +24146,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24079,7 +24162,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24095,7 +24178,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24119,7 +24202,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24363,7 +24446,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6238</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24387,7 +24470,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6432</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24395,7 +24478,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4012</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24403,7 +24486,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24411,7 +24494,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24490,10 +24573,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9096001244748718E-2</v>
+        <v>2.9061678775699491E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24501,10 +24584,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D6" s="44">
-        <v>6.1459467869923762E-2</v>
+        <v>6.121502550626063E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24512,10 +24595,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1629</v>
+        <v>1641</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25346195736735644</v>
+        <v>0.2536713556963982</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24523,10 +24606,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15995021005134588</v>
+        <v>0.15999381666409027</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24534,10 +24617,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14812509724599346</v>
+        <v>0.14778172824238678</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24545,10 +24628,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14781391006690525</v>
+        <v>0.1474725614469006</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24556,10 +24639,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D11" s="44">
-        <v>8.6976816555157932E-2</v>
+        <v>8.7030452929355392E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24567,10 +24650,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8503189668585656E-2</v>
+        <v>5.8432524346885145E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24578,10 +24661,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3410611482806907E-2</v>
+        <v>4.4056268356778484E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24589,10 +24672,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1202738447175977E-2</v>
+        <v>1.1284588035245015E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24600,7 +24683,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6427</v>
+        <v>6469</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月24日時点</t>
+    <t>令和2年11月25日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L304"/>
+  <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7557,7 +7557,7 @@
         <v>44158</v>
       </c>
       <c r="C303" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E303" s="8">
         <v>44158</v>
@@ -7573,6 +7573,12 @@
       </c>
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B304" s="74">
+        <v>44159</v>
+      </c>
+      <c r="C304" s="9">
+        <v>64</v>
+      </c>
       <c r="E304" s="8">
         <v>44159</v>
       </c>
@@ -7584,6 +7590,20 @@
       </c>
       <c r="I304" s="76">
         <v>78.857142857142861</v>
+      </c>
+    </row>
+    <row r="305" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E305" s="8">
+        <v>44160</v>
+      </c>
+      <c r="F305" s="65">
+        <v>73</v>
+      </c>
+      <c r="H305" s="8">
+        <v>44160</v>
+      </c>
+      <c r="I305" s="75">
+        <v>79.857142857142861</v>
       </c>
     </row>
   </sheetData>
@@ -7595,7 +7615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10004,6 +10024,14 @@
         <v>1.0974155069582505</v>
       </c>
     </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B305" s="8">
+        <v>44160</v>
+      </c>
+      <c r="C305" s="62">
+        <v>1.1091269841269842</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10013,7 +10041,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15606,16 +15634,16 @@
         <v>15</v>
       </c>
       <c r="D286" s="56">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E286" s="56">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F286" s="56">
-        <v>1084.5714285714284</v>
+        <v>1086</v>
       </c>
       <c r="G286" s="56">
-        <v>2.8977871443624865</v>
+        <v>2.8939752696658774</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15626,16 +15654,16 @@
         <v>42</v>
       </c>
       <c r="D287" s="56">
-        <v>1273</v>
+        <v>1290</v>
       </c>
       <c r="E287" s="56">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="F287" s="56">
-        <v>1073.2857142857144</v>
+        <v>1077.1428571428573</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9415679488885935</v>
+        <v>2.931034482758621</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15643,19 +15671,19 @@
         <v>44138</v>
       </c>
       <c r="C288" s="56">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D288" s="56">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E288" s="56">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F288" s="56">
-        <v>967.14285714285711</v>
+        <v>972.14285714285722</v>
       </c>
       <c r="G288" s="56">
-        <v>3.0723781388478586</v>
+        <v>3.0712711241734021</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15666,16 +15694,16 @@
         <v>57</v>
       </c>
       <c r="D289" s="56">
-        <v>1512</v>
+        <v>1541</v>
       </c>
       <c r="E289" s="56">
-        <v>1569</v>
+        <v>1598</v>
       </c>
       <c r="F289" s="56">
-        <v>1006</v>
+        <v>1015.1428571428571</v>
       </c>
       <c r="G289" s="56">
-        <v>3.2661175802328879</v>
+        <v>3.2507739938080498</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15686,16 +15714,16 @@
         <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="E290" s="56">
-        <v>1147</v>
+        <v>1163</v>
       </c>
       <c r="F290" s="56">
-        <v>991.85714285714278</v>
+        <v>1003.2857142857143</v>
       </c>
       <c r="G290" s="56">
-        <v>3.499927985020884</v>
+        <v>3.4742987327352983</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15706,16 +15734,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1237</v>
+        <v>1262</v>
       </c>
       <c r="E291" s="56">
-        <v>1300</v>
+        <v>1325</v>
       </c>
       <c r="F291" s="56">
-        <v>1004.8571428571429</v>
+        <v>1019.8571428571429</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8669320443559849</v>
+        <v>3.8240649950973524</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15726,16 +15754,16 @@
         <v>55</v>
       </c>
       <c r="D292" s="56">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="E292" s="56">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="F292" s="56">
-        <v>1005.7142857142857</v>
+        <v>1023</v>
       </c>
       <c r="G292" s="56">
-        <v>4.3323863636363642</v>
+        <v>4.27314620863008</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15743,19 +15771,19 @@
         <v>44143</v>
       </c>
       <c r="C293" s="56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D293" s="56">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E293" s="56">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F293" s="56">
-        <v>1005.8571428571428</v>
+        <v>1022.7142857142857</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2465558869478768</v>
+        <v>4.2044978348931412</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15763,19 +15791,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D294" s="56">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="E294" s="56">
-        <v>1636</v>
+        <v>1648</v>
       </c>
       <c r="F294" s="56">
-        <v>1051.7142857142858</v>
+        <v>1067.8571428571429</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3194784026079871</v>
+        <v>4.2943143812709028</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15786,16 +15814,16 @@
         <v>55</v>
       </c>
       <c r="D295" s="56">
-        <v>1296</v>
+        <v>1326</v>
       </c>
       <c r="E295" s="56">
-        <v>1351</v>
+        <v>1381</v>
       </c>
       <c r="F295" s="56">
-        <v>1173.7142857142856</v>
+        <v>1193</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1991236611489766</v>
+        <v>4.1551909950904085</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15803,19 +15831,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D296" s="56">
-        <v>1334</v>
+        <v>1399</v>
       </c>
       <c r="E296" s="56">
-        <v>1406</v>
+        <v>1472</v>
       </c>
       <c r="F296" s="56">
-        <v>1150.4285714285713</v>
+        <v>1175</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4703837079349311</v>
+        <v>4.4133738601823707</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15823,19 +15851,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D297" s="56">
-        <v>1413</v>
+        <v>1431</v>
       </c>
       <c r="E297" s="56">
-        <v>1472</v>
+        <v>1491</v>
       </c>
       <c r="F297" s="56">
-        <v>1196.8571428571427</v>
+        <v>1221.8571428571429</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4640725710193365</v>
+        <v>4.4195019291476667</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15846,16 +15874,16 @@
         <v>87</v>
       </c>
       <c r="D298" s="56">
-        <v>1240</v>
+        <v>1264</v>
       </c>
       <c r="E298" s="56">
-        <v>1327</v>
+        <v>1351</v>
       </c>
       <c r="F298" s="56">
-        <v>1200.7142857142858</v>
+        <v>1225.5714285714284</v>
       </c>
       <c r="G298" s="56">
-        <v>4.735276621058893</v>
+        <v>4.6858608229397367</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15866,16 +15894,16 @@
         <v>59</v>
       </c>
       <c r="D299" s="56">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E299" s="56">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="F299" s="56">
-        <v>1217.5714285714284</v>
+        <v>1242.1428571428571</v>
       </c>
       <c r="G299" s="56">
-        <v>4.7166490672298487</v>
+        <v>4.6693502012650949</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15886,16 +15914,16 @@
         <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="E300" s="56">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F300" s="56">
-        <v>1239.4285714285713</v>
+        <v>1264</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2789303826648233</v>
+        <v>5.2102169981916822</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -15903,19 +15931,19 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D301" s="56">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="E301" s="56">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="F301" s="56">
-        <v>1136.8571428571427</v>
+        <v>1164</v>
       </c>
       <c r="G301" s="56">
-        <v>5.6672530786629807</v>
+        <v>5.5719194894452633</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -15926,16 +15954,16 @@
         <v>58</v>
       </c>
       <c r="D302" s="56">
-        <v>951</v>
+        <v>989</v>
       </c>
       <c r="E302" s="56">
-        <v>1009</v>
+        <v>1047</v>
       </c>
       <c r="F302" s="56">
-        <v>1088</v>
+        <v>1116.2857142857142</v>
       </c>
       <c r="G302" s="56">
-        <v>5.9611344537815132</v>
+        <v>5.8484770923982605</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -15946,16 +15974,16 @@
         <v>72</v>
       </c>
       <c r="D303" s="56">
-        <v>1045</v>
+        <v>1066</v>
       </c>
       <c r="E303" s="56">
-        <v>1117</v>
+        <v>1138</v>
       </c>
       <c r="F303" s="56">
-        <v>1046.7142857142858</v>
+        <v>1068.5714285714287</v>
       </c>
       <c r="G303" s="56">
-        <v>6.1962604067148899</v>
+        <v>6.0962566844919772</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -15966,16 +15994,16 @@
         <v>63</v>
       </c>
       <c r="D304" s="56">
-        <v>1103</v>
+        <v>1181</v>
       </c>
       <c r="E304" s="56">
-        <v>1166</v>
+        <v>1244</v>
       </c>
       <c r="F304" s="56">
-        <v>1003</v>
+        <v>1033.2857142857142</v>
       </c>
       <c r="G304" s="56">
-        <v>6.5232872810141007</v>
+        <v>6.3459145582745746</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -15983,19 +16011,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D305" s="56">
-        <v>816</v>
+        <v>1014</v>
       </c>
       <c r="E305" s="56">
-        <v>887</v>
+        <v>1096</v>
       </c>
       <c r="F305" s="56">
-        <v>940.14285714285711</v>
+        <v>996.85714285714289</v>
       </c>
       <c r="G305" s="56">
-        <v>6.7163045129919468</v>
+        <v>6.5061622241329902</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16003,19 +16031,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D306" s="56">
-        <v>561</v>
+        <v>813</v>
       </c>
       <c r="E306" s="56">
-        <v>607</v>
+        <v>870</v>
       </c>
       <c r="F306" s="56">
-        <v>899.42857142857144</v>
+        <v>991.71428571428567</v>
       </c>
       <c r="G306" s="56">
-        <v>6.8138500635324011</v>
+        <v>6.5110919043503319</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16026,16 +16054,36 @@
         <v>42</v>
       </c>
       <c r="D307" s="56">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="E307" s="56">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="F307" s="56">
-        <v>856</v>
+        <v>954.71428571428578</v>
       </c>
       <c r="G307" s="56">
-        <v>6.7757009345794383</v>
+        <v>6.4192727816848718</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B308" s="73">
+        <v>44158</v>
+      </c>
+      <c r="C308" s="56">
+        <v>18</v>
+      </c>
+      <c r="D308" s="56">
+        <v>257</v>
+      </c>
+      <c r="E308" s="56">
+        <v>275</v>
+      </c>
+      <c r="F308" s="56">
+        <v>858.57142857142856</v>
+      </c>
+      <c r="G308" s="56">
+        <v>6.5224625623960071</v>
       </c>
     </row>
   </sheetData>
@@ -16047,7 +16095,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L228"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -23958,6 +24006,41 @@
       </c>
       <c r="L228" s="57">
         <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B229" s="14">
+        <v>44160</v>
+      </c>
+      <c r="C229" s="15">
+        <v>6562</v>
+      </c>
+      <c r="D229" s="15">
+        <v>330</v>
+      </c>
+      <c r="E229" s="15">
+        <v>236</v>
+      </c>
+      <c r="F229" s="15">
+        <v>169</v>
+      </c>
+      <c r="G229" s="15">
+        <v>0</v>
+      </c>
+      <c r="H229" s="15">
+        <v>2849</v>
+      </c>
+      <c r="I229" s="15">
+        <v>2863</v>
+      </c>
+      <c r="J229" s="15">
+        <v>86</v>
+      </c>
+      <c r="K229" s="15">
+        <v>29</v>
+      </c>
+      <c r="L229" s="57">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -24010,7 +24093,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24026,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24034,7 +24117,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>850</v>
+        <v>859</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24050,7 +24133,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -24058,7 +24141,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24066,7 +24149,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24122,7 +24205,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>545</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24138,7 +24221,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24146,7 +24229,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24154,7 +24237,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24162,7 +24245,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24178,7 +24261,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24202,7 +24285,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24274,7 +24357,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -24282,7 +24365,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -24446,7 +24529,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6280</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24454,7 +24537,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24470,7 +24553,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6474</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24478,7 +24561,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4043</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24486,7 +24569,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24494,7 +24577,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1281</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24502,7 +24585,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24573,10 +24656,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9061678775699491E-2</v>
+        <v>2.9043106083766434E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24584,10 +24667,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D6" s="44">
-        <v>6.121502550626063E-2</v>
+        <v>6.1143381228981962E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24595,10 +24678,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1641</v>
+        <v>1652</v>
       </c>
       <c r="D7" s="44">
-        <v>0.2536713556963982</v>
+        <v>0.25252216447569553</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24606,10 +24689,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1035</v>
+        <v>1048</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15999381666409027</v>
+        <v>0.16019565881993275</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24617,10 +24700,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14778172824238678</v>
+        <v>0.14888413329257108</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24628,10 +24711,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="D10" s="44">
-        <v>0.1474725614469006</v>
+        <v>0.1464383980434118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24639,10 +24722,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7030452929355392E-2</v>
+        <v>8.7587893610516665E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24650,10 +24733,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8432524346885145E-2</v>
+        <v>5.8697645979822681E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24661,10 +24744,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D13" s="44">
-        <v>4.4056268356778484E-2</v>
+        <v>4.4176092937939469E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24672,10 +24755,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1284588035245015E-2</v>
+        <v>1.1311525527361662E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24683,10 +24766,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6469</v>
+        <v>6542</v>
       </c>
       <c r="D15" s="47">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月25日時点</t>
+    <t>令和2年11月26日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L305"/>
+  <dimension ref="A1:L306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7577,7 +7577,7 @@
         <v>44159</v>
       </c>
       <c r="C304" s="9">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E304" s="8">
         <v>44159</v>
@@ -7592,7 +7592,13 @@
         <v>78.857142857142861</v>
       </c>
     </row>
-    <row r="305" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B305" s="74">
+        <v>44160</v>
+      </c>
+      <c r="C305" s="9">
+        <v>76</v>
+      </c>
       <c r="E305" s="8">
         <v>44160</v>
       </c>
@@ -7604,6 +7610,20 @@
       </c>
       <c r="I305" s="75">
         <v>79.857142857142861</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E306" s="8">
+        <v>44161</v>
+      </c>
+      <c r="F306" s="65">
+        <v>82</v>
+      </c>
+      <c r="H306" s="8">
+        <v>44161</v>
+      </c>
+      <c r="I306" s="75">
+        <v>76.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7615,7 +7635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10032,6 +10052,14 @@
         <v>1.1091269841269842</v>
       </c>
     </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B306" s="8">
+        <v>44161</v>
+      </c>
+      <c r="C306" s="62">
+        <v>0.99813432835820892</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10041,7 +10069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15674,16 +15702,16 @@
         <v>29</v>
       </c>
       <c r="D288" s="56">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E288" s="56">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F288" s="56">
-        <v>972.14285714285722</v>
+        <v>972.42857142857144</v>
       </c>
       <c r="G288" s="56">
-        <v>3.0712711241734021</v>
+        <v>3.0703687380637579</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15694,16 +15722,16 @@
         <v>57</v>
       </c>
       <c r="D289" s="56">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="E289" s="56">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="F289" s="56">
-        <v>1015.1428571428571</v>
+        <v>1015.7142857142857</v>
       </c>
       <c r="G289" s="56">
-        <v>3.2507739938080498</v>
+        <v>3.2489451476793252</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15714,16 +15742,16 @@
         <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E290" s="56">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F290" s="56">
-        <v>1003.2857142857143</v>
+        <v>1004</v>
       </c>
       <c r="G290" s="56">
-        <v>3.4742987327352983</v>
+        <v>3.4718269778030733</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15734,16 +15762,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E291" s="56">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F291" s="56">
-        <v>1019.8571428571429</v>
+        <v>1020.7142857142857</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8240649950973524</v>
+        <v>3.8208537438768371</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15754,16 +15782,16 @@
         <v>55</v>
       </c>
       <c r="D292" s="56">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E292" s="56">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F292" s="56">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G292" s="56">
-        <v>4.27314620863008</v>
+        <v>4.2689732142857144</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15780,10 +15808,10 @@
         <v>446</v>
       </c>
       <c r="F293" s="56">
-        <v>1022.7142857142857</v>
+        <v>1023.7142857142857</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2044978348931412</v>
+        <v>4.2003907340217692</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15794,16 +15822,16 @@
         <v>62</v>
       </c>
       <c r="D294" s="56">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="E294" s="56">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="F294" s="56">
-        <v>1067.8571428571429</v>
+        <v>1069</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2943143812709028</v>
+        <v>4.2897233729787514</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15814,16 +15842,16 @@
         <v>55</v>
       </c>
       <c r="D295" s="56">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E295" s="56">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F295" s="56">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1551909950904085</v>
+        <v>4.1517109356305335</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15834,16 +15862,16 @@
         <v>73</v>
       </c>
       <c r="D296" s="56">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E296" s="56">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F296" s="56">
-        <v>1175</v>
+        <v>1175.8571428571429</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4133738601823707</v>
+        <v>4.4101567245778153</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15860,10 +15888,10 @@
         <v>1491</v>
       </c>
       <c r="F297" s="56">
-        <v>1221.8571428571429</v>
+        <v>1222.5714285714287</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4195019291476667</v>
+        <v>4.4169198410843649</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15880,10 +15908,10 @@
         <v>1351</v>
       </c>
       <c r="F298" s="56">
-        <v>1225.5714285714284</v>
+        <v>1226.1428571428571</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6858608229397367</v>
+        <v>4.6836770360013986</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15894,16 +15922,16 @@
         <v>59</v>
       </c>
       <c r="D299" s="56">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E299" s="56">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F299" s="56">
-        <v>1242.1428571428571</v>
+        <v>1242.7142857142858</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6693502012650949</v>
+        <v>4.6672031267961831</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15914,16 +15942,16 @@
         <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E300" s="56">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F300" s="56">
-        <v>1264</v>
+        <v>1264.7142857142858</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2102169981916822</v>
+        <v>5.2072743702699658</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -15934,16 +15962,16 @@
         <v>55</v>
       </c>
       <c r="D301" s="56">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="E301" s="56">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="F301" s="56">
-        <v>1164</v>
+        <v>1165.2857142857142</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5719194894452633</v>
+        <v>5.5657717298026244</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -15954,16 +15982,16 @@
         <v>58</v>
       </c>
       <c r="D302" s="56">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="E302" s="56">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="F302" s="56">
-        <v>1116.2857142857142</v>
+        <v>1118</v>
       </c>
       <c r="G302" s="56">
-        <v>5.8484770923982605</v>
+        <v>5.8395093278814221</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -15974,16 +16002,16 @@
         <v>72</v>
       </c>
       <c r="D303" s="56">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E303" s="56">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="F303" s="56">
-        <v>1068.5714285714287</v>
+        <v>1070.7142857142858</v>
       </c>
       <c r="G303" s="56">
-        <v>6.0962566844919772</v>
+        <v>6.0840560373582386</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -15994,16 +16022,16 @@
         <v>63</v>
       </c>
       <c r="D304" s="56">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="E304" s="56">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="F304" s="56">
-        <v>1033.2857142857142</v>
+        <v>1036</v>
       </c>
       <c r="G304" s="56">
-        <v>6.3459145582745746</v>
+        <v>6.3292884721456151</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16011,19 +16039,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D305" s="56">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="E305" s="56">
-        <v>1096</v>
+        <v>1129</v>
       </c>
       <c r="F305" s="56">
-        <v>996.85714285714289</v>
+        <v>1004.2857142857142</v>
       </c>
       <c r="G305" s="56">
-        <v>6.5061622241329902</v>
+        <v>6.4864864864864851</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16031,19 +16059,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D306" s="56">
-        <v>813</v>
+        <v>861</v>
       </c>
       <c r="E306" s="56">
-        <v>870</v>
+        <v>920</v>
       </c>
       <c r="F306" s="56">
-        <v>991.71428571428567</v>
+        <v>1006.1428571428571</v>
       </c>
       <c r="G306" s="56">
-        <v>6.5110919043503319</v>
+        <v>6.4745137015476368</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16051,19 +16079,19 @@
         <v>44157</v>
       </c>
       <c r="C307" s="56">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D307" s="56">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E307" s="56">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F307" s="56">
-        <v>954.71428571428578</v>
+        <v>970.71428571428567</v>
       </c>
       <c r="G307" s="56">
-        <v>6.4192727816848718</v>
+        <v>6.3870493009565861</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16071,19 +16099,39 @@
         <v>44158</v>
       </c>
       <c r="C308" s="56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D308" s="56">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="E308" s="56">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="F308" s="56">
-        <v>858.57142857142856</v>
+        <v>879.28571428571433</v>
       </c>
       <c r="G308" s="56">
-        <v>6.5224625623960071</v>
+        <v>6.5150284321689682</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B309" s="73">
+        <v>44159</v>
+      </c>
+      <c r="C309" s="56">
+        <v>47</v>
+      </c>
+      <c r="D309" s="56">
+        <v>1031</v>
+      </c>
+      <c r="E309" s="56">
+        <v>1078</v>
+      </c>
+      <c r="F309" s="56">
+        <v>883.14285714285711</v>
+      </c>
+      <c r="G309" s="56">
+        <v>6.3086379812358473</v>
       </c>
     </row>
   </sheetData>
@@ -16095,7 +16143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24041,6 +24089,41 @@
       </c>
       <c r="L229" s="57">
         <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B230" s="14">
+        <v>44161</v>
+      </c>
+      <c r="C230" s="15">
+        <v>6644</v>
+      </c>
+      <c r="D230" s="15">
+        <v>333</v>
+      </c>
+      <c r="E230" s="15">
+        <v>249</v>
+      </c>
+      <c r="F230" s="15">
+        <v>165</v>
+      </c>
+      <c r="G230" s="15">
+        <v>0</v>
+      </c>
+      <c r="H230" s="15">
+        <v>2871</v>
+      </c>
+      <c r="I230" s="15">
+        <v>2912</v>
+      </c>
+      <c r="J230" s="15">
+        <v>86</v>
+      </c>
+      <c r="K230" s="15">
+        <v>28</v>
+      </c>
+      <c r="L230" s="57">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -24093,7 +24176,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24109,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24117,7 +24200,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24133,7 +24216,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -24141,7 +24224,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>708</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24149,7 +24232,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24173,7 +24256,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24197,7 +24280,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24205,7 +24288,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24221,7 +24304,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24229,7 +24312,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24245,7 +24328,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24261,7 +24344,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24285,7 +24368,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24317,7 +24400,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24325,7 +24408,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -24349,7 +24432,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -24529,7 +24612,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6351</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24545,7 +24628,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
@@ -24553,7 +24636,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6547</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24561,7 +24644,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4101</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24569,7 +24652,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24577,7 +24660,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1288</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24585,7 +24668,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24656,10 +24739,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9043106083766434E-2</v>
+        <v>2.9136473429951692E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24667,10 +24750,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D6" s="44">
-        <v>6.1143381228981962E-2</v>
+        <v>6.1745169082125601E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24678,10 +24761,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1652</v>
+        <v>1671</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25252216447569553</v>
+        <v>0.25226449275362317</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24689,10 +24772,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16019565881993275</v>
+        <v>0.16032608695652173</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24700,10 +24783,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14888413329257108</v>
+        <v>0.14855072463768115</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24711,10 +24794,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="D10" s="44">
-        <v>0.1464383980434118</v>
+        <v>0.14568236714975846</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24722,10 +24805,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7587893610516665E-2</v>
+        <v>8.8013285024154592E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24733,10 +24816,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8697645979822681E-2</v>
+        <v>5.8876811594202896E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24744,10 +24827,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D13" s="44">
-        <v>4.4176092937939469E-2</v>
+        <v>4.4233091787439616E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24758,7 +24841,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1311525527361662E-2</v>
+        <v>1.1171497584541062E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24766,10 +24849,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6542</v>
+        <v>6624</v>
       </c>
       <c r="D15" s="47">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月26日時点</t>
+    <t>令和2年11月27日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L306"/>
+  <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7497,7 +7497,7 @@
         <v>44155</v>
       </c>
       <c r="C300" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E300" s="8">
         <v>44155</v>
@@ -7557,7 +7557,7 @@
         <v>44158</v>
       </c>
       <c r="C303" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E303" s="8">
         <v>44158</v>
@@ -7577,7 +7577,7 @@
         <v>44159</v>
       </c>
       <c r="C304" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E304" s="8">
         <v>44159</v>
@@ -7597,7 +7597,7 @@
         <v>44160</v>
       </c>
       <c r="C305" s="9">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E305" s="8">
         <v>44160</v>
@@ -7613,6 +7613,12 @@
       </c>
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B306" s="74">
+        <v>44161</v>
+      </c>
+      <c r="C306" s="9">
+        <v>84</v>
+      </c>
       <c r="E306" s="8">
         <v>44161</v>
       </c>
@@ -7624,6 +7630,20 @@
       </c>
       <c r="I306" s="75">
         <v>76.428571428571431</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E307" s="8">
+        <v>44162</v>
+      </c>
+      <c r="F307" s="65">
+        <v>107</v>
+      </c>
+      <c r="H307" s="8">
+        <v>44162</v>
+      </c>
+      <c r="I307" s="75">
+        <v>78.857142857142861</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +7655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10060,6 +10080,14 @@
         <v>0.99813432835820892</v>
       </c>
     </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B307" s="8">
+        <v>44162</v>
+      </c>
+      <c r="C307" s="62">
+        <v>0.97526501766784457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10069,7 +10097,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15702,16 +15730,16 @@
         <v>29</v>
       </c>
       <c r="D288" s="56">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E288" s="56">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F288" s="56">
-        <v>972.42857142857144</v>
+        <v>972.71428571428578</v>
       </c>
       <c r="G288" s="56">
-        <v>3.0703687380637579</v>
+        <v>3.0694668820678515</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15722,16 +15750,16 @@
         <v>57</v>
       </c>
       <c r="D289" s="56">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E289" s="56">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F289" s="56">
-        <v>1015.7142857142857</v>
+        <v>1015.8571428571429</v>
       </c>
       <c r="G289" s="56">
-        <v>3.2489451476793252</v>
+        <v>3.2484882576290253</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15742,16 +15770,16 @@
         <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="E290" s="56">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="F290" s="56">
-        <v>1004</v>
+        <v>1004.7142857142858</v>
       </c>
       <c r="G290" s="56">
-        <v>3.4718269778030733</v>
+        <v>3.4693587373809183</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15762,16 +15790,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E291" s="56">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F291" s="56">
-        <v>1020.7142857142857</v>
+        <v>1021.5714285714286</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8208537438768371</v>
+        <v>3.8176478814151871</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15782,16 +15810,16 @@
         <v>55</v>
       </c>
       <c r="D292" s="56">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E292" s="56">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F292" s="56">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2689732142857144</v>
+        <v>4.2648083623693376</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15802,16 +15830,16 @@
         <v>10</v>
       </c>
       <c r="D293" s="56">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E293" s="56">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F293" s="56">
-        <v>1023.7142857142857</v>
+        <v>1024.8571428571429</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2003907340217692</v>
+        <v>4.1957067187064396</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15822,16 +15850,16 @@
         <v>62</v>
       </c>
       <c r="D294" s="56">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="E294" s="56">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="F294" s="56">
-        <v>1069</v>
+        <v>1070.7142857142858</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2897233729787514</v>
+        <v>4.2828552368245489</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15848,10 +15876,10 @@
         <v>1382</v>
       </c>
       <c r="F295" s="56">
-        <v>1194</v>
+        <v>1195.4285714285716</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1517109356305335</v>
+        <v>4.1467495219885278</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15862,16 +15890,16 @@
         <v>73</v>
       </c>
       <c r="D296" s="56">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="E296" s="56">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="F296" s="56">
-        <v>1175.8571428571429</v>
+        <v>1178</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4101567245778153</v>
+        <v>4.4021343681785101</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15888,10 +15916,10 @@
         <v>1491</v>
       </c>
       <c r="F297" s="56">
-        <v>1222.5714285714287</v>
+        <v>1224.1428571428571</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4169198410843649</v>
+        <v>4.4112498541253355</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -15908,10 +15936,10 @@
         <v>1351</v>
       </c>
       <c r="F298" s="56">
-        <v>1226.1428571428571</v>
+        <v>1227.5714285714284</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6836770360013986</v>
+        <v>4.678226463400442</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -15922,16 +15950,16 @@
         <v>59</v>
       </c>
       <c r="D299" s="56">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E299" s="56">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F299" s="56">
-        <v>1242.7142857142858</v>
+        <v>1244.4285714285713</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6672031267961831</v>
+        <v>4.6607737343588571</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -15942,16 +15970,16 @@
         <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E300" s="56">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F300" s="56">
-        <v>1264.7142857142858</v>
+        <v>1266.4285714285716</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2072743702699658</v>
+        <v>5.2002256063169776</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -15962,16 +15990,16 @@
         <v>55</v>
       </c>
       <c r="D301" s="56">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E301" s="56">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F301" s="56">
-        <v>1165.2857142857142</v>
+        <v>1166.2857142857142</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5657717298026244</v>
+        <v>5.5609995100440965</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -15979,19 +16007,19 @@
         <v>44152</v>
       </c>
       <c r="C302" s="56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D302" s="56">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="E302" s="56">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="F302" s="56">
-        <v>1118</v>
+        <v>1121.8571428571427</v>
       </c>
       <c r="G302" s="56">
-        <v>5.8395093278814221</v>
+        <v>5.8321660511906277</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -15999,19 +16027,19 @@
         <v>44153</v>
       </c>
       <c r="C303" s="56">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D303" s="56">
-        <v>1070</v>
+        <v>1093</v>
       </c>
       <c r="E303" s="56">
-        <v>1142</v>
+        <v>1168</v>
       </c>
       <c r="F303" s="56">
-        <v>1070.7142857142858</v>
+        <v>1077.7142857142858</v>
       </c>
       <c r="G303" s="56">
-        <v>6.0840560373582386</v>
+        <v>6.0975609756097553</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16019,19 +16047,19 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D304" s="56">
-        <v>1185</v>
+        <v>1216</v>
       </c>
       <c r="E304" s="56">
-        <v>1248</v>
+        <v>1280</v>
       </c>
       <c r="F304" s="56">
-        <v>1036</v>
+        <v>1047.5714285714287</v>
       </c>
       <c r="G304" s="56">
-        <v>6.3292884721456151</v>
+        <v>6.3275603436519852</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16039,19 +16067,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D305" s="56">
-        <v>1045</v>
+        <v>1075</v>
       </c>
       <c r="E305" s="56">
-        <v>1129</v>
+        <v>1161</v>
       </c>
       <c r="F305" s="56">
-        <v>1004.2857142857142</v>
+        <v>1020.4285714285714</v>
       </c>
       <c r="G305" s="56">
-        <v>6.4864864864864851</v>
+        <v>6.4818703625927485</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16062,16 +16090,16 @@
         <v>59</v>
       </c>
       <c r="D306" s="56">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="E306" s="56">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="F306" s="56">
-        <v>1006.1428571428571</v>
+        <v>1022.8571428571428</v>
       </c>
       <c r="G306" s="56">
-        <v>6.4745137015476368</v>
+        <v>6.466480446927374</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16082,16 +16110,16 @@
         <v>43</v>
       </c>
       <c r="D307" s="56">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E307" s="56">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F307" s="56">
-        <v>970.71428571428567</v>
+        <v>987.42857142857144</v>
       </c>
       <c r="G307" s="56">
-        <v>6.3870493009565861</v>
+        <v>6.380208333333333</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16102,16 +16130,16 @@
         <v>22</v>
       </c>
       <c r="D308" s="56">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E308" s="56">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F308" s="56">
-        <v>879.28571428571433</v>
+        <v>897.14285714285722</v>
       </c>
       <c r="G308" s="56">
-        <v>6.5150284321689682</v>
+        <v>6.4968152866242042</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16119,19 +16147,39 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D309" s="56">
-        <v>1031</v>
+        <v>1070</v>
       </c>
       <c r="E309" s="56">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="F309" s="56">
-        <v>883.14285714285711</v>
+        <v>903.85714285714278</v>
       </c>
       <c r="G309" s="56">
-        <v>6.3086379812358473</v>
+        <v>6.2746957483799592</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B310" s="73">
+        <v>44160</v>
+      </c>
+      <c r="C310" s="56">
+        <v>76</v>
+      </c>
+      <c r="D310" s="56">
+        <v>881</v>
+      </c>
+      <c r="E310" s="56">
+        <v>957</v>
+      </c>
+      <c r="F310" s="56">
+        <v>873.71428571428578</v>
+      </c>
+      <c r="G310" s="56">
+        <v>6.5075212557226951</v>
       </c>
     </row>
   </sheetData>
@@ -16143,7 +16191,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24123,6 +24171,41 @@
         <v>28</v>
       </c>
       <c r="L230" s="57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B231" s="14">
+        <v>44162</v>
+      </c>
+      <c r="C231" s="15">
+        <v>6751</v>
+      </c>
+      <c r="D231" s="15">
+        <v>341</v>
+      </c>
+      <c r="E231" s="15">
+        <v>280</v>
+      </c>
+      <c r="F231" s="15">
+        <v>172</v>
+      </c>
+      <c r="G231" s="15">
+        <v>0</v>
+      </c>
+      <c r="H231" s="15">
+        <v>2893</v>
+      </c>
+      <c r="I231" s="15">
+        <v>2947</v>
+      </c>
+      <c r="J231" s="15">
+        <v>86</v>
+      </c>
+      <c r="K231" s="15">
+        <v>32</v>
+      </c>
+      <c r="L231" s="57">
         <v>11</v>
       </c>
     </row>
@@ -24176,7 +24259,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24192,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24200,7 +24283,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24216,7 +24299,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -24224,7 +24307,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>722</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24232,7 +24315,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24248,7 +24331,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -24280,7 +24363,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24288,7 +24371,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24304,7 +24387,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24312,7 +24395,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24320,7 +24403,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24328,7 +24411,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24368,7 +24451,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24392,7 +24475,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -24400,7 +24483,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24408,7 +24491,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -24440,7 +24523,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -24448,7 +24531,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -24612,7 +24695,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6432</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24620,7 +24703,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24636,7 +24719,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6629</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24644,7 +24727,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4166</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24652,7 +24735,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24660,7 +24743,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1303</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24668,7 +24751,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24739,10 +24822,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D5" s="44">
-        <v>2.9136473429951692E-2</v>
+        <v>2.941613430396672E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24750,10 +24833,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D6" s="44">
-        <v>6.1745169082125601E-2</v>
+        <v>6.1655028970435302E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24761,10 +24844,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1671</v>
+        <v>1695</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25226449275362317</v>
+        <v>0.25181993760213933</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24772,10 +24855,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1062</v>
+        <v>1078</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16032608695652173</v>
+        <v>0.16015450898826325</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24783,10 +24866,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14855072463768115</v>
+        <v>0.14841776853365027</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24794,10 +24877,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14568236714975846</v>
+        <v>0.14604070717575399</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24805,10 +24888,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D11" s="44">
-        <v>8.8013285024154592E-2</v>
+        <v>8.7654137572426086E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24816,10 +24899,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D12" s="44">
-        <v>5.8876811594202896E-2</v>
+        <v>5.9872232952013077E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24827,10 +24910,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D13" s="44">
-        <v>4.4233091787439616E-2</v>
+        <v>4.3827068786213043E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24838,10 +24921,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1171497584541062E-2</v>
+        <v>1.1142475115138909E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24849,7 +24932,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6624</v>
+        <v>6731</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月27日時点</t>
+    <t>令和2年11月28日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L307"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7577,7 +7577,7 @@
         <v>44159</v>
       </c>
       <c r="C304" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E304" s="8">
         <v>44159</v>
@@ -7597,7 +7597,7 @@
         <v>44160</v>
       </c>
       <c r="C305" s="9">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E305" s="8">
         <v>44160</v>
@@ -7617,7 +7617,7 @@
         <v>44161</v>
       </c>
       <c r="C306" s="9">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E306" s="8">
         <v>44161</v>
@@ -7633,6 +7633,12 @@
       </c>
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B307" s="74">
+        <v>44162</v>
+      </c>
+      <c r="C307" s="9">
+        <v>85</v>
+      </c>
       <c r="E307" s="8">
         <v>44162</v>
       </c>
@@ -7644,6 +7650,20 @@
       </c>
       <c r="I307" s="75">
         <v>78.857142857142861</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E308" s="8">
+        <v>44163</v>
+      </c>
+      <c r="F308" s="65">
+        <v>113</v>
+      </c>
+      <c r="H308" s="8">
+        <v>44163</v>
+      </c>
+      <c r="I308" s="75">
+        <v>79.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7655,7 +7675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10088,6 +10108,14 @@
         <v>0.97526501766784457</v>
       </c>
     </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B308" s="8">
+        <v>44163</v>
+      </c>
+      <c r="C308" s="62">
+        <v>0.94718909710391819</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10097,7 +10125,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16170,16 +16198,36 @@
         <v>76</v>
       </c>
       <c r="D310" s="56">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="E310" s="56">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="F310" s="56">
-        <v>873.71428571428578</v>
+        <v>875</v>
       </c>
       <c r="G310" s="56">
-        <v>6.5075212557226951</v>
+        <v>6.4979591836734683</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B311" s="73">
+        <v>44161</v>
+      </c>
+      <c r="C311" s="56">
+        <v>60</v>
+      </c>
+      <c r="D311" s="56">
+        <v>437</v>
+      </c>
+      <c r="E311" s="56">
+        <v>497</v>
+      </c>
+      <c r="F311" s="56">
+        <v>763.14285714285722</v>
+      </c>
+      <c r="G311" s="56">
+        <v>7.3755147884687382</v>
       </c>
     </row>
   </sheetData>
@@ -16191,7 +16239,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24206,6 +24254,41 @@
         <v>32</v>
       </c>
       <c r="L231" s="57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B232" s="14">
+        <v>44163</v>
+      </c>
+      <c r="C232" s="15">
+        <v>6864</v>
+      </c>
+      <c r="D232" s="15">
+        <v>354</v>
+      </c>
+      <c r="E232" s="15">
+        <v>332</v>
+      </c>
+      <c r="F232" s="15">
+        <v>171</v>
+      </c>
+      <c r="G232" s="15">
+        <v>0</v>
+      </c>
+      <c r="H232" s="15">
+        <v>2908</v>
+      </c>
+      <c r="I232" s="15">
+        <v>2978</v>
+      </c>
+      <c r="J232" s="15">
+        <v>86</v>
+      </c>
+      <c r="K232" s="15">
+        <v>35</v>
+      </c>
+      <c r="L232" s="57">
         <v>11</v>
       </c>
     </row>
@@ -24259,7 +24342,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24275,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24283,7 +24366,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>882</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24307,7 +24390,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>742</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24315,7 +24398,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24323,7 +24406,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -24339,7 +24422,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24371,7 +24454,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>600</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24387,7 +24470,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24395,7 +24478,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24403,7 +24486,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24411,7 +24494,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24427,7 +24510,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24451,7 +24534,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24475,7 +24558,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -24483,7 +24566,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24491,7 +24574,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -24547,7 +24630,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -24555,7 +24638,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
@@ -24579,7 +24662,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
@@ -24635,7 +24718,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
@@ -24695,7 +24778,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6537</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24703,7 +24786,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24719,7 +24802,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6736</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24727,7 +24810,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4253</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24735,7 +24818,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24743,7 +24826,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1313</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24751,7 +24834,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24822,10 +24905,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D5" s="44">
-        <v>2.941613430396672E-2</v>
+        <v>3.0391583869082407E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24833,10 +24916,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D6" s="44">
-        <v>6.1655028970435302E-2</v>
+        <v>6.2536528345996489E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24844,10 +24927,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1695</v>
+        <v>1710</v>
       </c>
       <c r="D7" s="44">
-        <v>0.25181993760213933</v>
+        <v>0.24985388661601401</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24855,10 +24938,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1078</v>
+        <v>1099</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16015450898826325</v>
+        <v>0.16057860900058446</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24866,10 +24949,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14841776853365027</v>
+        <v>0.14786674459380481</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24877,10 +24960,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14604070717575399</v>
+        <v>0.14567504383401519</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24888,10 +24971,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7654137572426086E-2</v>
+        <v>8.7814143775569842E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24899,10 +24982,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D12" s="44">
-        <v>5.9872232952013077E-2</v>
+        <v>6.005260081823495E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24910,10 +24993,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3827068786213043E-2</v>
+        <v>4.4126241963763878E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -24921,10 +25004,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1142475115138909E-2</v>
+        <v>1.1104617182933957E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -24932,7 +25015,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6731</v>
+        <v>6844</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月28日時点</t>
+    <t>令和2年11月29日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L308"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7597,7 +7597,7 @@
         <v>44160</v>
       </c>
       <c r="C305" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E305" s="8">
         <v>44160</v>
@@ -7617,7 +7617,7 @@
         <v>44161</v>
       </c>
       <c r="C306" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E306" s="8">
         <v>44161</v>
@@ -7637,7 +7637,7 @@
         <v>44162</v>
       </c>
       <c r="C307" s="9">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E307" s="8">
         <v>44162</v>
@@ -7653,6 +7653,12 @@
       </c>
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B308" s="74">
+        <v>44163</v>
+      </c>
+      <c r="C308" s="9">
+        <v>67</v>
+      </c>
       <c r="E308" s="8">
         <v>44163</v>
       </c>
@@ -7664,6 +7670,20 @@
       </c>
       <c r="I308" s="75">
         <v>79.428571428571431</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E309" s="8">
+        <v>44164</v>
+      </c>
+      <c r="F309" s="65">
+        <v>75</v>
+      </c>
+      <c r="H309" s="8">
+        <v>44164</v>
+      </c>
+      <c r="I309" s="75">
+        <v>78.714285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -7675,7 +7695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10116,6 +10136,14 @@
         <v>0.94718909710391819</v>
       </c>
     </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B309" s="8">
+        <v>44164</v>
+      </c>
+      <c r="C309" s="62">
+        <v>0.90774299835255357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10125,7 +10153,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16198,16 +16226,16 @@
         <v>76</v>
       </c>
       <c r="D310" s="56">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="E310" s="56">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="F310" s="56">
-        <v>875</v>
+        <v>875.85714285714289</v>
       </c>
       <c r="G310" s="56">
-        <v>6.4979591836734683</v>
+        <v>6.4916000652422117</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16224,10 +16252,30 @@
         <v>497</v>
       </c>
       <c r="F311" s="56">
-        <v>763.14285714285722</v>
+        <v>764</v>
       </c>
       <c r="G311" s="56">
-        <v>7.3755147884687382</v>
+        <v>7.367240089753178</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B312" s="73">
+        <v>44162</v>
+      </c>
+      <c r="C312" s="56">
+        <v>57</v>
+      </c>
+      <c r="D312" s="56">
+        <v>511</v>
+      </c>
+      <c r="E312" s="56">
+        <v>568</v>
+      </c>
+      <c r="F312" s="56">
+        <v>679.28571428571422</v>
+      </c>
+      <c r="G312" s="56">
+        <v>7.6761303890641424</v>
       </c>
     </row>
   </sheetData>
@@ -16239,11 +16287,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L232"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -24290,6 +24338,41 @@
       </c>
       <c r="L232" s="57">
         <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B233" s="14">
+        <v>44164</v>
+      </c>
+      <c r="C233" s="15">
+        <v>6939</v>
+      </c>
+      <c r="D233" s="15">
+        <v>351</v>
+      </c>
+      <c r="E233" s="15">
+        <v>319</v>
+      </c>
+      <c r="F233" s="15">
+        <v>166</v>
+      </c>
+      <c r="G233" s="15">
+        <v>0</v>
+      </c>
+      <c r="H233" s="15">
+        <v>2930</v>
+      </c>
+      <c r="I233" s="15">
+        <v>3047</v>
+      </c>
+      <c r="J233" s="15">
+        <v>86</v>
+      </c>
+      <c r="K233" s="15">
+        <v>40</v>
+      </c>
+      <c r="L233" s="57">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -24342,7 +24425,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24358,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24366,7 +24449,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24390,7 +24473,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24398,7 +24481,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24422,7 +24505,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24446,7 +24529,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24454,7 +24537,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>618</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24478,7 +24561,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24510,7 +24593,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24542,7 +24625,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -24558,7 +24641,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -24606,7 +24689,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -24630,7 +24713,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -24638,7 +24721,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
@@ -24778,7 +24861,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6647</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24786,7 +24869,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24802,7 +24885,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6849</v>
+        <v>6924</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24810,7 +24893,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4339</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24818,7 +24901,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24826,7 +24909,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1325</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24834,7 +24917,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -24905,10 +24988,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="44">
-        <v>3.0391583869082407E-2</v>
+        <v>3.0206677265500796E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24916,10 +24999,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D6" s="44">
-        <v>6.2536528345996489E-2</v>
+        <v>6.2003179650238473E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24927,10 +25010,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1710</v>
+        <v>1722</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24985388661601401</v>
+        <v>0.24887989593871948</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24938,10 +25021,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1099</v>
+        <v>1113</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16057860900058446</v>
+        <v>0.16086139615551381</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24949,10 +25032,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14786674459380481</v>
+        <v>0.14843185431420725</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24960,10 +25043,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14567504383401519</v>
+        <v>0.14655297008238186</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24971,10 +25054,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7814143775569842E-2</v>
+        <v>8.7873970226911402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24982,10 +25065,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D12" s="44">
-        <v>6.005260081823495E-2</v>
+        <v>6.0268824974707327E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24993,10 +25076,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D13" s="44">
-        <v>4.4126241963763878E-2</v>
+        <v>4.3936985113455701E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25007,7 +25090,7 @@
         <v>76</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1104617182933957E-2</v>
+        <v>1.0984246278363925E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25015,7 +25098,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6844</v>
+        <v>6919</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月29日時点</t>
+    <t>令和2年11月30日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L309"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7617,7 +7617,7 @@
         <v>44161</v>
       </c>
       <c r="C306" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E306" s="8">
         <v>44161</v>
@@ -7637,7 +7637,7 @@
         <v>44162</v>
       </c>
       <c r="C307" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E307" s="8">
         <v>44162</v>
@@ -7657,7 +7657,7 @@
         <v>44163</v>
       </c>
       <c r="C308" s="9">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E308" s="8">
         <v>44163</v>
@@ -7673,6 +7673,12 @@
       </c>
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B309" s="74">
+        <v>44164</v>
+      </c>
+      <c r="C309" s="9">
+        <v>54</v>
+      </c>
       <c r="E309" s="8">
         <v>44164</v>
       </c>
@@ -7684,6 +7690,20 @@
       </c>
       <c r="I309" s="75">
         <v>78.714285714285708</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E310" s="8">
+        <v>44165</v>
+      </c>
+      <c r="F310" s="65">
+        <v>69</v>
+      </c>
+      <c r="H310" s="8">
+        <v>44165</v>
+      </c>
+      <c r="I310" s="75">
+        <v>80.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -7695,7 +7715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10144,6 +10164,14 @@
         <v>0.90774299835255357</v>
       </c>
     </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B310" s="8">
+        <v>44165</v>
+      </c>
+      <c r="C310" s="62">
+        <v>0.95246179966044142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10153,7 +10181,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16243,19 +16271,19 @@
         <v>44161</v>
       </c>
       <c r="C311" s="56">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D311" s="56">
-        <v>437</v>
+        <v>1012</v>
       </c>
       <c r="E311" s="56">
-        <v>497</v>
+        <v>1089</v>
       </c>
       <c r="F311" s="56">
-        <v>764</v>
+        <v>848.57142857142856</v>
       </c>
       <c r="G311" s="56">
-        <v>7.367240089753178</v>
+        <v>6.9191919191919196</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16263,19 +16291,39 @@
         <v>44162</v>
       </c>
       <c r="C312" s="56">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D312" s="56">
-        <v>511</v>
+        <v>809</v>
       </c>
       <c r="E312" s="56">
-        <v>568</v>
+        <v>872</v>
       </c>
       <c r="F312" s="56">
-        <v>679.28571428571422</v>
+        <v>807.28571428571433</v>
       </c>
       <c r="G312" s="56">
-        <v>7.6761303890641424</v>
+        <v>6.866041408600247</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B313" s="73">
+        <v>44163</v>
+      </c>
+      <c r="C313" s="56">
+        <v>46</v>
+      </c>
+      <c r="D313" s="56">
+        <v>626</v>
+      </c>
+      <c r="E313" s="56">
+        <v>672</v>
+      </c>
+      <c r="F313" s="56">
+        <v>770.85714285714289</v>
+      </c>
+      <c r="G313" s="56">
+        <v>6.9495922905856187</v>
       </c>
     </row>
   </sheetData>
@@ -16287,11 +16335,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L233"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -24373,6 +24421,41 @@
       </c>
       <c r="L233" s="57">
         <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B234" s="14">
+        <v>44165</v>
+      </c>
+      <c r="C234" s="15">
+        <v>7008</v>
+      </c>
+      <c r="D234" s="15">
+        <v>341</v>
+      </c>
+      <c r="E234" s="15">
+        <v>341</v>
+      </c>
+      <c r="F234" s="15">
+        <v>165</v>
+      </c>
+      <c r="G234" s="15">
+        <v>0</v>
+      </c>
+      <c r="H234" s="15">
+        <v>2953</v>
+      </c>
+      <c r="I234" s="15">
+        <v>3084</v>
+      </c>
+      <c r="J234" s="15">
+        <v>87</v>
+      </c>
+      <c r="K234" s="15">
+        <v>37</v>
+      </c>
+      <c r="L234" s="57">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -24425,7 +24508,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>993</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24441,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24449,7 +24532,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24473,7 +24556,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24505,7 +24588,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24537,7 +24620,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24617,7 +24700,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24625,7 +24708,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -24649,7 +24732,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24657,7 +24740,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -24861,7 +24944,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6717</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24885,7 +24968,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6924</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24893,7 +24976,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4389</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24901,7 +24984,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>993</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24909,7 +24992,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1335</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -24988,10 +25071,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D5" s="44">
-        <v>3.0206677265500796E-2</v>
+        <v>3.0910131654264452E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -24999,10 +25082,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D6" s="44">
-        <v>6.2003179650238473E-2</v>
+        <v>6.3251287922152261E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25010,10 +25093,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1722</v>
+        <v>1744</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24887989593871948</v>
+        <v>0.249570692615913</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25021,10 +25104,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16086139615551381</v>
+        <v>0.15984544934172867</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25032,10 +25115,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14843185431420725</v>
+        <v>0.14811104751001716</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25043,10 +25126,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14655297008238186</v>
+        <v>0.14582140812821981</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25054,10 +25137,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7873970226911402E-2</v>
+        <v>8.7864911276473959E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25065,10 +25148,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0268824974707327E-2</v>
+        <v>6.0103033772180882E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25076,10 +25159,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3936985113455701E-2</v>
+        <v>4.3646250715512307E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25090,7 +25173,7 @@
         <v>76</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0984246278363925E-2</v>
+        <v>1.0875787063537493E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25098,7 +25181,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6919</v>
+        <v>6988</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年11月30日時点</t>
+    <t>令和2年12月1日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -738,10 +738,10 @@
     <rPh sb="6" eb="7">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="8" eb="9">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="9" eb="11">
       <t>ジテン</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7677,7 +7677,7 @@
         <v>44164</v>
       </c>
       <c r="C309" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E309" s="8">
         <v>44164</v>
@@ -7693,6 +7693,12 @@
       </c>
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B310" s="74">
+        <v>44165</v>
+      </c>
+      <c r="C310" s="9">
+        <v>69</v>
+      </c>
       <c r="E310" s="8">
         <v>44165</v>
       </c>
@@ -7704,6 +7710,20 @@
       </c>
       <c r="I310" s="75">
         <v>80.142857142857139</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E311" s="8">
+        <v>44166</v>
+      </c>
+      <c r="F311" s="65">
+        <v>74</v>
+      </c>
+      <c r="H311" s="8">
+        <v>44166</v>
+      </c>
+      <c r="I311" s="75">
+        <v>84.714285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -7715,7 +7735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10172,6 +10192,14 @@
         <v>0.95246179966044142</v>
       </c>
     </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B311" s="8">
+        <v>44166</v>
+      </c>
+      <c r="C311" s="62">
+        <v>1.0742753623188406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10181,7 +10209,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15514,16 +15542,16 @@
         <v>34</v>
       </c>
       <c r="D273" s="56">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E273" s="56">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F273" s="56">
-        <v>1076.7142857142858</v>
+        <v>1076.8571428571429</v>
       </c>
       <c r="G273" s="56">
-        <v>2.7995223563752152</v>
+        <v>2.799150968426638</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.4">
@@ -15540,10 +15568,10 @@
         <v>1190</v>
       </c>
       <c r="F274" s="56">
-        <v>1068.2857142857142</v>
+        <v>1068.4285714285713</v>
       </c>
       <c r="G274" s="56">
-        <v>3.035571008290987</v>
+        <v>3.0351651290279453</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.4">
@@ -15560,10 +15588,10 @@
         <v>1167</v>
       </c>
       <c r="F275" s="56">
-        <v>1038.4285714285713</v>
+        <v>1038.5714285714284</v>
       </c>
       <c r="G275" s="56">
-        <v>3.0307204849152773</v>
+        <v>3.0303030303030303</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.4">
@@ -15580,10 +15608,10 @@
         <v>1339</v>
       </c>
       <c r="F276" s="56">
-        <v>1058.7142857142858</v>
+        <v>1058.8571428571429</v>
       </c>
       <c r="G276" s="56">
-        <v>3.3238751520064862</v>
+        <v>3.3234261010537698</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.4">
@@ -15600,10 +15628,10 @@
         <v>1190</v>
       </c>
       <c r="F277" s="56">
-        <v>1070</v>
+        <v>1070.1428571428571</v>
       </c>
       <c r="G277" s="56">
-        <v>3.4625668449197859</v>
+        <v>3.4621039967918725</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.4">
@@ -15620,10 +15648,10 @@
         <v>895</v>
       </c>
       <c r="F278" s="56">
-        <v>1086.1428571428571</v>
+        <v>1086.2857142857142</v>
       </c>
       <c r="G278" s="56">
-        <v>3.5295667061767415</v>
+        <v>3.5291019225704505</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.4">
@@ -15640,10 +15668,10 @@
         <v>563</v>
       </c>
       <c r="F279" s="56">
-        <v>1095.7142857142858</v>
+        <v>1095.8571428571429</v>
       </c>
       <c r="G279" s="56">
-        <v>3.7075718015665795</v>
+        <v>3.7070878475394857</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.4">
@@ -15674,16 +15702,16 @@
         <v>41</v>
       </c>
       <c r="D281" s="56">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E281" s="56">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F281" s="56">
-        <v>1114</v>
+        <v>1114.1428571428571</v>
       </c>
       <c r="G281" s="56">
-        <v>3.6209553158705701</v>
+        <v>3.6204904352291694</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.4">
@@ -15700,10 +15728,10 @@
         <v>1297</v>
       </c>
       <c r="F282" s="56">
-        <v>1131.1428571428573</v>
+        <v>1131.2857142857144</v>
       </c>
       <c r="G282" s="56">
-        <v>3.4983581712553677</v>
+        <v>3.4979164035863111</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.4">
@@ -15720,10 +15748,10 @@
         <v>1246</v>
       </c>
       <c r="F283" s="56">
-        <v>1117.8571428571429</v>
+        <v>1118</v>
       </c>
       <c r="G283" s="56">
-        <v>3.220447284345048</v>
+        <v>3.2200357781753133</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.4">
@@ -15740,10 +15768,10 @@
         <v>1209</v>
       </c>
       <c r="F284" s="56">
-        <v>1120.5714285714287</v>
+        <v>1120.7142857142858</v>
       </c>
       <c r="G284" s="56">
-        <v>3.0979092299847015</v>
+        <v>3.0975143403441683</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.4">
@@ -15760,10 +15788,10 @@
         <v>768</v>
       </c>
       <c r="F285" s="56">
-        <v>1102.4285714285716</v>
+        <v>1102.5714285714287</v>
       </c>
       <c r="G285" s="56">
-        <v>2.9804328106777245</v>
+        <v>2.9800466442083438</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.4">
@@ -15771,19 +15799,19 @@
         <v>44136</v>
       </c>
       <c r="C286" s="56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D286" s="56">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E286" s="56">
         <v>448</v>
       </c>
       <c r="F286" s="56">
-        <v>1086</v>
+        <v>1086.1428571428573</v>
       </c>
       <c r="G286" s="56">
-        <v>2.8939752696658774</v>
+        <v>2.9067473365776668</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15794,16 +15822,16 @@
         <v>42</v>
       </c>
       <c r="D287" s="56">
-        <v>1290</v>
+        <v>1304</v>
       </c>
       <c r="E287" s="56">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="F287" s="56">
-        <v>1077.1428571428573</v>
+        <v>1079.2857142857144</v>
       </c>
       <c r="G287" s="56">
-        <v>2.931034482758621</v>
+        <v>2.938451356717406</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15814,16 +15842,16 @@
         <v>29</v>
       </c>
       <c r="D288" s="56">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E288" s="56">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F288" s="56">
-        <v>972.71428571428578</v>
+        <v>975.28571428571433</v>
       </c>
       <c r="G288" s="56">
-        <v>3.0694668820678515</v>
+        <v>3.0760216786289729</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15831,19 +15859,19 @@
         <v>44139</v>
       </c>
       <c r="C289" s="56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D289" s="56">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="E289" s="56">
-        <v>1599</v>
+        <v>1610</v>
       </c>
       <c r="F289" s="56">
-        <v>1015.8571428571429</v>
+        <v>1020</v>
       </c>
       <c r="G289" s="56">
-        <v>3.2484882576290253</v>
+        <v>3.2633053221288519</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15854,16 +15882,16 @@
         <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="E290" s="56">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="F290" s="56">
-        <v>1004.7142857142858</v>
+        <v>1009.2857142857142</v>
       </c>
       <c r="G290" s="56">
-        <v>3.4693587373809183</v>
+        <v>3.4819532908704884</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15871,19 +15899,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D291" s="56">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="E291" s="56">
-        <v>1327</v>
+        <v>1337</v>
       </c>
       <c r="F291" s="56">
-        <v>1021.5714285714286</v>
+        <v>1027.5714285714284</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8176478814151871</v>
+        <v>3.8370638120394824</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15891,19 +15919,19 @@
         <v>44142</v>
       </c>
       <c r="C292" s="56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E292" s="56">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="F292" s="56">
-        <v>1025</v>
+        <v>1033.4285714285713</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2648083623693376</v>
+        <v>4.2853193254077961</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15914,16 +15942,16 @@
         <v>10</v>
       </c>
       <c r="D293" s="56">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E293" s="56">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F293" s="56">
-        <v>1024.8571428571429</v>
+        <v>1033.4285714285713</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1957067187064396</v>
+        <v>4.2023776610450652</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15931,19 +15959,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D294" s="56">
-        <v>1591</v>
+        <v>1603</v>
       </c>
       <c r="E294" s="56">
-        <v>1653</v>
+        <v>1667</v>
       </c>
       <c r="F294" s="56">
-        <v>1070.7142857142858</v>
+        <v>1079.2857142857144</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2828552368245489</v>
+        <v>4.3150231634679024</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15951,19 +15979,19 @@
         <v>44145</v>
       </c>
       <c r="C295" s="56">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D295" s="56">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="E295" s="56">
-        <v>1382</v>
+        <v>1400</v>
       </c>
       <c r="F295" s="56">
-        <v>1195.4285714285716</v>
+        <v>1206</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1467495219885278</v>
+        <v>4.1933191186922532</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15971,19 +15999,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D296" s="56">
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="E296" s="56">
-        <v>1477</v>
+        <v>1488</v>
       </c>
       <c r="F296" s="56">
-        <v>1178</v>
+        <v>1188.5714285714287</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4021343681785101</v>
+        <v>4.4471153846153841</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -15994,16 +16022,16 @@
         <v>60</v>
       </c>
       <c r="D297" s="56">
-        <v>1431</v>
+        <v>1449</v>
       </c>
       <c r="E297" s="56">
-        <v>1491</v>
+        <v>1509</v>
       </c>
       <c r="F297" s="56">
-        <v>1224.1428571428571</v>
+        <v>1236.8571428571429</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4112498541253355</v>
+        <v>4.4467544467544462</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16014,16 +16042,16 @@
         <v>87</v>
       </c>
       <c r="D298" s="56">
-        <v>1264</v>
+        <v>1284</v>
       </c>
       <c r="E298" s="56">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="F298" s="56">
-        <v>1227.5714285714284</v>
+        <v>1241.7142857142856</v>
       </c>
       <c r="G298" s="56">
-        <v>4.678226463400442</v>
+        <v>4.6939714680165672</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16034,16 +16062,16 @@
         <v>59</v>
       </c>
       <c r="D299" s="56">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E299" s="56">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="F299" s="56">
-        <v>1244.4285714285713</v>
+        <v>1256.8571428571429</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6607737343588571</v>
+        <v>4.6715162536940209</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16060,10 +16088,10 @@
         <v>601</v>
       </c>
       <c r="F300" s="56">
-        <v>1266.4285714285716</v>
+        <v>1278.7142857142858</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2002256063169776</v>
+        <v>5.2061222209808955</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16074,16 +16102,16 @@
         <v>55</v>
       </c>
       <c r="D301" s="56">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="E301" s="56">
-        <v>952</v>
+        <v>969</v>
       </c>
       <c r="F301" s="56">
-        <v>1166.2857142857142</v>
+        <v>1179</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5609995100440965</v>
+        <v>5.5373803465406528</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16094,16 +16122,16 @@
         <v>59</v>
       </c>
       <c r="D302" s="56">
-        <v>1012</v>
+        <v>1038</v>
       </c>
       <c r="E302" s="56">
-        <v>1071</v>
+        <v>1097</v>
       </c>
       <c r="F302" s="56">
-        <v>1121.8571428571427</v>
+        <v>1135.7142857142858</v>
       </c>
       <c r="G302" s="56">
-        <v>5.8321660511906277</v>
+        <v>5.7735849056603765</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16111,19 +16139,19 @@
         <v>44153</v>
       </c>
       <c r="C303" s="56">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D303" s="56">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="E303" s="56">
-        <v>1168</v>
+        <v>1185</v>
       </c>
       <c r="F303" s="56">
-        <v>1077.7142857142858</v>
+        <v>1092.4285714285716</v>
       </c>
       <c r="G303" s="56">
-        <v>6.0975609756097553</v>
+        <v>6.0285079115993208</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16131,19 +16159,19 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D304" s="56">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="E304" s="56">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="F304" s="56">
-        <v>1047.5714285714287</v>
+        <v>1061.8571428571429</v>
       </c>
       <c r="G304" s="56">
-        <v>6.3275603436519852</v>
+        <v>6.2693394322615363</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16151,19 +16179,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D305" s="56">
-        <v>1075</v>
+        <v>1167</v>
       </c>
       <c r="E305" s="56">
-        <v>1161</v>
+        <v>1254</v>
       </c>
       <c r="F305" s="56">
-        <v>1020.4285714285714</v>
+        <v>1045.1428571428571</v>
       </c>
       <c r="G305" s="56">
-        <v>6.4818703625927485</v>
+        <v>6.3696008747949699</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16171,19 +16199,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D306" s="56">
-        <v>868</v>
+        <v>933</v>
       </c>
       <c r="E306" s="56">
-        <v>927</v>
+        <v>994</v>
       </c>
       <c r="F306" s="56">
-        <v>1022.8571428571428</v>
+        <v>1056.4285714285713</v>
       </c>
       <c r="G306" s="56">
-        <v>6.466480446927374</v>
+        <v>6.3286004056795147</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16191,19 +16219,19 @@
         <v>44157</v>
       </c>
       <c r="C307" s="56">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D307" s="56">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="E307" s="56">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="F307" s="56">
-        <v>987.42857142857144</v>
+        <v>1024.7142857142858</v>
       </c>
       <c r="G307" s="56">
-        <v>6.380208333333333</v>
+        <v>6.2317022166457541</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16211,19 +16239,19 @@
         <v>44158</v>
       </c>
       <c r="C308" s="56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D308" s="56">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="E308" s="56">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F308" s="56">
-        <v>897.14285714285722</v>
+        <v>934.57142857142867</v>
       </c>
       <c r="G308" s="56">
-        <v>6.4968152866242042</v>
+        <v>6.343625802506879</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16231,19 +16259,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D309" s="56">
-        <v>1070</v>
+        <v>1225</v>
       </c>
       <c r="E309" s="56">
-        <v>1118</v>
+        <v>1278</v>
       </c>
       <c r="F309" s="56">
-        <v>903.85714285714278</v>
+        <v>960.42857142857144</v>
       </c>
       <c r="G309" s="56">
-        <v>6.2746957483799592</v>
+        <v>6.0835936337944378</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16251,19 +16279,19 @@
         <v>44160</v>
       </c>
       <c r="C310" s="56">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D310" s="56">
-        <v>896</v>
+        <v>1008</v>
       </c>
       <c r="E310" s="56">
-        <v>972</v>
+        <v>1092</v>
       </c>
       <c r="F310" s="56">
-        <v>875.85714285714289</v>
+        <v>947.14285714285711</v>
       </c>
       <c r="G310" s="56">
-        <v>6.4916000652422117</v>
+        <v>6.2895927601809953</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16271,19 +16299,19 @@
         <v>44161</v>
       </c>
       <c r="C311" s="56">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D311" s="56">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="E311" s="56">
-        <v>1089</v>
+        <v>1126</v>
       </c>
       <c r="F311" s="56">
-        <v>848.57142857142856</v>
+        <v>923</v>
       </c>
       <c r="G311" s="56">
-        <v>6.9191919191919196</v>
+        <v>6.701748955270082</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16291,19 +16319,19 @@
         <v>44162</v>
       </c>
       <c r="C312" s="56">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D312" s="56">
-        <v>809</v>
+        <v>971</v>
       </c>
       <c r="E312" s="56">
-        <v>872</v>
+        <v>1042</v>
       </c>
       <c r="F312" s="56">
-        <v>807.28571428571433</v>
+        <v>892.71428571428567</v>
       </c>
       <c r="G312" s="56">
-        <v>6.866041408600247</v>
+        <v>6.6730676908305337</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16311,19 +16339,39 @@
         <v>44163</v>
       </c>
       <c r="C313" s="56">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D313" s="56">
-        <v>626</v>
+        <v>771</v>
       </c>
       <c r="E313" s="56">
-        <v>672</v>
+        <v>826</v>
       </c>
       <c r="F313" s="56">
-        <v>770.85714285714289</v>
+        <v>868.71428571428567</v>
       </c>
       <c r="G313" s="56">
-        <v>6.9495922905856187</v>
+        <v>6.7587567834237792</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B314" s="73">
+        <v>44164</v>
+      </c>
+      <c r="C314" s="56">
+        <v>55</v>
+      </c>
+      <c r="D314" s="56">
+        <v>264</v>
+      </c>
+      <c r="E314" s="56">
+        <v>319</v>
+      </c>
+      <c r="F314" s="56">
+        <v>860.14285714285722</v>
+      </c>
+      <c r="G314" s="56">
+        <v>7.0088025244975913</v>
       </c>
     </row>
   </sheetData>
@@ -16335,7 +16383,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L234"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24456,6 +24504,41 @@
       </c>
       <c r="L234" s="57">
         <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B235" s="14">
+        <v>44166</v>
+      </c>
+      <c r="C235" s="15">
+        <v>7082</v>
+      </c>
+      <c r="D235" s="15">
+        <v>336</v>
+      </c>
+      <c r="E235" s="15">
+        <v>340</v>
+      </c>
+      <c r="F235" s="15">
+        <v>162</v>
+      </c>
+      <c r="G235" s="15">
+        <v>0</v>
+      </c>
+      <c r="H235" s="15">
+        <v>2978</v>
+      </c>
+      <c r="I235" s="15">
+        <v>3141</v>
+      </c>
+      <c r="J235" s="15">
+        <v>89</v>
+      </c>
+      <c r="K235" s="15">
+        <v>36</v>
+      </c>
+      <c r="L235" s="57">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -24508,7 +24591,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24524,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>711</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24532,7 +24615,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24556,7 +24639,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24564,7 +24647,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24588,7 +24671,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24612,7 +24695,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24620,7 +24703,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24636,7 +24719,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24644,7 +24727,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24652,7 +24735,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24660,7 +24743,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24668,7 +24751,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
@@ -24676,7 +24759,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24700,7 +24783,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24708,7 +24791,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -24724,7 +24807,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -24732,7 +24815,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24780,7 +24863,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -24944,7 +25027,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6786</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -24952,7 +25035,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -24968,7 +25051,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>6993</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -24976,7 +25059,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4418</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -24984,7 +25067,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -24992,7 +25075,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1340</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25000,7 +25083,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25071,10 +25154,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D5" s="44">
-        <v>3.0910131654264452E-2</v>
+        <v>3.1577456811101669E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25082,10 +25165,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3251287922152261E-2</v>
+        <v>6.3154913622203337E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25093,10 +25176,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1744</v>
+        <v>1759</v>
       </c>
       <c r="D7" s="44">
-        <v>0.249570692615913</v>
+        <v>0.24907958085528178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25104,10 +25187,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15984544934172867</v>
+        <v>0.15986972529028604</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25115,10 +25198,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1035</v>
+        <v>1048</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14811104751001716</v>
+        <v>0.14839988671764373</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25126,10 +25209,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14582140812821981</v>
+        <v>0.14613423959218352</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25137,10 +25220,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7864911276473959E-2</v>
+        <v>8.7652223166241855E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25148,10 +25231,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0103033772180882E-2</v>
+        <v>6.0039648824695556E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25159,10 +25242,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3646250715512307E-2</v>
+        <v>4.333050127442651E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25173,7 +25256,7 @@
         <v>76</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0875787063537493E-2</v>
+        <v>1.0761823845935995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25181,7 +25264,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>6988</v>
+        <v>7062</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月1日時点</t>
+    <t>令和2年12月2日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7697,7 +7697,7 @@
         <v>44165</v>
       </c>
       <c r="C310" s="9">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E310" s="8">
         <v>44165</v>
@@ -7713,6 +7713,12 @@
       </c>
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B311" s="74">
+        <v>44166</v>
+      </c>
+      <c r="C311" s="9">
+        <v>57</v>
+      </c>
       <c r="E311" s="8">
         <v>44166</v>
       </c>
@@ -7724,6 +7730,20 @@
       </c>
       <c r="I311" s="75">
         <v>84.714285714285708</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E312" s="8">
+        <v>44167</v>
+      </c>
+      <c r="F312" s="65">
+        <v>76</v>
+      </c>
+      <c r="H312" s="8">
+        <v>44167</v>
+      </c>
+      <c r="I312" s="75">
+        <v>85.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -7735,7 +7755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10200,6 +10220,14 @@
         <v>1.0742753623188406</v>
       </c>
     </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B312" s="8">
+        <v>44167</v>
+      </c>
+      <c r="C312" s="62">
+        <v>1.0661896243291593</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10209,7 +10237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15802,16 +15830,16 @@
         <v>16</v>
       </c>
       <c r="D286" s="56">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E286" s="56">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F286" s="56">
-        <v>1086.1428571428573</v>
+        <v>1086.5714285714287</v>
       </c>
       <c r="G286" s="56">
-        <v>2.9067473365776668</v>
+        <v>2.9056008414409673</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15822,16 +15850,16 @@
         <v>42</v>
       </c>
       <c r="D287" s="56">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="E287" s="56">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="F287" s="56">
-        <v>1079.2857142857144</v>
+        <v>1080.2857142857144</v>
       </c>
       <c r="G287" s="56">
-        <v>2.938451356717406</v>
+        <v>2.9357312880190429</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15842,16 +15870,16 @@
         <v>29</v>
       </c>
       <c r="D288" s="56">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E288" s="56">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F288" s="56">
-        <v>975.28571428571433</v>
+        <v>976</v>
       </c>
       <c r="G288" s="56">
-        <v>3.0760216786289729</v>
+        <v>3.0737704918032787</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15859,19 +15887,19 @@
         <v>44139</v>
       </c>
       <c r="C289" s="56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D289" s="56">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="E289" s="56">
-        <v>1610</v>
+        <v>1623</v>
       </c>
       <c r="F289" s="56">
-        <v>1020</v>
+        <v>1022.5714285714286</v>
       </c>
       <c r="G289" s="56">
-        <v>3.2633053221288519</v>
+        <v>3.2690695725062868</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15882,16 +15910,16 @@
         <v>45</v>
       </c>
       <c r="D290" s="56">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="E290" s="56">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="F290" s="56">
-        <v>1009.2857142857142</v>
+        <v>1012.8571428571429</v>
       </c>
       <c r="G290" s="56">
-        <v>3.4819532908704884</v>
+        <v>3.4837799717912552</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15899,19 +15927,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D291" s="56">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="E291" s="56">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F291" s="56">
-        <v>1027.5714285714284</v>
+        <v>1030.5714285714287</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8370638120394824</v>
+        <v>3.8536179650679228</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15922,16 +15950,16 @@
         <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E292" s="56">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F292" s="56">
-        <v>1033.4285714285713</v>
+        <v>1036.1428571428571</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2853193254077961</v>
+        <v>4.3016682751964703</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15942,16 +15970,16 @@
         <v>10</v>
       </c>
       <c r="D293" s="56">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E293" s="56">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F293" s="56">
-        <v>1033.4285714285713</v>
+        <v>1035.4285714285713</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2023776610450652</v>
+        <v>4.2218543046357624</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15959,19 +15987,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D294" s="56">
-        <v>1603</v>
+        <v>1617</v>
       </c>
       <c r="E294" s="56">
-        <v>1667</v>
+        <v>1682</v>
       </c>
       <c r="F294" s="56">
-        <v>1079.2857142857144</v>
+        <v>1082.8571428571429</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3150231634679024</v>
+        <v>4.3403693931398415</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -15979,19 +16007,19 @@
         <v>44145</v>
       </c>
       <c r="C295" s="56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D295" s="56">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="E295" s="56">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="F295" s="56">
-        <v>1206</v>
+        <v>1210.5714285714284</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1933191186922532</v>
+        <v>4.2246872787349536</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -15999,19 +16027,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D296" s="56">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="E296" s="56">
-        <v>1488</v>
+        <v>1498</v>
       </c>
       <c r="F296" s="56">
-        <v>1188.5714285714287</v>
+        <v>1192.7142857142858</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4471153846153841</v>
+        <v>4.5035333572882985</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16019,19 +16047,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D297" s="56">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="E297" s="56">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="F297" s="56">
-        <v>1236.8571428571429</v>
+        <v>1241.1428571428571</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4467544467544462</v>
+        <v>4.5119705340699818</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16039,19 +16067,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D298" s="56">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="E298" s="56">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="F298" s="56">
-        <v>1241.7142857142856</v>
+        <v>1247.4285714285713</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6939714680165672</v>
+        <v>4.7526339899221259</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16062,16 +16090,16 @@
         <v>59</v>
       </c>
       <c r="D299" s="56">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E299" s="56">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F299" s="56">
-        <v>1256.8571428571429</v>
+        <v>1263.1428571428571</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6715162536940209</v>
+        <v>4.7274372313956121</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16082,16 +16110,16 @@
         <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="E300" s="56">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="F300" s="56">
-        <v>1278.7142857142858</v>
+        <v>1288</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2061222209808955</v>
+        <v>5.2462289263531501</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16099,19 +16127,19 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D301" s="56">
-        <v>914</v>
+        <v>1017</v>
       </c>
       <c r="E301" s="56">
-        <v>969</v>
+        <v>1079</v>
       </c>
       <c r="F301" s="56">
-        <v>1179</v>
+        <v>1201.8571428571429</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5373803465406528</v>
+        <v>5.5865921787709496</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16119,19 +16147,19 @@
         <v>44152</v>
       </c>
       <c r="C302" s="56">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D302" s="56">
-        <v>1038</v>
+        <v>1190</v>
       </c>
       <c r="E302" s="56">
-        <v>1097</v>
+        <v>1251</v>
       </c>
       <c r="F302" s="56">
-        <v>1135.7142857142858</v>
+        <v>1179.8571428571429</v>
       </c>
       <c r="G302" s="56">
-        <v>5.7735849056603765</v>
+        <v>5.7270856035839683</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16139,19 +16167,19 @@
         <v>44153</v>
       </c>
       <c r="C303" s="56">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D303" s="56">
-        <v>1109</v>
+        <v>1248</v>
       </c>
       <c r="E303" s="56">
-        <v>1185</v>
+        <v>1334</v>
       </c>
       <c r="F303" s="56">
-        <v>1092.4285714285716</v>
+        <v>1156.4285714285716</v>
       </c>
       <c r="G303" s="56">
-        <v>6.0285079115993208</v>
+        <v>5.9542927733168636</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16159,19 +16187,19 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D304" s="56">
-        <v>1230</v>
+        <v>1370</v>
       </c>
       <c r="E304" s="56">
-        <v>1295</v>
+        <v>1439</v>
       </c>
       <c r="F304" s="56">
-        <v>1061.8571428571429</v>
+        <v>1145.2857142857142</v>
       </c>
       <c r="G304" s="56">
-        <v>6.2693394322615363</v>
+        <v>6.1120119745540729</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16179,19 +16207,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D305" s="56">
-        <v>1167</v>
+        <v>1272</v>
       </c>
       <c r="E305" s="56">
-        <v>1254</v>
+        <v>1362</v>
       </c>
       <c r="F305" s="56">
-        <v>1045.1428571428571</v>
+        <v>1143.1428571428571</v>
       </c>
       <c r="G305" s="56">
-        <v>6.3696008747949699</v>
+        <v>6.1484628842789313</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16199,19 +16227,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D306" s="56">
-        <v>933</v>
+        <v>999</v>
       </c>
       <c r="E306" s="56">
-        <v>994</v>
+        <v>1065</v>
       </c>
       <c r="F306" s="56">
-        <v>1056.4285714285713</v>
+        <v>1164.2857142857142</v>
       </c>
       <c r="G306" s="56">
-        <v>6.3286004056795147</v>
+        <v>6.1226993865030686</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16219,19 +16247,19 @@
         <v>44157</v>
       </c>
       <c r="C307" s="56">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D307" s="56">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="E307" s="56">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="F307" s="56">
-        <v>1024.7142857142858</v>
+        <v>1137.8571428571429</v>
       </c>
       <c r="G307" s="56">
-        <v>6.2317022166457541</v>
+        <v>6.0765850596359066</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16239,19 +16267,19 @@
         <v>44158</v>
       </c>
       <c r="C308" s="56">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D308" s="56">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="E308" s="56">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="F308" s="56">
-        <v>934.57142857142867</v>
+        <v>1048.7142857142858</v>
       </c>
       <c r="G308" s="56">
-        <v>6.343625802506879</v>
+        <v>6.1163329246696634</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16259,19 +16287,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D309" s="56">
-        <v>1225</v>
+        <v>1384</v>
       </c>
       <c r="E309" s="56">
-        <v>1278</v>
+        <v>1441</v>
       </c>
       <c r="F309" s="56">
-        <v>960.42857142857144</v>
+        <v>1075.8571428571429</v>
       </c>
       <c r="G309" s="56">
-        <v>6.0835936337944378</v>
+        <v>5.9089098393307653</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16279,19 +16307,19 @@
         <v>44160</v>
       </c>
       <c r="C310" s="56">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D310" s="56">
-        <v>1008</v>
+        <v>1135</v>
       </c>
       <c r="E310" s="56">
-        <v>1092</v>
+        <v>1221</v>
       </c>
       <c r="F310" s="56">
-        <v>947.14285714285711</v>
+        <v>1059.7142857142858</v>
       </c>
       <c r="G310" s="56">
-        <v>6.2895927601809953</v>
+        <v>5.9989215421946609</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16299,19 +16327,19 @@
         <v>44161</v>
       </c>
       <c r="C311" s="56">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D311" s="56">
-        <v>1045</v>
+        <v>1179</v>
       </c>
       <c r="E311" s="56">
-        <v>1126</v>
+        <v>1264</v>
       </c>
       <c r="F311" s="56">
-        <v>923</v>
+        <v>1034.7142857142858</v>
       </c>
       <c r="G311" s="56">
-        <v>6.701748955270082</v>
+        <v>6.3647659809471211</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16319,19 +16347,19 @@
         <v>44162</v>
       </c>
       <c r="C312" s="56">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D312" s="56">
-        <v>971</v>
+        <v>1126</v>
       </c>
       <c r="E312" s="56">
-        <v>1042</v>
+        <v>1200</v>
       </c>
       <c r="F312" s="56">
-        <v>892.71428571428567</v>
+        <v>1011.5714285714286</v>
       </c>
       <c r="G312" s="56">
-        <v>6.6730676908305337</v>
+        <v>6.2844231040813447</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16339,19 +16367,19 @@
         <v>44163</v>
       </c>
       <c r="C313" s="56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D313" s="56">
-        <v>771</v>
+        <v>894</v>
       </c>
       <c r="E313" s="56">
-        <v>826</v>
+        <v>950</v>
       </c>
       <c r="F313" s="56">
-        <v>868.71428571428567</v>
+        <v>995.14285714285711</v>
       </c>
       <c r="G313" s="56">
-        <v>6.7587567834237792</v>
+        <v>6.2446167097329894</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16359,19 +16387,39 @@
         <v>44164</v>
       </c>
       <c r="C314" s="56">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D314" s="56">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="E314" s="56">
-        <v>319</v>
+        <v>459</v>
       </c>
       <c r="F314" s="56">
-        <v>860.14285714285722</v>
+        <v>998.57142857142867</v>
       </c>
       <c r="G314" s="56">
-        <v>7.0088025244975913</v>
+        <v>6.3376251788268956</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B315" s="73">
+        <v>44165</v>
+      </c>
+      <c r="C315" s="56">
+        <v>60</v>
+      </c>
+      <c r="D315" s="56">
+        <v>872</v>
+      </c>
+      <c r="E315" s="56">
+        <v>932</v>
+      </c>
+      <c r="F315" s="56">
+        <v>1066.7142857142858</v>
+      </c>
+      <c r="G315" s="56">
+        <v>6.3747154144904243</v>
       </c>
     </row>
   </sheetData>
@@ -16383,7 +16431,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L235"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24538,6 +24586,41 @@
         <v>36</v>
       </c>
       <c r="L235" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B236" s="14">
+        <v>44167</v>
+      </c>
+      <c r="C236" s="15">
+        <v>7158</v>
+      </c>
+      <c r="D236" s="15">
+        <v>340</v>
+      </c>
+      <c r="E236" s="15">
+        <v>289</v>
+      </c>
+      <c r="F236" s="15">
+        <v>173</v>
+      </c>
+      <c r="G236" s="15">
+        <v>0</v>
+      </c>
+      <c r="H236" s="15">
+        <v>3018</v>
+      </c>
+      <c r="I236" s="15">
+        <v>3211</v>
+      </c>
+      <c r="J236" s="15">
+        <v>90</v>
+      </c>
+      <c r="K236" s="15">
+        <v>37</v>
+      </c>
+      <c r="L236" s="57">
         <v>10</v>
       </c>
     </row>
@@ -24591,7 +24674,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24607,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24615,7 +24698,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24631,7 +24714,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -24639,7 +24722,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24647,7 +24730,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24655,7 +24738,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -24671,7 +24754,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24695,7 +24778,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24703,7 +24786,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24727,7 +24810,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24743,7 +24826,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24751,7 +24834,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
@@ -24759,7 +24842,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24783,7 +24866,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24815,7 +24898,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25027,7 +25110,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6858</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25035,7 +25118,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25051,7 +25134,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7067</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25059,7 +25142,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4472</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25067,7 +25150,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25075,7 +25158,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1350</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25083,7 +25166,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25157,7 +25240,7 @@
         <v>223</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1577456811101669E-2</v>
+        <v>3.1241244045951248E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25165,10 +25248,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3154913622203337E-2</v>
+        <v>6.3182964415802748E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25176,10 +25259,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1759</v>
+        <v>1776</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24907958085528178</v>
+        <v>0.24880919024936957</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25187,10 +25270,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15986972529028604</v>
+        <v>0.15998879237881761</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25198,10 +25281,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14839988671764373</v>
+        <v>0.1480806948725133</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25209,10 +25292,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14613423959218352</v>
+        <v>0.14625945643037266</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25220,10 +25303,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7652223166241855E-2</v>
+        <v>8.7979826281871676E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25231,10 +25314,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0039648824695556E-2</v>
+        <v>6.0381059120201738E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25242,10 +25325,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D13" s="44">
-        <v>4.333050127442651E-2</v>
+        <v>4.3429532081815637E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25256,7 +25339,7 @@
         <v>76</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0761823845935995E-2</v>
+        <v>1.0647240123283833E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25264,7 +25347,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7062</v>
+        <v>7138</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月2日時点</t>
+    <t>令和2年12月3日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L312"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7637,7 +7637,7 @@
         <v>44162</v>
       </c>
       <c r="C307" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E307" s="8">
         <v>44162</v>
@@ -7703,13 +7703,13 @@
         <v>44165</v>
       </c>
       <c r="F310" s="65">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H310" s="8">
         <v>44165</v>
       </c>
       <c r="I310" s="75">
-        <v>80.142857142857139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.4">
@@ -7717,7 +7717,7 @@
         <v>44166</v>
       </c>
       <c r="C311" s="9">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E311" s="8">
         <v>44166</v>
@@ -7729,10 +7729,16 @@
         <v>44166</v>
       </c>
       <c r="I311" s="75">
-        <v>84.714285714285708</v>
+        <v>84.571428571428569</v>
       </c>
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B312" s="74">
+        <v>44167</v>
+      </c>
+      <c r="C312" s="9">
+        <v>68</v>
+      </c>
       <c r="E312" s="8">
         <v>44167</v>
       </c>
@@ -7743,7 +7749,21 @@
         <v>44167</v>
       </c>
       <c r="I312" s="75">
-        <v>85.142857142857139</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E313" s="8">
+        <v>44168</v>
+      </c>
+      <c r="F313" s="65">
+        <v>82</v>
+      </c>
+      <c r="H313" s="8">
+        <v>44168</v>
+      </c>
+      <c r="I313" s="75">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7755,7 +7775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10209,7 +10229,7 @@
         <v>44165</v>
       </c>
       <c r="C310" s="62">
-        <v>0.95246179966044142</v>
+        <v>0.95076400679117146</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.4">
@@ -10217,7 +10237,7 @@
         <v>44166</v>
       </c>
       <c r="C311" s="62">
-        <v>1.0742753623188406</v>
+        <v>1.0724637681159421</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.4">
@@ -10225,7 +10245,15 @@
         <v>44167</v>
       </c>
       <c r="C312" s="62">
-        <v>1.0661896243291593</v>
+        <v>1.0644007155635062</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B313" s="8">
+        <v>44168</v>
+      </c>
+      <c r="C313" s="62">
+        <v>1.1121495327102804</v>
       </c>
     </row>
   </sheetData>
@@ -10237,7 +10265,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15827,19 +15855,19 @@
         <v>44136</v>
       </c>
       <c r="C286" s="56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D286" s="56">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E286" s="56">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="F286" s="56">
-        <v>1086.5714285714287</v>
+        <v>1088.2857142857142</v>
       </c>
       <c r="G286" s="56">
-        <v>2.9056008414409673</v>
+        <v>2.9272775006563405</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15850,16 +15878,16 @@
         <v>42</v>
       </c>
       <c r="D287" s="56">
-        <v>1308</v>
+        <v>1340</v>
       </c>
       <c r="E287" s="56">
-        <v>1350</v>
+        <v>1382</v>
       </c>
       <c r="F287" s="56">
-        <v>1080.2857142857144</v>
+        <v>1086.5714285714287</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9357312880190429</v>
+        <v>2.9450433867998944</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15867,19 +15895,19 @@
         <v>44138</v>
       </c>
       <c r="C288" s="56">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D288" s="56">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E288" s="56">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F288" s="56">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="G288" s="56">
-        <v>3.0737704918032787</v>
+        <v>3.11001307949426</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15887,19 +15915,19 @@
         <v>44139</v>
       </c>
       <c r="C289" s="56">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D289" s="56">
-        <v>1564</v>
+        <v>1597</v>
       </c>
       <c r="E289" s="56">
-        <v>1623</v>
+        <v>1658</v>
       </c>
       <c r="F289" s="56">
-        <v>1022.5714285714286</v>
+        <v>1034.5714285714287</v>
       </c>
       <c r="G289" s="56">
-        <v>3.2690695725062868</v>
+        <v>3.3140016570008277</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15907,19 +15935,19 @@
         <v>44140</v>
       </c>
       <c r="C290" s="56">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D290" s="56">
-        <v>1133</v>
+        <v>1161</v>
       </c>
       <c r="E290" s="56">
-        <v>1178</v>
+        <v>1207</v>
       </c>
       <c r="F290" s="56">
-        <v>1012.8571428571429</v>
+        <v>1029</v>
       </c>
       <c r="G290" s="56">
-        <v>3.4837799717912552</v>
+        <v>3.5263084825767037</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15927,19 +15955,19 @@
         <v>44141</v>
       </c>
       <c r="C291" s="56">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1268</v>
+        <v>1292</v>
       </c>
       <c r="E291" s="56">
-        <v>1333</v>
+        <v>1355</v>
       </c>
       <c r="F291" s="56">
-        <v>1030.5714285714287</v>
+        <v>1049.8571428571429</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8536179650679228</v>
+        <v>3.8508640631378417</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15950,16 +15978,16 @@
         <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="E292" s="56">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="F292" s="56">
-        <v>1036.1428571428571</v>
+        <v>1061.2857142857142</v>
       </c>
       <c r="G292" s="56">
-        <v>4.3016682751964703</v>
+        <v>4.2670615156817879</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -15967,19 +15995,19 @@
         <v>44143</v>
       </c>
       <c r="C293" s="56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D293" s="56">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E293" s="56">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="F293" s="56">
-        <v>1035.4285714285713</v>
+        <v>1060.2857142857142</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2218543046357624</v>
+        <v>4.1902452169226629</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -15987,19 +16015,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D294" s="56">
-        <v>1617</v>
+        <v>1642</v>
       </c>
       <c r="E294" s="56">
-        <v>1682</v>
+        <v>1706</v>
       </c>
       <c r="F294" s="56">
-        <v>1082.8571428571429</v>
+        <v>1106.5714285714287</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3403693931398415</v>
+        <v>4.2989930286599529</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16010,16 +16038,16 @@
         <v>58</v>
       </c>
       <c r="D295" s="56">
-        <v>1347</v>
+        <v>1365</v>
       </c>
       <c r="E295" s="56">
-        <v>1405</v>
+        <v>1423</v>
       </c>
       <c r="F295" s="56">
-        <v>1210.5714285714284</v>
+        <v>1236.1428571428571</v>
       </c>
       <c r="G295" s="56">
-        <v>4.2246872787349536</v>
+        <v>4.1604067953310997</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16027,19 +16055,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D296" s="56">
-        <v>1421</v>
+        <v>1455</v>
       </c>
       <c r="E296" s="56">
-        <v>1498</v>
+        <v>1531</v>
       </c>
       <c r="F296" s="56">
-        <v>1192.7142857142858</v>
+        <v>1218</v>
       </c>
       <c r="G296" s="56">
-        <v>4.5035333572882985</v>
+        <v>4.3983110485573542</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16047,19 +16075,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D297" s="56">
-        <v>1456</v>
+        <v>1477</v>
       </c>
       <c r="E297" s="56">
-        <v>1517</v>
+        <v>1539</v>
       </c>
       <c r="F297" s="56">
-        <v>1241.1428571428571</v>
+        <v>1265.4285714285716</v>
       </c>
       <c r="G297" s="56">
-        <v>4.5119705340699818</v>
+        <v>4.4140889591329868</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16067,19 +16095,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D298" s="56">
-        <v>1289</v>
+        <v>1309</v>
       </c>
       <c r="E298" s="56">
-        <v>1377</v>
+        <v>1398</v>
       </c>
       <c r="F298" s="56">
-        <v>1247.4285714285713</v>
+        <v>1271.5714285714287</v>
       </c>
       <c r="G298" s="56">
-        <v>4.7526339899221259</v>
+        <v>4.6848668688911355</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16087,19 +16115,19 @@
         <v>44149</v>
       </c>
       <c r="C299" s="56">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D299" s="56">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="E299" s="56">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="F299" s="56">
-        <v>1263.1428571428571</v>
+        <v>1285.2857142857142</v>
       </c>
       <c r="G299" s="56">
-        <v>4.7274372313956121</v>
+        <v>4.701567189063022</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16110,16 +16138,16 @@
         <v>65</v>
       </c>
       <c r="D300" s="56">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E300" s="56">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="F300" s="56">
-        <v>1288</v>
+        <v>1310</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2462289263531501</v>
+        <v>5.1908396946564883</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16127,19 +16155,19 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D301" s="56">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="E301" s="56">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="F301" s="56">
-        <v>1201.8571428571429</v>
+        <v>1222.5714285714287</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5865921787709496</v>
+        <v>5.5269922879177367</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16147,19 +16175,19 @@
         <v>44152</v>
       </c>
       <c r="C302" s="56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D302" s="56">
-        <v>1190</v>
+        <v>1210</v>
       </c>
       <c r="E302" s="56">
-        <v>1251</v>
+        <v>1272</v>
       </c>
       <c r="F302" s="56">
-        <v>1179.8571428571429</v>
+        <v>1201</v>
       </c>
       <c r="G302" s="56">
-        <v>5.7270856035839683</v>
+        <v>5.6738432258831919</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16167,19 +16195,19 @@
         <v>44153</v>
       </c>
       <c r="C303" s="56">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D303" s="56">
-        <v>1248</v>
+        <v>1266</v>
       </c>
       <c r="E303" s="56">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="F303" s="56">
-        <v>1156.4285714285716</v>
+        <v>1176</v>
       </c>
       <c r="G303" s="56">
-        <v>5.9542927733168636</v>
+        <v>5.964528668610301</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16187,19 +16215,19 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D304" s="56">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="E304" s="56">
-        <v>1439</v>
+        <v>1452</v>
       </c>
       <c r="F304" s="56">
-        <v>1145.2857142857142</v>
+        <v>1163.5714285714287</v>
       </c>
       <c r="G304" s="56">
-        <v>6.1120119745540729</v>
+        <v>6.1755678330263963</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16210,16 +16238,16 @@
         <v>90</v>
       </c>
       <c r="D305" s="56">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E305" s="56">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F305" s="56">
-        <v>1143.1428571428571</v>
+        <v>1158.1428571428571</v>
       </c>
       <c r="G305" s="56">
-        <v>6.1484628842789313</v>
+        <v>6.2168496361169359</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16230,16 +16258,16 @@
         <v>66</v>
       </c>
       <c r="D306" s="56">
-        <v>999</v>
+        <v>1023</v>
       </c>
       <c r="E306" s="56">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="F306" s="56">
-        <v>1164.2857142857142</v>
+        <v>1178.8571428571429</v>
       </c>
       <c r="G306" s="56">
-        <v>6.1226993865030686</v>
+        <v>6.1560833737275802</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16247,19 +16275,19 @@
         <v>44157</v>
       </c>
       <c r="C307" s="56">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D307" s="56">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="E307" s="56">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F307" s="56">
-        <v>1137.8571428571429</v>
+        <v>1153.2857142857142</v>
       </c>
       <c r="G307" s="56">
-        <v>6.0765850596359066</v>
+        <v>6.0943887030843555</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16270,16 +16298,16 @@
         <v>27</v>
       </c>
       <c r="D308" s="56">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E308" s="56">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F308" s="56">
-        <v>1048.7142857142858</v>
+        <v>1063</v>
       </c>
       <c r="G308" s="56">
-        <v>6.1163329246696634</v>
+        <v>6.1550866818975942</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16287,19 +16315,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D309" s="56">
-        <v>1384</v>
+        <v>1406</v>
       </c>
       <c r="E309" s="56">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="F309" s="56">
-        <v>1075.8571428571429</v>
+        <v>1090</v>
       </c>
       <c r="G309" s="56">
-        <v>5.9089098393307653</v>
+        <v>5.9108781127129753</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16307,19 +16335,19 @@
         <v>44160</v>
       </c>
       <c r="C310" s="56">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D310" s="56">
-        <v>1135</v>
+        <v>1166</v>
       </c>
       <c r="E310" s="56">
-        <v>1221</v>
+        <v>1251</v>
       </c>
       <c r="F310" s="56">
-        <v>1059.7142857142858</v>
+        <v>1075</v>
       </c>
       <c r="G310" s="56">
-        <v>5.9989215421946609</v>
+        <v>5.9269102990033229</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16330,16 +16358,16 @@
         <v>85</v>
       </c>
       <c r="D311" s="56">
-        <v>1179</v>
+        <v>1237</v>
       </c>
       <c r="E311" s="56">
-        <v>1264</v>
+        <v>1322</v>
       </c>
       <c r="F311" s="56">
-        <v>1034.7142857142858</v>
+        <v>1056.4285714285713</v>
       </c>
       <c r="G311" s="56">
-        <v>6.3647659809471211</v>
+        <v>6.1798512508451671</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16347,19 +16375,19 @@
         <v>44162</v>
       </c>
       <c r="C312" s="56">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D312" s="56">
-        <v>1126</v>
+        <v>1174</v>
       </c>
       <c r="E312" s="56">
-        <v>1200</v>
+        <v>1249</v>
       </c>
       <c r="F312" s="56">
-        <v>1011.5714285714286</v>
+        <v>1040.5714285714287</v>
       </c>
       <c r="G312" s="56">
-        <v>6.2844231040813447</v>
+        <v>6.0680944535969239</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16367,19 +16395,19 @@
         <v>44163</v>
       </c>
       <c r="C313" s="56">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D313" s="56">
-        <v>894</v>
+        <v>970</v>
       </c>
       <c r="E313" s="56">
-        <v>950</v>
+        <v>1028</v>
       </c>
       <c r="F313" s="56">
-        <v>995.14285714285711</v>
+        <v>1031.8571428571429</v>
       </c>
       <c r="G313" s="56">
-        <v>6.2446167097329894</v>
+        <v>6.0085836909871242</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16387,19 +16415,19 @@
         <v>44164</v>
       </c>
       <c r="C314" s="56">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D314" s="56">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E314" s="56">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="F314" s="56">
-        <v>998.57142857142867</v>
+        <v>1038</v>
       </c>
       <c r="G314" s="56">
-        <v>6.3376251788268956</v>
+        <v>6.1519405450041287</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16407,19 +16435,39 @@
         <v>44165</v>
       </c>
       <c r="C315" s="56">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D315" s="56">
-        <v>872</v>
+        <v>1020</v>
       </c>
       <c r="E315" s="56">
-        <v>932</v>
+        <v>1085</v>
       </c>
       <c r="F315" s="56">
-        <v>1066.7142857142858</v>
+        <v>1127</v>
       </c>
       <c r="G315" s="56">
-        <v>6.3747154144904243</v>
+        <v>6.1478007352009127</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B316" s="73">
+        <v>44166</v>
+      </c>
+      <c r="C316" s="56">
+        <v>46</v>
+      </c>
+      <c r="D316" s="56">
+        <v>801</v>
+      </c>
+      <c r="E316" s="56">
+        <v>847</v>
+      </c>
+      <c r="F316" s="56">
+        <v>1039.2857142857142</v>
+      </c>
+      <c r="G316" s="56">
+        <v>6.5429553264604809</v>
       </c>
     </row>
   </sheetData>
@@ -16431,7 +16479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L236"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24524,10 +24572,10 @@
         <v>44165</v>
       </c>
       <c r="C234" s="15">
-        <v>7008</v>
+        <v>7007</v>
       </c>
       <c r="D234" s="15">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E234" s="15">
         <v>341</v>
@@ -24559,10 +24607,10 @@
         <v>44166</v>
       </c>
       <c r="C235" s="15">
-        <v>7082</v>
+        <v>7081</v>
       </c>
       <c r="D235" s="15">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E235" s="15">
         <v>340</v>
@@ -24594,10 +24642,10 @@
         <v>44167</v>
       </c>
       <c r="C236" s="15">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="D236" s="15">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E236" s="15">
         <v>289</v>
@@ -24622,6 +24670,41 @@
       </c>
       <c r="L236" s="57">
         <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B237" s="14">
+        <v>44168</v>
+      </c>
+      <c r="C237" s="15">
+        <v>7239</v>
+      </c>
+      <c r="D237" s="15">
+        <v>317</v>
+      </c>
+      <c r="E237" s="15">
+        <v>275</v>
+      </c>
+      <c r="F237" s="15">
+        <v>177</v>
+      </c>
+      <c r="G237" s="15">
+        <v>0</v>
+      </c>
+      <c r="H237" s="15">
+        <v>3072</v>
+      </c>
+      <c r="I237" s="15">
+        <v>3270</v>
+      </c>
+      <c r="J237" s="15">
+        <v>90</v>
+      </c>
+      <c r="K237" s="15">
+        <v>38</v>
+      </c>
+      <c r="L237" s="57">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -24674,7 +24757,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1046</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24690,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>732</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24698,7 +24781,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24714,7 +24797,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -24722,7 +24805,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>788</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24730,7 +24813,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24746,7 +24829,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -24754,7 +24837,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24778,7 +24861,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24786,7 +24869,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24802,7 +24885,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24810,7 +24893,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24818,7 +24901,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24826,7 +24909,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24834,7 +24917,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
@@ -24842,7 +24925,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24866,7 +24949,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24882,7 +24965,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -24914,7 +24997,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -24930,7 +25013,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -24946,7 +25029,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -25110,7 +25193,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>6932</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25134,7 +25217,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7143</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25142,7 +25225,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4527</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25150,7 +25233,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1046</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25158,7 +25241,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1359</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25237,10 +25320,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1241244045951248E-2</v>
+        <v>3.1721845130904557E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25248,10 +25331,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3182964415802748E-2</v>
+        <v>6.3859260285358085E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25259,10 +25342,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1776</v>
+        <v>1791</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24880919024936957</v>
+        <v>0.2480953040587339</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25270,10 +25353,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15998879237881761</v>
+        <v>0.15999445906635268</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25281,10 +25364,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="D9" s="44">
-        <v>0.1480806948725133</v>
+        <v>0.14891259177171354</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25292,10 +25375,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14625945643037266</v>
+        <v>0.14586507826568776</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25303,10 +25386,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7979826281871676E-2</v>
+        <v>8.7269704945283286E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25314,10 +25397,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0381059120201738E-2</v>
+        <v>6.0534700096966342E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25325,10 +25408,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3429532081815637E-2</v>
+        <v>4.3080759107909684E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25336,10 +25419,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0647240123283833E-2</v>
+        <v>1.0666297271090178E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25347,7 +25430,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7138</v>
+        <v>7219</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月3日時点</t>
+    <t>令和2年12月4日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:L314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7737,7 +7737,7 @@
         <v>44167</v>
       </c>
       <c r="C312" s="9">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E312" s="8">
         <v>44167</v>
@@ -7753,6 +7753,12 @@
       </c>
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B313" s="74">
+        <v>44168</v>
+      </c>
+      <c r="C313" s="9">
+        <v>63</v>
+      </c>
       <c r="E313" s="8">
         <v>44168</v>
       </c>
@@ -7764,6 +7770,20 @@
       </c>
       <c r="I313" s="75">
         <v>85</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E314" s="8">
+        <v>44169</v>
+      </c>
+      <c r="F314" s="65">
+        <v>75</v>
+      </c>
+      <c r="H314" s="8">
+        <v>44169</v>
+      </c>
+      <c r="I314" s="75">
+        <v>80.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7775,7 +7795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10256,6 +10276,14 @@
         <v>1.1121495327102804</v>
       </c>
     </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B314" s="8">
+        <v>44169</v>
+      </c>
+      <c r="C314" s="62">
+        <v>1.019927536231884</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10265,7 +10293,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -13698,16 +13726,16 @@
         <v>22</v>
       </c>
       <c r="D178" s="56">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E178" s="56">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F178" s="56">
-        <v>712</v>
+        <v>712.42857142857133</v>
       </c>
       <c r="G178" s="56">
-        <v>3.3306581059390048</v>
+        <v>3.328654501704432</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.4">
@@ -13724,10 +13752,10 @@
         <v>828</v>
       </c>
       <c r="F179" s="56">
-        <v>736.71428571428578</v>
+        <v>737.14285714285722</v>
       </c>
       <c r="G179" s="56">
-        <v>3.5097925150281171</v>
+        <v>3.5077519379844961</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.4">
@@ -13744,10 +13772,10 @@
         <v>605</v>
       </c>
       <c r="F180" s="56">
-        <v>757.28571428571433</v>
+        <v>757.71428571428578</v>
       </c>
       <c r="G180" s="56">
-        <v>3.225806451612903</v>
+        <v>3.2239819004524892</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.4">
@@ -13764,10 +13792,10 @@
         <v>378</v>
       </c>
       <c r="F181" s="56">
-        <v>758.85714285714289</v>
+        <v>759.28571428571433</v>
       </c>
       <c r="G181" s="56">
-        <v>3.2944277108433737</v>
+        <v>3.2925682031984946</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.4">
@@ -13784,10 +13812,10 @@
         <v>765</v>
       </c>
       <c r="F182" s="56">
-        <v>764</v>
+        <v>764.42857142857144</v>
       </c>
       <c r="G182" s="56">
-        <v>3.2161555721765147</v>
+        <v>3.2143524574845825</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.4">
@@ -13804,10 +13832,10 @@
         <v>895</v>
       </c>
       <c r="F183" s="56">
-        <v>772</v>
+        <v>772.42857142857144</v>
       </c>
       <c r="G183" s="56">
-        <v>3.2198371576609914</v>
+        <v>3.2180506750508595</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.4">
@@ -13818,16 +13846,16 @@
         <v>40</v>
       </c>
       <c r="D184" s="56">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="E184" s="56">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="F184" s="56">
-        <v>771.28571428571422</v>
+        <v>772.57142857142856</v>
       </c>
       <c r="G184" s="56">
-        <v>3.4636043711798479</v>
+        <v>3.457840236686391</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.4">
@@ -13844,10 +13872,10 @@
         <v>522</v>
       </c>
       <c r="F185" s="56">
-        <v>710.57142857142867</v>
+        <v>711.42857142857144</v>
       </c>
       <c r="G185" s="56">
-        <v>3.8399678327301969</v>
+        <v>3.8353413654618471</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.4">
@@ -13858,16 +13886,16 @@
         <v>17</v>
       </c>
       <c r="D186" s="56">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E186" s="56">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F186" s="56">
-        <v>641.85714285714289</v>
+        <v>643.42857142857144</v>
       </c>
       <c r="G186" s="56">
-        <v>3.8281771644780771</v>
+        <v>3.8188277087033748</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.4">
@@ -13884,10 +13912,10 @@
         <v>556</v>
       </c>
       <c r="F187" s="56">
-        <v>634.85714285714289</v>
+        <v>636.42857142857144</v>
       </c>
       <c r="G187" s="56">
-        <v>3.9378937893789381</v>
+        <v>3.9281705948372618</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.4">
@@ -13904,10 +13932,10 @@
         <v>499</v>
       </c>
       <c r="F188" s="56">
-        <v>652.14285714285722</v>
+        <v>653.71428571428578</v>
       </c>
       <c r="G188" s="56">
-        <v>3.964950711938664</v>
+        <v>3.9554195804195809</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.4">
@@ -13924,10 +13952,10 @@
         <v>864</v>
       </c>
       <c r="F189" s="56">
-        <v>666.28571428571422</v>
+        <v>667.85714285714278</v>
       </c>
       <c r="G189" s="56">
-        <v>4.0094339622641506</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.4">
@@ -13944,10 +13972,10 @@
         <v>1010</v>
       </c>
       <c r="F190" s="56">
-        <v>682.71428571428578</v>
+        <v>684.28571428571433</v>
       </c>
       <c r="G190" s="56">
-        <v>4.519774011299436</v>
+        <v>4.5093945720250526</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.4">
@@ -13964,10 +13992,10 @@
         <v>1067</v>
       </c>
       <c r="F191" s="56">
-        <v>695</v>
+        <v>695.71428571428567</v>
       </c>
       <c r="G191" s="56">
-        <v>4.563206577595067</v>
+        <v>4.5585215605749489</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.4">
@@ -13978,16 +14006,16 @@
         <v>42</v>
       </c>
       <c r="D192" s="56">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="E192" s="56">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F192" s="56">
-        <v>759.28571428571433</v>
+        <v>760.71428571428567</v>
       </c>
       <c r="G192" s="56">
-        <v>4.4778927563499531</v>
+        <v>4.4694835680751179</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.4">
@@ -13998,16 +14026,16 @@
         <v>74</v>
       </c>
       <c r="D193" s="56">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E193" s="56">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="F193" s="56">
-        <v>858.42857142857144</v>
+        <v>859.57142857142856</v>
       </c>
       <c r="G193" s="56">
-        <v>4.9093027125977704</v>
+        <v>4.9027754695030747</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.4">
@@ -14024,10 +14052,10 @@
         <v>843</v>
       </c>
       <c r="F194" s="56">
-        <v>899.42857142857144</v>
+        <v>900.57142857142856</v>
       </c>
       <c r="G194" s="56">
-        <v>5.2255400254129603</v>
+        <v>5.218908629441624</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.4">
@@ -14044,10 +14072,10 @@
         <v>493</v>
       </c>
       <c r="F195" s="56">
-        <v>898.57142857142856</v>
+        <v>899.71428571428567</v>
       </c>
       <c r="G195" s="56">
-        <v>5.3577106518282989</v>
+        <v>5.3509050492219759</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.4">
@@ -14064,10 +14092,10 @@
         <v>1125</v>
       </c>
       <c r="F196" s="56">
-        <v>935.85714285714289</v>
+        <v>937</v>
       </c>
       <c r="G196" s="56">
-        <v>5.2969012364524497</v>
+        <v>5.2904406159475528</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.4">
@@ -14084,10 +14112,10 @@
         <v>1342</v>
       </c>
       <c r="F197" s="56">
-        <v>983.28571428571422</v>
+        <v>984.42857142857144</v>
       </c>
       <c r="G197" s="56">
-        <v>4.8961208775243357</v>
+        <v>4.8904368016253086</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.4">
@@ -14104,10 +14132,10 @@
         <v>1353</v>
       </c>
       <c r="F198" s="56">
-        <v>1024.1428571428571</v>
+        <v>1025.2857142857142</v>
       </c>
       <c r="G198" s="56">
-        <v>5.0076719207699822</v>
+        <v>5.0020900097533794</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.4">
@@ -14118,16 +14146,16 @@
         <v>58</v>
       </c>
       <c r="D199" s="56">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="E199" s="56">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="F199" s="56">
-        <v>1055.4285714285716</v>
+        <v>1057.2857142857142</v>
       </c>
       <c r="G199" s="56">
-        <v>5.0757985923118571</v>
+        <v>5.0668828536684227</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.4">
@@ -14138,16 +14166,16 @@
         <v>50</v>
       </c>
       <c r="D200" s="56">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="E200" s="56">
-        <v>1170</v>
+        <v>1183</v>
       </c>
       <c r="F200" s="56">
-        <v>1073.8571428571429</v>
+        <v>1077.1428571428571</v>
       </c>
       <c r="G200" s="56">
-        <v>4.6694159904217107</v>
+        <v>4.6551724137931041</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.4">
@@ -14164,10 +14192,10 @@
         <v>793</v>
       </c>
       <c r="F201" s="56">
-        <v>1066.7142857142858</v>
+        <v>1070</v>
       </c>
       <c r="G201" s="56">
-        <v>4.4864068568367479</v>
+        <v>4.4726301735647525</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.4">
@@ -14184,10 +14212,10 @@
         <v>691</v>
       </c>
       <c r="F202" s="56">
-        <v>1095</v>
+        <v>1098.2857142857142</v>
       </c>
       <c r="G202" s="56">
-        <v>4.4096542726679715</v>
+        <v>4.3964620187304888</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.4">
@@ -14204,10 +14232,10 @@
         <v>480</v>
       </c>
       <c r="F203" s="56">
-        <v>1002.8571428571429</v>
+        <v>1006.1428571428572</v>
       </c>
       <c r="G203" s="56">
-        <v>4.4729344729344724</v>
+        <v>4.4583274172937672</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.4">
@@ -14218,16 +14246,16 @@
         <v>36</v>
       </c>
       <c r="D204" s="56">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="E204" s="56">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="F204" s="56">
-        <v>958</v>
+        <v>962.28571428571433</v>
       </c>
       <c r="G204" s="56">
-        <v>4.5779898598270208</v>
+        <v>4.557600950118764</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.4">
@@ -14238,16 +14266,16 @@
         <v>30</v>
       </c>
       <c r="D205" s="56">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="E205" s="56">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="F205" s="56">
-        <v>917.71428571428578</v>
+        <v>924.57142857142856</v>
       </c>
       <c r="G205" s="56">
-        <v>4.1874221668742226</v>
+        <v>4.1563658838071698</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.4">
@@ -14258,16 +14286,16 @@
         <v>59</v>
       </c>
       <c r="D206" s="56">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E206" s="56">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="F206" s="56">
-        <v>918.42857142857144</v>
+        <v>924.14285714285711</v>
       </c>
       <c r="G206" s="56">
-        <v>4.1997200186654222</v>
+        <v>4.1737517390632242</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.4">
@@ -14278,16 +14306,16 @@
         <v>63</v>
       </c>
       <c r="D207" s="56">
-        <v>1050</v>
+        <v>1067</v>
       </c>
       <c r="E207" s="56">
-        <v>1113</v>
+        <v>1130</v>
       </c>
       <c r="F207" s="56">
-        <v>910.28571428571433</v>
+        <v>916.57142857142856</v>
       </c>
       <c r="G207" s="56">
-        <v>4.4413057124921531</v>
+        <v>4.4108478802992517</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.4">
@@ -14304,10 +14332,10 @@
         <v>851</v>
       </c>
       <c r="F208" s="56">
-        <v>918.57142857142856</v>
+        <v>924.85714285714278</v>
       </c>
       <c r="G208" s="56">
-        <v>4.5412130637636086</v>
+        <v>4.5103490886623421</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.4">
@@ -14324,10 +14352,10 @@
         <v>611</v>
       </c>
       <c r="F209" s="56">
-        <v>907.14285714285722</v>
+        <v>913.42857142857144</v>
       </c>
       <c r="G209" s="56">
-        <v>4.5039370078740157</v>
+        <v>4.4729433844228961</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.4">
@@ -14344,10 +14372,10 @@
         <v>1177</v>
       </c>
       <c r="F210" s="56">
-        <v>1006.7142857142858</v>
+        <v>1013</v>
       </c>
       <c r="G210" s="56">
-        <v>4.2571306939123037</v>
+        <v>4.2307149908334507</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.4">
@@ -14364,10 +14392,10 @@
         <v>1248</v>
       </c>
       <c r="F211" s="56">
-        <v>1038.1428571428571</v>
+        <v>1043.4285714285716</v>
       </c>
       <c r="G211" s="56">
-        <v>4.1970551809550019</v>
+        <v>4.1757940854326403</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.4">
@@ -14384,10 +14412,10 @@
         <v>1406</v>
       </c>
       <c r="F212" s="56">
-        <v>1086</v>
+        <v>1088.7142857142858</v>
       </c>
       <c r="G212" s="56">
-        <v>4.4198895027624303</v>
+        <v>4.4088702270043303</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.4">
@@ -14398,16 +14426,16 @@
         <v>54</v>
       </c>
       <c r="D213" s="56">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="E213" s="56">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="F213" s="56">
-        <v>1079.1428571428571</v>
+        <v>1082.7142857142856</v>
       </c>
       <c r="G213" s="56">
-        <v>4.3817844850410372</v>
+        <v>4.367330782425122</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.4">
@@ -14418,16 +14446,16 @@
         <v>34</v>
       </c>
       <c r="D214" s="56">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E214" s="56">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F214" s="56">
-        <v>1065.2857142857142</v>
+        <v>1066.5714285714287</v>
       </c>
       <c r="G214" s="56">
-        <v>4.0498860131420154</v>
+        <v>4.0450040182159119</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.4">
@@ -14438,16 +14466,16 @@
         <v>32</v>
       </c>
       <c r="D215" s="56">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E215" s="56">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="F215" s="56">
-        <v>1070.7142857142858</v>
+        <v>1073.4285714285716</v>
       </c>
       <c r="G215" s="56">
-        <v>3.802535023348899</v>
+        <v>3.7929198828852808</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.4">
@@ -14455,19 +14483,19 @@
         <v>44066</v>
       </c>
       <c r="C216" s="56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D216" s="56">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="E216" s="56">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="F216" s="56">
-        <v>1057</v>
+        <v>1064.1428571428571</v>
       </c>
       <c r="G216" s="56">
-        <v>3.8383565346668465</v>
+        <v>3.8528661565310784</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.4">
@@ -14478,16 +14506,16 @@
         <v>32</v>
       </c>
       <c r="D217" s="56">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="E217" s="56">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="F217" s="56">
-        <v>1041.7142857142858</v>
+        <v>1050</v>
       </c>
       <c r="G217" s="56">
-        <v>3.8809654415798129</v>
+        <v>3.8911564625850339</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.4">
@@ -14498,16 +14526,16 @@
         <v>34</v>
       </c>
       <c r="D218" s="56">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="E218" s="56">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="F218" s="56">
-        <v>1022.5714285714286</v>
+        <v>1032.2857142857142</v>
       </c>
       <c r="G218" s="56">
-        <v>3.8558256496228003</v>
+        <v>3.8610572931082201</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.4">
@@ -14518,16 +14546,16 @@
         <v>50</v>
       </c>
       <c r="D219" s="56">
-        <v>1086</v>
+        <v>1100</v>
       </c>
       <c r="E219" s="56">
-        <v>1136</v>
+        <v>1150</v>
       </c>
       <c r="F219" s="56">
-        <v>984</v>
+        <v>995.71428571428578</v>
       </c>
       <c r="G219" s="56">
-        <v>3.8472706155632981</v>
+        <v>3.8450502152080346</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.4">
@@ -14538,16 +14566,16 @@
         <v>28</v>
       </c>
       <c r="D220" s="56">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="E220" s="56">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="F220" s="56">
-        <v>984</v>
+        <v>995.85714285714289</v>
       </c>
       <c r="G220" s="56">
-        <v>3.4698025551684095</v>
+        <v>3.4715248888251322</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.4">
@@ -14558,16 +14586,16 @@
         <v>31</v>
       </c>
       <c r="D221" s="56">
-        <v>1014</v>
+        <v>1041</v>
       </c>
       <c r="E221" s="56">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="F221" s="56">
-        <v>988.14285714285711</v>
+        <v>1003.7142857142857</v>
       </c>
       <c r="G221" s="56">
-        <v>3.411883764637849</v>
+        <v>3.401651010532309</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.4">
@@ -14584,10 +14612,10 @@
         <v>901</v>
       </c>
       <c r="F222" s="56">
-        <v>989.85714285714289</v>
+        <v>1004</v>
       </c>
       <c r="G222" s="56">
-        <v>3.4925674700533982</v>
+        <v>3.4860557768924298</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.4">
@@ -14604,10 +14632,10 @@
         <v>440</v>
       </c>
       <c r="F223" s="56">
-        <v>979.14285714285711</v>
+        <v>988.85714285714289</v>
       </c>
       <c r="G223" s="56">
-        <v>3.3119346367084921</v>
+        <v>3.2793990176249643</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.4">
@@ -14618,16 +14646,16 @@
         <v>16</v>
       </c>
       <c r="D224" s="56">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="E224" s="56">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="F224" s="56">
-        <v>985.42857142857144</v>
+        <v>994.85714285714278</v>
       </c>
       <c r="G224" s="56">
-        <v>3.058857639895622</v>
+        <v>3.0298678920160826</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.4">
@@ -14644,10 +14672,10 @@
         <v>1123</v>
       </c>
       <c r="F225" s="56">
-        <v>986.71428571428578</v>
+        <v>994.71428571428578</v>
       </c>
       <c r="G225" s="56">
-        <v>2.9680034747357755</v>
+        <v>2.9441332758868306</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.4">
@@ -14658,16 +14686,16 @@
         <v>30</v>
       </c>
       <c r="D226" s="56">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="E226" s="56">
-        <v>1205</v>
+        <v>1214</v>
       </c>
       <c r="F226" s="56">
-        <v>996.57142857142856</v>
+        <v>1003.8571428571429</v>
       </c>
       <c r="G226" s="56">
-        <v>2.6519495412844036</v>
+        <v>2.6327024334708975</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.4">
@@ -14678,16 +14706,16 @@
         <v>34</v>
       </c>
       <c r="D227" s="56">
-        <v>1225</v>
+        <v>1240</v>
       </c>
       <c r="E227" s="56">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="F227" s="56">
-        <v>1012.4285714285714</v>
+        <v>1020.5714285714287</v>
       </c>
       <c r="G227" s="56">
-        <v>2.695075490334415</v>
+        <v>2.6735722284434491</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.4">
@@ -14698,16 +14726,16 @@
         <v>26</v>
       </c>
       <c r="D228" s="56">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="E228" s="56">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="F228" s="56">
-        <v>1037.8571428571429</v>
+        <v>1042.8571428571429</v>
       </c>
       <c r="G228" s="56">
-        <v>2.5602202339986233</v>
+        <v>2.5479452054794525</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.4">
@@ -14724,10 +14752,10 @@
         <v>900</v>
       </c>
       <c r="F229" s="56">
-        <v>1037.7142857142858</v>
+        <v>1042.7142857142858</v>
       </c>
       <c r="G229" s="56">
-        <v>2.354074889867841</v>
+        <v>2.3427866831072746</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.4">
@@ -14744,10 +14772,10 @@
         <v>481</v>
       </c>
       <c r="F230" s="56">
-        <v>1043.5714285714287</v>
+        <v>1048.5714285714287</v>
       </c>
       <c r="G230" s="56">
-        <v>2.2724161533196439</v>
+        <v>2.2615803814713895</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.4">
@@ -14758,16 +14786,16 @@
         <v>32</v>
       </c>
       <c r="D231" s="56">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="E231" s="56">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="F231" s="56">
-        <v>1075.2857142857142</v>
+        <v>1080</v>
       </c>
       <c r="G231" s="56">
-        <v>2.4179620034542317</v>
+        <v>2.4074074074074074</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.4">
@@ -14778,16 +14806,16 @@
         <v>14</v>
       </c>
       <c r="D232" s="56">
-        <v>1161</v>
+        <v>1170</v>
       </c>
       <c r="E232" s="56">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="F232" s="56">
-        <v>1082.7142857142858</v>
+        <v>1088.7142857142858</v>
       </c>
       <c r="G232" s="56">
-        <v>2.2166512732550467</v>
+        <v>2.2044351135021651</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.4">
@@ -14804,10 +14832,10 @@
         <v>1217</v>
       </c>
       <c r="F233" s="56">
-        <v>1084.4285714285713</v>
+        <v>1089.1428571428571</v>
       </c>
       <c r="G233" s="56">
-        <v>2.1472796732973256</v>
+        <v>2.1379853095487933</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.4">
@@ -14818,16 +14846,16 @@
         <v>31</v>
       </c>
       <c r="D234" s="56">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="E234" s="56">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="F234" s="56">
-        <v>1073.5714285714287</v>
+        <v>1078.2857142857142</v>
       </c>
       <c r="G234" s="56">
-        <v>2.1290751829673984</v>
+        <v>2.1197668256491791</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.4">
@@ -14844,10 +14872,10 @@
         <v>1101</v>
       </c>
       <c r="F235" s="56">
-        <v>1056.1428571428571</v>
+        <v>1060.1428571428571</v>
       </c>
       <c r="G235" s="56">
-        <v>2.2994724739618557</v>
+        <v>2.2907963886268696</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.4">
@@ -14864,10 +14892,10 @@
         <v>871</v>
       </c>
       <c r="F236" s="56">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="G236" s="56">
-        <v>2.3221075502444322</v>
+        <v>2.3133116883116882</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.4">
@@ -14884,10 +14912,10 @@
         <v>498</v>
       </c>
       <c r="F237" s="56">
-        <v>1054.4285714285716</v>
+        <v>1058.4285714285716</v>
       </c>
       <c r="G237" s="56">
-        <v>2.3438558460913161</v>
+        <v>2.3349979754352814</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.4">
@@ -14898,16 +14926,16 @@
         <v>32</v>
       </c>
       <c r="D238" s="56">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="E238" s="56">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="F238" s="56">
-        <v>1048</v>
+        <v>1051.8571428571429</v>
       </c>
       <c r="G238" s="56">
-        <v>2.3582333696837514</v>
+        <v>2.3495857666711939</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.4">
@@ -14918,16 +14946,16 @@
         <v>29</v>
       </c>
       <c r="D239" s="56">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E239" s="56">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F239" s="56">
-        <v>1053.5714285714287</v>
+        <v>1056.2857142857142</v>
       </c>
       <c r="G239" s="56">
-        <v>2.5491525423728811</v>
+        <v>2.5426021098187723</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.4">
@@ -14938,16 +14966,16 @@
         <v>28</v>
       </c>
       <c r="D240" s="56">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="E240" s="56">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="F240" s="56">
-        <v>1050.8571428571429</v>
+        <v>1054.7142857142856</v>
       </c>
       <c r="G240" s="56">
-        <v>2.5965198477433384</v>
+        <v>2.5870242448869019</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.4">
@@ -14958,16 +14986,16 @@
         <v>53</v>
       </c>
       <c r="D241" s="56">
-        <v>1140</v>
+        <v>1182</v>
       </c>
       <c r="E241" s="56">
-        <v>1193</v>
+        <v>1235</v>
       </c>
       <c r="F241" s="56">
-        <v>1052.2857142857142</v>
+        <v>1060</v>
       </c>
       <c r="G241" s="56">
-        <v>2.8916644040184631</v>
+        <v>2.8706199460916442</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.4">
@@ -14978,16 +15006,16 @@
         <v>34</v>
       </c>
       <c r="D242" s="56">
-        <v>1161</v>
+        <v>1189</v>
       </c>
       <c r="E242" s="56">
-        <v>1195</v>
+        <v>1223</v>
       </c>
       <c r="F242" s="56">
-        <v>1065.7142857142858</v>
+        <v>1077.4285714285713</v>
       </c>
       <c r="G242" s="56">
-        <v>2.8284182305630026</v>
+        <v>2.7976664014850177</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.4">
@@ -14998,16 +15026,16 @@
         <v>28</v>
       </c>
       <c r="D243" s="56">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="E243" s="56">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="F243" s="56">
-        <v>1062.4285714285716</v>
+        <v>1075.7142857142858</v>
       </c>
       <c r="G243" s="56">
-        <v>2.8909506521446824</v>
+        <v>2.8552456839309426</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.4">
@@ -15024,10 +15052,10 @@
         <v>569</v>
       </c>
       <c r="F244" s="56">
-        <v>1072.5714285714287</v>
+        <v>1085.8571428571429</v>
       </c>
       <c r="G244" s="56">
-        <v>2.8769312733084704</v>
+        <v>2.8417313511380082</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.4">
@@ -15038,16 +15066,16 @@
         <v>18</v>
       </c>
       <c r="D245" s="56">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E245" s="56">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F245" s="56">
-        <v>967.85714285714289</v>
+        <v>981.14285714285722</v>
       </c>
       <c r="G245" s="56">
-        <v>2.9815498154981546</v>
+        <v>2.9411764705882355</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.4">
@@ -15064,10 +15092,10 @@
         <v>505</v>
       </c>
       <c r="F246" s="56">
-        <v>866.57142857142856</v>
+        <v>879.71428571428578</v>
       </c>
       <c r="G246" s="56">
-        <v>3.2805802835476428</v>
+        <v>3.2315686911334849</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.4">
@@ -15078,16 +15106,16 @@
         <v>31</v>
       </c>
       <c r="D247" s="56">
-        <v>1374</v>
+        <v>1381</v>
       </c>
       <c r="E247" s="56">
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="F247" s="56">
-        <v>896.14285714285722</v>
+        <v>909.14285714285722</v>
       </c>
       <c r="G247" s="56">
-        <v>3.220149848557309</v>
+        <v>3.1741043368950348</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.4">
@@ -15098,16 +15126,16 @@
         <v>21</v>
       </c>
       <c r="D248" s="56">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E248" s="56">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F248" s="56">
-        <v>881.14285714285722</v>
+        <v>888.28571428571433</v>
       </c>
       <c r="G248" s="56">
-        <v>2.7561608300907912</v>
+        <v>2.733998070119009</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.4">
@@ -15124,10 +15152,10 @@
         <v>1237</v>
       </c>
       <c r="F249" s="56">
-        <v>887.14285714285711</v>
+        <v>890.28571428571422</v>
       </c>
       <c r="G249" s="56">
-        <v>2.6086956521739131</v>
+        <v>2.5994865211810008</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.4">
@@ -15138,16 +15166,16 @@
         <v>20</v>
       </c>
       <c r="D250" s="56">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E250" s="56">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F250" s="56">
-        <v>880.14285714285711</v>
+        <v>882.28571428571433</v>
       </c>
       <c r="G250" s="56">
-        <v>2.4995942217172535</v>
+        <v>2.4935233160621761</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.4">
@@ -15164,10 +15192,10 @@
         <v>471</v>
       </c>
       <c r="F251" s="56">
-        <v>866.14285714285711</v>
+        <v>868.28571428571433</v>
       </c>
       <c r="G251" s="56">
-        <v>2.5399967013029854</v>
+        <v>2.533728200065811</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.4">
@@ -15178,16 +15206,16 @@
         <v>33</v>
       </c>
       <c r="D252" s="56">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="E252" s="56">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="F252" s="56">
-        <v>974.85714285714278</v>
+        <v>977.14285714285711</v>
       </c>
       <c r="G252" s="56">
-        <v>2.4765533411488865</v>
+        <v>2.4707602339181287</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.4">
@@ -15204,10 +15232,10 @@
         <v>1166</v>
       </c>
       <c r="F253" s="56">
-        <v>1069.2857142857144</v>
+        <v>1071.5714285714287</v>
       </c>
       <c r="G253" s="56">
-        <v>2.2979291917167672</v>
+        <v>2.2930275963204902</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.4">
@@ -15218,16 +15246,16 @@
         <v>46</v>
       </c>
       <c r="D254" s="56">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E254" s="56">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F254" s="56">
-        <v>1043.2857142857142</v>
+        <v>1044.7142857142858</v>
       </c>
       <c r="G254" s="56">
-        <v>2.560591537724223</v>
+        <v>2.5570901134965132</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.4">
@@ -15238,16 +15266,16 @@
         <v>31</v>
       </c>
       <c r="D255" s="56">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E255" s="56">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F255" s="56">
-        <v>1076.7142857142858</v>
+        <v>1078.2857142857142</v>
       </c>
       <c r="G255" s="56">
-        <v>2.61377205784795</v>
+        <v>2.6099629040805512</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.4">
@@ -15258,16 +15286,16 @@
         <v>39</v>
       </c>
       <c r="D256" s="56">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E256" s="56">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="F256" s="56">
-        <v>1074.1428571428571</v>
+        <v>1076</v>
       </c>
       <c r="G256" s="56">
-        <v>2.7929245910360421</v>
+        <v>2.7881040892193307</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.4">
@@ -15284,10 +15312,10 @@
         <v>742</v>
       </c>
       <c r="F257" s="56">
-        <v>1066</v>
+        <v>1067.2857142857144</v>
       </c>
       <c r="G257" s="56">
-        <v>3.0688823371750202</v>
+        <v>3.0651853834828007</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.4">
@@ -15304,10 +15332,10 @@
         <v>507</v>
       </c>
       <c r="F258" s="56">
-        <v>1071</v>
+        <v>1072.2857142857142</v>
       </c>
       <c r="G258" s="56">
-        <v>3.1074953320885572</v>
+        <v>3.1037698148394832</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.4">
@@ -15324,10 +15352,10 @@
         <v>1438</v>
       </c>
       <c r="F259" s="56">
-        <v>1088</v>
+        <v>1088.7142857142858</v>
       </c>
       <c r="G259" s="56">
-        <v>3.0458185637390054</v>
+        <v>3.0438205195486749</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.4">
@@ -15338,16 +15366,16 @@
         <v>46</v>
       </c>
       <c r="D260" s="56">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="E260" s="56">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F260" s="56">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G260" s="56">
-        <v>3.1671330450267106</v>
+        <v>3.1643156690812044</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.4">
@@ -15364,10 +15392,10 @@
         <v>1404</v>
       </c>
       <c r="F261" s="56">
-        <v>1148.8571428571429</v>
+        <v>1149.7142857142858</v>
       </c>
       <c r="G261" s="56">
-        <v>2.959094865100087</v>
+        <v>2.9568890545409365</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.4">
@@ -15378,16 +15406,16 @@
         <v>32</v>
       </c>
       <c r="D262" s="56">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="E262" s="56">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="F262" s="56">
-        <v>1158.8571428571429</v>
+        <v>1160.1428571428571</v>
       </c>
       <c r="G262" s="56">
-        <v>2.9458893134475534</v>
+        <v>2.9426249692194046</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.4">
@@ -15398,16 +15426,16 @@
         <v>35</v>
       </c>
       <c r="D263" s="56">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="E263" s="56">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F263" s="56">
-        <v>1161.4285714285716</v>
+        <v>1162.7142857142858</v>
       </c>
       <c r="G263" s="56">
-        <v>2.8901734104046239</v>
+        <v>2.8869778869778866</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.4">
@@ -15424,10 +15452,10 @@
         <v>904</v>
       </c>
       <c r="F264" s="56">
-        <v>1184.5714285714284</v>
+        <v>1185.8571428571429</v>
       </c>
       <c r="G264" s="56">
-        <v>2.8819486313758595</v>
+        <v>2.8788243796675501</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.4">
@@ -15444,10 +15472,10 @@
         <v>475</v>
       </c>
       <c r="F265" s="56">
-        <v>1180.1428571428571</v>
+        <v>1181.4285714285713</v>
       </c>
       <c r="G265" s="56">
-        <v>2.7962716378162451</v>
+        <v>2.7932285368802905</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.4">
@@ -15455,19 +15483,19 @@
         <v>44116</v>
       </c>
       <c r="C266" s="56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D266" s="56">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E266" s="56">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="F266" s="56">
-        <v>1175.8571428571427</v>
+        <v>1177.5714285714287</v>
       </c>
       <c r="G266" s="56">
-        <v>2.6728222573198881</v>
+        <v>2.6810627198835375</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.4">
@@ -15478,16 +15506,16 @@
         <v>34</v>
       </c>
       <c r="D267" s="56">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="E267" s="56">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="F267" s="56">
-        <v>1152.7142857142858</v>
+        <v>1154.5714285714287</v>
       </c>
       <c r="G267" s="56">
-        <v>2.5777667616805058</v>
+        <v>2.5859935659490225</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.4">
@@ -15498,16 +15526,16 @@
         <v>47</v>
       </c>
       <c r="D268" s="56">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E268" s="56">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="F268" s="56">
-        <v>1150.1428571428571</v>
+        <v>1152.2857142857144</v>
       </c>
       <c r="G268" s="56">
-        <v>2.7325798037510869</v>
+        <v>2.7398958591619142</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.4">
@@ -15515,19 +15543,19 @@
         <v>44119</v>
       </c>
       <c r="C269" s="56">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D269" s="56">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E269" s="56">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F269" s="56">
-        <v>1122.2857142857142</v>
+        <v>1124.1428571428573</v>
       </c>
       <c r="G269" s="56">
-        <v>2.7876782077393076</v>
+        <v>2.808489007497776</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.4">
@@ -15538,16 +15566,16 @@
         <v>30</v>
       </c>
       <c r="D270" s="56">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E270" s="56">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F270" s="56">
-        <v>1104.2857142857144</v>
+        <v>1106</v>
       </c>
       <c r="G270" s="56">
-        <v>2.76843467011643</v>
+        <v>2.7899767501937482</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.4">
@@ -15564,10 +15592,10 @@
         <v>782</v>
       </c>
       <c r="F271" s="56">
-        <v>1086.8571428571429</v>
+        <v>1088.5714285714284</v>
       </c>
       <c r="G271" s="56">
-        <v>2.5893796004206098</v>
+        <v>2.6115485564304457</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.4">
@@ -15584,10 +15612,10 @@
         <v>496</v>
       </c>
       <c r="F272" s="56">
-        <v>1089.8571428571429</v>
+        <v>1091.5714285714287</v>
       </c>
       <c r="G272" s="56">
-        <v>2.595359811246559</v>
+        <v>2.6174584478471403</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.4">
@@ -15604,10 +15632,10 @@
         <v>1317</v>
       </c>
       <c r="F273" s="56">
-        <v>1076.8571428571429</v>
+        <v>1078.1428571428571</v>
       </c>
       <c r="G273" s="56">
-        <v>2.799150968426638</v>
+        <v>2.8090632039220882</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.4">
@@ -15618,16 +15646,16 @@
         <v>50</v>
       </c>
       <c r="D274" s="56">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E274" s="56">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F274" s="56">
-        <v>1068.4285714285713</v>
+        <v>1069.5714285714287</v>
       </c>
       <c r="G274" s="56">
-        <v>3.0351651290279453</v>
+        <v>3.0452784827033521</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.4">
@@ -15638,16 +15666,16 @@
         <v>40</v>
       </c>
       <c r="D275" s="56">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E275" s="56">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F275" s="56">
-        <v>1038.5714285714284</v>
+        <v>1039.5714285714287</v>
       </c>
       <c r="G275" s="56">
-        <v>3.0303030303030303</v>
+        <v>3.0411449016100178</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.4">
@@ -15658,16 +15686,16 @@
         <v>57</v>
       </c>
       <c r="D276" s="56">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="E276" s="56">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="F276" s="56">
-        <v>1058.8571428571429</v>
+        <v>1060.5714285714284</v>
       </c>
       <c r="G276" s="56">
-        <v>3.3234261010537698</v>
+        <v>3.3180469382249798</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.4">
@@ -15678,16 +15706,16 @@
         <v>43</v>
       </c>
       <c r="D277" s="56">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E277" s="56">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F277" s="56">
-        <v>1070.1428571428571</v>
+        <v>1072</v>
       </c>
       <c r="G277" s="56">
-        <v>3.4621039967918725</v>
+        <v>3.4560982119028556</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.4">
@@ -15704,10 +15732,10 @@
         <v>895</v>
       </c>
       <c r="F278" s="56">
-        <v>1086.2857142857142</v>
+        <v>1088.1428571428571</v>
       </c>
       <c r="G278" s="56">
-        <v>3.5291019225704505</v>
+        <v>3.5230708557907184</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.4">
@@ -15724,10 +15752,10 @@
         <v>563</v>
       </c>
       <c r="F279" s="56">
-        <v>1095.8571428571429</v>
+        <v>1097.7142857142858</v>
       </c>
       <c r="G279" s="56">
-        <v>3.7070878475394857</v>
+        <v>3.7008079228563981</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.4">
@@ -15738,16 +15766,16 @@
         <v>41</v>
       </c>
       <c r="D280" s="56">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E280" s="56">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="F280" s="56">
-        <v>1106.8571428571429</v>
+        <v>1108.8571428571429</v>
       </c>
       <c r="G280" s="56">
-        <v>3.7606616696820887</v>
+        <v>3.7538699690402479</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.4">
@@ -15758,16 +15786,16 @@
         <v>41</v>
       </c>
       <c r="D281" s="56">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E281" s="56">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F281" s="56">
-        <v>1114.1428571428571</v>
+        <v>1116.1428571428571</v>
       </c>
       <c r="G281" s="56">
-        <v>3.6204904352291694</v>
+        <v>3.613994617454825</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.4">
@@ -15778,16 +15806,16 @@
         <v>35</v>
       </c>
       <c r="D282" s="56">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E282" s="56">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F282" s="56">
-        <v>1131.2857142857144</v>
+        <v>1133.2857142857144</v>
       </c>
       <c r="G282" s="56">
-        <v>3.4979164035863111</v>
+        <v>3.4917433505609483</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.4">
@@ -15795,19 +15823,19 @@
         <v>44133</v>
       </c>
       <c r="C283" s="56">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D283" s="56">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="E283" s="56">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="F283" s="56">
-        <v>1118</v>
+        <v>1119.7142857142858</v>
       </c>
       <c r="G283" s="56">
-        <v>3.2200357781753133</v>
+        <v>3.2278642510844606</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.4">
@@ -15818,16 +15846,16 @@
         <v>34</v>
       </c>
       <c r="D284" s="56">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="E284" s="56">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="F284" s="56">
-        <v>1120.7142857142858</v>
+        <v>1122.5714285714287</v>
       </c>
       <c r="G284" s="56">
-        <v>3.0975143403441683</v>
+        <v>3.1051158055484853</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.4">
@@ -15844,10 +15872,10 @@
         <v>768</v>
       </c>
       <c r="F285" s="56">
-        <v>1102.5714285714287</v>
+        <v>1104.4285714285713</v>
       </c>
       <c r="G285" s="56">
-        <v>2.9800466442083438</v>
+        <v>2.987970508343035</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.4">
@@ -15864,10 +15892,10 @@
         <v>463</v>
       </c>
       <c r="F286" s="56">
-        <v>1088.2857142857142</v>
+        <v>1090.1428571428571</v>
       </c>
       <c r="G286" s="56">
-        <v>2.9272775006563405</v>
+        <v>2.9353950989385402</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15875,19 +15903,19 @@
         <v>44137</v>
       </c>
       <c r="C287" s="56">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D287" s="56">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="E287" s="56">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="F287" s="56">
-        <v>1086.5714285714287</v>
+        <v>1089.2857142857142</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9450433867998944</v>
+        <v>2.9639344262295082</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15898,16 +15926,16 @@
         <v>31</v>
       </c>
       <c r="D288" s="56">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E288" s="56">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F288" s="56">
-        <v>983</v>
+        <v>985.71428571428578</v>
       </c>
       <c r="G288" s="56">
-        <v>3.11001307949426</v>
+        <v>3.1304347826086958</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -15918,16 +15946,16 @@
         <v>61</v>
       </c>
       <c r="D289" s="56">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E289" s="56">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="F289" s="56">
-        <v>1034.5714285714287</v>
+        <v>1037.2857142857142</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3140016570008277</v>
+        <v>3.332874259743837</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -15944,10 +15972,10 @@
         <v>1207</v>
       </c>
       <c r="F290" s="56">
-        <v>1029</v>
+        <v>1030.8571428571429</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5263084825767037</v>
+        <v>3.5338137472283817</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -15958,16 +15986,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="E291" s="56">
-        <v>1355</v>
+        <v>1362</v>
       </c>
       <c r="F291" s="56">
-        <v>1049.8571428571429</v>
+        <v>1052.2857142857142</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8508640631378417</v>
+        <v>3.8555525386912843</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -15984,10 +16012,10 @@
         <v>848</v>
       </c>
       <c r="F292" s="56">
-        <v>1061.2857142857142</v>
+        <v>1063.7142857142858</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2670615156817879</v>
+        <v>4.2707493956486697</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -16004,10 +16032,10 @@
         <v>456</v>
       </c>
       <c r="F293" s="56">
-        <v>1060.2857142857142</v>
+        <v>1062.7142857142858</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1902452169226629</v>
+        <v>4.1941121118429887</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -16018,16 +16046,16 @@
         <v>64</v>
       </c>
       <c r="D294" s="56">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="E294" s="56">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="F294" s="56">
-        <v>1106.5714285714287</v>
+        <v>1108.7142857142858</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2989930286599529</v>
+        <v>4.2906841901816772</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16038,16 +16066,16 @@
         <v>58</v>
       </c>
       <c r="D295" s="56">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="E295" s="56">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="F295" s="56">
-        <v>1236.1428571428571</v>
+        <v>1238.5714285714284</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1604067953310997</v>
+        <v>4.1522491349480966</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16058,16 +16086,16 @@
         <v>76</v>
       </c>
       <c r="D296" s="56">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="E296" s="56">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="F296" s="56">
-        <v>1218</v>
+        <v>1220.8571428571429</v>
       </c>
       <c r="G296" s="56">
-        <v>4.3983110485573542</v>
+        <v>4.388017786098759</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16078,16 +16106,16 @@
         <v>62</v>
       </c>
       <c r="D297" s="56">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="E297" s="56">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="F297" s="56">
-        <v>1265.4285714285716</v>
+        <v>1269</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4140889591329868</v>
+        <v>4.4016661037937634</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16098,16 +16126,16 @@
         <v>89</v>
       </c>
       <c r="D298" s="56">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="E298" s="56">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="F298" s="56">
-        <v>1271.5714285714287</v>
+        <v>1275.2857142857144</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6848668688911355</v>
+        <v>4.6712221350957766</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16124,10 +16152,10 @@
         <v>944</v>
       </c>
       <c r="F299" s="56">
-        <v>1285.2857142857142</v>
+        <v>1289</v>
       </c>
       <c r="G299" s="56">
-        <v>4.701567189063022</v>
+        <v>4.6880195057076364</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16144,10 +16172,10 @@
         <v>629</v>
       </c>
       <c r="F300" s="56">
-        <v>1310</v>
+        <v>1313.7142857142858</v>
       </c>
       <c r="G300" s="56">
-        <v>5.1908396946564883</v>
+        <v>5.1761635493692904</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16155,19 +16183,19 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D301" s="56">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="E301" s="56">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="F301" s="56">
-        <v>1222.5714285714287</v>
+        <v>1227</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5269922879177367</v>
+        <v>5.5303294912096872</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16184,10 +16212,10 @@
         <v>1272</v>
       </c>
       <c r="F302" s="56">
-        <v>1201</v>
+        <v>1204.8571428571427</v>
       </c>
       <c r="G302" s="56">
-        <v>5.6738432258831919</v>
+        <v>5.6793929333649507</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16198,16 +16226,16 @@
         <v>90</v>
       </c>
       <c r="D303" s="56">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E303" s="56">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F303" s="56">
-        <v>1176</v>
+        <v>1179.5714285714284</v>
       </c>
       <c r="G303" s="56">
-        <v>5.964528668610301</v>
+        <v>5.9706915344556135</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16218,16 +16246,16 @@
         <v>74</v>
       </c>
       <c r="D304" s="56">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="E304" s="56">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="F304" s="56">
-        <v>1163.5714285714287</v>
+        <v>1168</v>
       </c>
       <c r="G304" s="56">
-        <v>6.1755678330263963</v>
+        <v>6.1766144814090014</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16238,16 +16266,16 @@
         <v>90</v>
       </c>
       <c r="D305" s="56">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E305" s="56">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="F305" s="56">
-        <v>1158.1428571428571</v>
+        <v>1161.8571428571429</v>
       </c>
       <c r="G305" s="56">
-        <v>6.2168496361169359</v>
+        <v>6.2215664576417069</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16264,10 +16292,10 @@
         <v>1089</v>
       </c>
       <c r="F306" s="56">
-        <v>1178.8571428571429</v>
+        <v>1182.5714285714287</v>
       </c>
       <c r="G306" s="56">
-        <v>6.1560833737275802</v>
+        <v>6.1609084319884033</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16284,10 +16312,10 @@
         <v>450</v>
       </c>
       <c r="F307" s="56">
-        <v>1153.2857142857142</v>
+        <v>1157</v>
       </c>
       <c r="G307" s="56">
-        <v>6.0943887030843555</v>
+        <v>6.0995184590690208</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16304,10 +16332,10 @@
         <v>462</v>
       </c>
       <c r="F308" s="56">
-        <v>1063</v>
+        <v>1065.2857142857142</v>
       </c>
       <c r="G308" s="56">
-        <v>6.1550866818975942</v>
+        <v>6.1418801126458362</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16315,19 +16343,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D309" s="56">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="E309" s="56">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="F309" s="56">
-        <v>1090</v>
+        <v>1093.1428571428571</v>
       </c>
       <c r="G309" s="56">
-        <v>5.9108781127129753</v>
+        <v>5.9200209095661265</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16338,16 +16366,16 @@
         <v>85</v>
       </c>
       <c r="D310" s="56">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="E310" s="56">
-        <v>1251</v>
+        <v>1260</v>
       </c>
       <c r="F310" s="56">
-        <v>1075</v>
+        <v>1079.1428571428571</v>
       </c>
       <c r="G310" s="56">
-        <v>5.9269102990033229</v>
+        <v>5.9306327773365108</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16358,16 +16386,16 @@
         <v>85</v>
       </c>
       <c r="D311" s="56">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E311" s="56">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F311" s="56">
-        <v>1056.4285714285713</v>
+        <v>1059.2857142857142</v>
       </c>
       <c r="G311" s="56">
-        <v>6.1798512508451671</v>
+        <v>6.1901550910316923</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16378,16 +16406,16 @@
         <v>75</v>
       </c>
       <c r="D312" s="56">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="E312" s="56">
-        <v>1249</v>
+        <v>1264</v>
       </c>
       <c r="F312" s="56">
-        <v>1040.5714285714287</v>
+        <v>1045.1428571428571</v>
       </c>
       <c r="G312" s="56">
-        <v>6.0680944535969239</v>
+        <v>6.0688901038819028</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16398,16 +16426,16 @@
         <v>58</v>
       </c>
       <c r="D313" s="56">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="E313" s="56">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="F313" s="56">
-        <v>1031.8571428571429</v>
+        <v>1037.2857142857142</v>
       </c>
       <c r="G313" s="56">
-        <v>6.0085836909871242</v>
+        <v>6.0046825506128636</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16418,16 +16446,16 @@
         <v>62</v>
       </c>
       <c r="D314" s="56">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E314" s="56">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F314" s="56">
-        <v>1038</v>
+        <v>1043.7142857142858</v>
       </c>
       <c r="G314" s="56">
-        <v>6.1519405450041287</v>
+        <v>6.145633725704899</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16435,19 +16463,19 @@
         <v>44165</v>
       </c>
       <c r="C315" s="56">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D315" s="56">
-        <v>1020</v>
+        <v>1053</v>
       </c>
       <c r="E315" s="56">
-        <v>1085</v>
+        <v>1123</v>
       </c>
       <c r="F315" s="56">
-        <v>1127</v>
+        <v>1138.1428571428571</v>
       </c>
       <c r="G315" s="56">
-        <v>6.1478007352009127</v>
+        <v>6.1754738295468812</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.4">
@@ -16455,19 +16483,39 @@
         <v>44166</v>
       </c>
       <c r="C316" s="56">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D316" s="56">
-        <v>801</v>
+        <v>894</v>
       </c>
       <c r="E316" s="56">
-        <v>847</v>
+        <v>943</v>
       </c>
       <c r="F316" s="56">
-        <v>1039.2857142857142</v>
+        <v>1063.2857142857142</v>
       </c>
       <c r="G316" s="56">
-        <v>6.5429553264604809</v>
+        <v>6.5027542657530564</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B317" s="73">
+        <v>44167</v>
+      </c>
+      <c r="C317" s="56">
+        <v>65</v>
+      </c>
+      <c r="D317" s="56">
+        <v>941</v>
+      </c>
+      <c r="E317" s="56">
+        <v>1006</v>
+      </c>
+      <c r="F317" s="56">
+        <v>1027</v>
+      </c>
+      <c r="G317" s="56">
+        <v>6.4543051884824036</v>
       </c>
     </row>
   </sheetData>
@@ -16479,7 +16527,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24705,6 +24753,41 @@
       </c>
       <c r="L237" s="57">
         <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B238" s="14">
+        <v>44169</v>
+      </c>
+      <c r="C238" s="15">
+        <v>7314</v>
+      </c>
+      <c r="D238" s="15">
+        <v>338</v>
+      </c>
+      <c r="E238" s="15">
+        <v>256</v>
+      </c>
+      <c r="F238" s="15">
+        <v>177</v>
+      </c>
+      <c r="G238" s="15">
+        <v>0</v>
+      </c>
+      <c r="H238" s="15">
+        <v>3096</v>
+      </c>
+      <c r="I238" s="15">
+        <v>3320</v>
+      </c>
+      <c r="J238" s="15">
+        <v>90</v>
+      </c>
+      <c r="K238" s="15">
+        <v>37</v>
+      </c>
+      <c r="L238" s="57">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -24757,7 +24840,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1053</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24773,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24781,7 +24864,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24797,7 +24880,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -24805,7 +24888,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>799</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24829,7 +24912,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -24837,7 +24920,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24845,7 +24928,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -24861,7 +24944,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24869,7 +24952,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24885,7 +24968,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24893,7 +24976,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24901,7 +24984,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24909,7 +24992,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -24925,7 +25008,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -24949,7 +25032,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -24965,7 +25048,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -24973,7 +25056,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -24981,7 +25064,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -24989,7 +25072,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -25193,7 +25276,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7013</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25201,7 +25284,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25217,7 +25300,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7224</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25225,7 +25308,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4588</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25233,7 +25316,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1053</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25241,7 +25324,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1372</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25249,7 +25332,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25257,7 +25340,7 @@
         <v>109</v>
       </c>
       <c r="C70" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -25320,10 +25403,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1721845130904557E-2</v>
+        <v>3.1532766657526731E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25331,10 +25414,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3859260285358085E-2</v>
+        <v>6.3751028242391011E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25342,10 +25425,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1791</v>
+        <v>1802</v>
       </c>
       <c r="D7" s="44">
-        <v>0.2480953040587339</v>
+        <v>0.2470523718124486</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25353,10 +25436,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15999445906635268</v>
+        <v>0.16013161502604881</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25364,10 +25447,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1075</v>
+        <v>1092</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14891259177171354</v>
+        <v>0.14971209213051823</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25375,10 +25458,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1053</v>
+        <v>1066</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14586507826568776</v>
+        <v>0.14614751850836305</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25386,10 +25469,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7269704945283286E-2</v>
+        <v>8.7469152728269814E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25397,10 +25480,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0534700096966342E-2</v>
+        <v>6.0734850562105841E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25408,10 +25491,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3080759107909684E-2</v>
+        <v>4.2911982451329857E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25422,7 +25505,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0666297271090178E-2</v>
+        <v>1.055662188099808E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25430,10 +25513,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7219</v>
+        <v>7294</v>
       </c>
       <c r="D15" s="47">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月4日時点</t>
+    <t>令和2年12月5日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L314"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7737,7 +7737,7 @@
         <v>44167</v>
       </c>
       <c r="C312" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E312" s="8">
         <v>44167</v>
@@ -7757,7 +7757,7 @@
         <v>44168</v>
       </c>
       <c r="C313" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E313" s="8">
         <v>44168</v>
@@ -7773,6 +7773,12 @@
       </c>
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B314" s="74">
+        <v>44169</v>
+      </c>
+      <c r="C314" s="9">
+        <v>64</v>
+      </c>
       <c r="E314" s="8">
         <v>44169</v>
       </c>
@@ -7784,6 +7790,20 @@
       </c>
       <c r="I314" s="75">
         <v>80.428571428571431</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E315" s="8">
+        <v>44170</v>
+      </c>
+      <c r="F315" s="65">
+        <v>74</v>
+      </c>
+      <c r="H315" s="8">
+        <v>44170</v>
+      </c>
+      <c r="I315" s="75">
+        <v>74.857142857142861</v>
       </c>
     </row>
   </sheetData>
@@ -7795,7 +7815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E314"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10284,6 +10304,14 @@
         <v>1.019927536231884</v>
       </c>
     </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B315" s="8">
+        <v>44170</v>
+      </c>
+      <c r="C315" s="62">
+        <v>0.94244604316546765</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10293,7 +10321,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16518,6 +16546,26 @@
         <v>6.4543051884824036</v>
       </c>
     </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B318" s="73">
+        <v>44168</v>
+      </c>
+      <c r="C318" s="56">
+        <v>34</v>
+      </c>
+      <c r="D318" s="56">
+        <v>446</v>
+      </c>
+      <c r="E318" s="56">
+        <v>480</v>
+      </c>
+      <c r="F318" s="56">
+        <v>906.42857142857144</v>
+      </c>
+      <c r="G318" s="56">
+        <v>6.5090622537431049</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16527,7 +16575,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L238"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24787,6 +24835,41 @@
         <v>37</v>
       </c>
       <c r="L238" s="57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B239" s="14">
+        <v>44170</v>
+      </c>
+      <c r="C239" s="15">
+        <v>7388</v>
+      </c>
+      <c r="D239" s="15">
+        <v>331</v>
+      </c>
+      <c r="E239" s="15">
+        <v>277</v>
+      </c>
+      <c r="F239" s="15">
+        <v>181</v>
+      </c>
+      <c r="G239" s="15">
+        <v>0</v>
+      </c>
+      <c r="H239" s="15">
+        <v>3117</v>
+      </c>
+      <c r="I239" s="15">
+        <v>3354</v>
+      </c>
+      <c r="J239" s="15">
+        <v>91</v>
+      </c>
+      <c r="K239" s="15">
+        <v>37</v>
+      </c>
+      <c r="L239" s="57">
         <v>14</v>
       </c>
     </row>
@@ -24840,7 +24923,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24856,7 +24939,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24864,7 +24947,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>952</v>
+        <v>962</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24888,7 +24971,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24896,7 +24979,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24912,7 +24995,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -24920,7 +25003,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -24944,7 +25027,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -24952,7 +25035,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -24968,7 +25051,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -24976,7 +25059,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -24984,7 +25067,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -24992,7 +25075,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25008,7 +25091,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25016,7 +25099,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -25040,7 +25123,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -25048,7 +25131,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -25064,7 +25147,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25080,7 +25163,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -25096,7 +25179,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -25144,7 +25227,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -25276,7 +25359,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7088</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25300,7 +25383,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7300</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25308,7 +25391,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4638</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25316,7 +25399,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25324,7 +25407,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1390</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25403,10 +25486,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1532766657526731E-2</v>
+        <v>3.1758957654723127E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25414,10 +25497,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3751028242391011E-2</v>
+        <v>6.4060803474484257E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25425,10 +25508,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="D7" s="44">
-        <v>0.2470523718124486</v>
+        <v>0.24592833876221498</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25436,10 +25519,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="D8" s="44">
-        <v>0.16013161502604881</v>
+        <v>0.15960912052117263</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25447,10 +25530,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1092</v>
+        <v>1106</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14971209213051823</v>
+        <v>0.15010857763300761</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25458,10 +25541,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1066</v>
+        <v>1075</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14614751850836305</v>
+        <v>0.14590119435396309</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25469,10 +25552,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7469152728269814E-2</v>
+        <v>8.7540716612377847E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25480,10 +25563,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0734850562105841E-2</v>
+        <v>6.1346362649294245E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25491,10 +25574,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D13" s="44">
-        <v>4.2911982451329857E-2</v>
+        <v>4.3295331161780672E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25505,7 +25588,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="44">
-        <v>1.055662188099808E-2</v>
+        <v>1.0450597176981541E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25513,10 +25596,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7294</v>
+        <v>7368</v>
       </c>
       <c r="D15" s="47">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月5日時点</t>
+    <t>令和2年12月6日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L315"/>
+  <dimension ref="A1:L316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7737,7 +7737,7 @@
         <v>44167</v>
       </c>
       <c r="C312" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E312" s="8">
         <v>44167</v>
@@ -7777,7 +7777,7 @@
         <v>44169</v>
       </c>
       <c r="C314" s="9">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E314" s="8">
         <v>44169</v>
@@ -7793,6 +7793,12 @@
       </c>
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B315" s="74">
+        <v>44170</v>
+      </c>
+      <c r="C315" s="9">
+        <v>62</v>
+      </c>
       <c r="E315" s="8">
         <v>44170</v>
       </c>
@@ -7804,6 +7810,20 @@
       </c>
       <c r="I315" s="75">
         <v>74.857142857142861</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E316" s="8">
+        <v>44171</v>
+      </c>
+      <c r="F316" s="65">
+        <v>78</v>
+      </c>
+      <c r="H316" s="8">
+        <v>44171</v>
+      </c>
+      <c r="I316" s="75">
+        <v>75.285714285714292</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +7835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10312,6 +10332,14 @@
         <v>0.94244604316546765</v>
       </c>
     </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B316" s="8">
+        <v>44171</v>
+      </c>
+      <c r="C316" s="62">
+        <v>0.95644283121597096</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10321,7 +10349,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16566,6 +16594,26 @@
         <v>6.5090622537431049</v>
       </c>
     </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B319" s="73">
+        <v>44169</v>
+      </c>
+      <c r="C319" s="56">
+        <v>43</v>
+      </c>
+      <c r="D319" s="56">
+        <v>467</v>
+      </c>
+      <c r="E319" s="56">
+        <v>510</v>
+      </c>
+      <c r="F319" s="56">
+        <v>798.71428571428578</v>
+      </c>
+      <c r="G319" s="56">
+        <v>6.814523341083885</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16575,7 +16623,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L239"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24870,6 +24918,41 @@
         <v>37</v>
       </c>
       <c r="L239" s="57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B240" s="14">
+        <v>44171</v>
+      </c>
+      <c r="C240" s="15">
+        <v>7466</v>
+      </c>
+      <c r="D240" s="15">
+        <v>342</v>
+      </c>
+      <c r="E240" s="15">
+        <v>305</v>
+      </c>
+      <c r="F240" s="15">
+        <v>145</v>
+      </c>
+      <c r="G240" s="15">
+        <v>0</v>
+      </c>
+      <c r="H240" s="15">
+        <v>3133</v>
+      </c>
+      <c r="I240" s="15">
+        <v>3409</v>
+      </c>
+      <c r="J240" s="15">
+        <v>92</v>
+      </c>
+      <c r="K240" s="15">
+        <v>40</v>
+      </c>
+      <c r="L240" s="57">
         <v>14</v>
       </c>
     </row>
@@ -24923,7 +25006,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -24939,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -24947,7 +25030,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>962</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -24971,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -24979,7 +25062,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -24995,7 +25078,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25003,7 +25086,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25027,7 +25110,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25035,7 +25118,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25059,7 +25142,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25067,7 +25150,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25075,7 +25158,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25155,7 +25238,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -25163,7 +25246,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -25187,7 +25270,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -25359,7 +25442,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7162</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25367,7 +25450,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25383,7 +25466,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7374</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25391,7 +25474,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4685</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25399,7 +25482,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25407,7 +25490,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1409</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25415,7 +25498,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25489,7 +25572,7 @@
         <v>234</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1758957654723127E-2</v>
+        <v>3.1426269137792104E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25497,10 +25580,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D6" s="44">
-        <v>6.4060803474484257E-2</v>
+        <v>6.3792640343808757E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25508,10 +25591,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1812</v>
+        <v>1826</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24592833876221498</v>
+        <v>0.24523233951114692</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25519,10 +25602,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15960912052117263</v>
+        <v>0.15928015041633092</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25530,10 +25613,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15010857763300761</v>
+        <v>0.15028203062046736</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25541,10 +25624,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14590119435396309</v>
+        <v>0.14558152027934462</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25552,10 +25635,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7540716612377847E-2</v>
+        <v>8.7832393231265113E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25563,10 +25646,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D12" s="44">
-        <v>6.1346362649294245E-2</v>
+        <v>6.1509535320977707E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25574,10 +25657,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3295331161780672E-2</v>
+        <v>4.3647596024711258E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25585,10 +25668,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D14" s="44">
-        <v>1.0450597176981541E-2</v>
+        <v>1.1415525114155251E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25596,10 +25679,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7368</v>
+        <v>7446</v>
       </c>
       <c r="D15" s="47">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月6日時点</t>
+    <t>令和2年12月7日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L316"/>
+  <dimension ref="A1:L317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7777,7 +7777,7 @@
         <v>44169</v>
       </c>
       <c r="C314" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E314" s="8">
         <v>44169</v>
@@ -7797,7 +7797,7 @@
         <v>44170</v>
       </c>
       <c r="C315" s="9">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E315" s="8">
         <v>44170</v>
@@ -7813,6 +7813,12 @@
       </c>
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B316" s="74">
+        <v>44171</v>
+      </c>
+      <c r="C316" s="9">
+        <v>23</v>
+      </c>
       <c r="E316" s="8">
         <v>44171</v>
       </c>
@@ -7824,6 +7830,20 @@
       </c>
       <c r="I316" s="75">
         <v>75.285714285714292</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E317" s="8">
+        <v>44172</v>
+      </c>
+      <c r="F317" s="65">
+        <v>53</v>
+      </c>
+      <c r="H317" s="8">
+        <v>44172</v>
+      </c>
+      <c r="I317" s="75">
+        <v>73.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -7835,7 +7855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10340,6 +10360,14 @@
         <v>0.95644283121597096</v>
       </c>
     </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B317" s="8">
+        <v>44172</v>
+      </c>
+      <c r="C317" s="62">
+        <v>0.91428571428571426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10349,7 +10377,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15962,16 +15990,16 @@
         <v>43</v>
       </c>
       <c r="D287" s="56">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="E287" s="56">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="F287" s="56">
-        <v>1089.2857142857142</v>
+        <v>1087.1428571428571</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9639344262295082</v>
+        <v>2.9697766097240472</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -15988,10 +16016,10 @@
         <v>518</v>
       </c>
       <c r="F288" s="56">
-        <v>985.71428571428578</v>
+        <v>983.57142857142856</v>
       </c>
       <c r="G288" s="56">
-        <v>3.1304347826086958</v>
+        <v>3.1372549019607843</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -16002,16 +16030,16 @@
         <v>61</v>
       </c>
       <c r="D289" s="56">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="E289" s="56">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="F289" s="56">
-        <v>1037.2857142857142</v>
+        <v>1032.8571428571429</v>
       </c>
       <c r="G289" s="56">
-        <v>3.332874259743837</v>
+        <v>3.3471645919778701</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -16028,10 +16056,10 @@
         <v>1207</v>
       </c>
       <c r="F290" s="56">
-        <v>1030.8571428571429</v>
+        <v>1026.4285714285713</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5338137472283817</v>
+        <v>3.5490605427974957</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -16042,16 +16070,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="E291" s="56">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="F291" s="56">
-        <v>1052.2857142857142</v>
+        <v>1045.4285714285716</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8555525386912843</v>
+        <v>3.8808417600437282</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -16062,16 +16090,16 @@
         <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="E292" s="56">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="F292" s="56">
-        <v>1063.7142857142858</v>
+        <v>1054.1428571428571</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2707493956486697</v>
+        <v>4.3095270361837645</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -16088,10 +16116,10 @@
         <v>456</v>
       </c>
       <c r="F293" s="56">
-        <v>1062.7142857142858</v>
+        <v>1053.1428571428571</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1941121118429887</v>
+        <v>4.2322300596852953</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -16102,16 +16130,16 @@
         <v>64</v>
       </c>
       <c r="D294" s="56">
-        <v>1647</v>
+        <v>1621</v>
       </c>
       <c r="E294" s="56">
-        <v>1711</v>
+        <v>1685</v>
       </c>
       <c r="F294" s="56">
-        <v>1108.7142857142858</v>
+        <v>1097.5714285714287</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2906841901816772</v>
+        <v>4.3342444357672782</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16128,10 +16156,10 @@
         <v>1427</v>
       </c>
       <c r="F295" s="56">
-        <v>1238.5714285714284</v>
+        <v>1227.4285714285713</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1522491349480966</v>
+        <v>4.1899441340782131</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16139,19 +16167,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D296" s="56">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="E296" s="56">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="F296" s="56">
-        <v>1220.8571428571429</v>
+        <v>1210.4285714285713</v>
       </c>
       <c r="G296" s="56">
-        <v>4.388017786098759</v>
+        <v>4.4140210079074711</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16162,16 +16190,16 @@
         <v>62</v>
       </c>
       <c r="D297" s="56">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="E297" s="56">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="F297" s="56">
-        <v>1269</v>
+        <v>1256.7142857142858</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4016661037937634</v>
+        <v>4.4333295441627829</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16182,16 +16210,16 @@
         <v>89</v>
       </c>
       <c r="D298" s="56">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="E298" s="56">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="F298" s="56">
-        <v>1275.2857142857144</v>
+        <v>1263.5714285714284</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6712221350957766</v>
+        <v>4.7032221594120971</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16202,16 +16230,16 @@
         <v>62</v>
       </c>
       <c r="D299" s="56">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E299" s="56">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="F299" s="56">
-        <v>1289</v>
+        <v>1278.7142857142856</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6880195057076364</v>
+        <v>4.7145570327337722</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16228,10 +16256,10 @@
         <v>629</v>
       </c>
       <c r="F300" s="56">
-        <v>1313.7142857142858</v>
+        <v>1303.4285714285716</v>
       </c>
       <c r="G300" s="56">
-        <v>5.1761635493692904</v>
+        <v>5.2060499780797898</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16242,16 +16270,16 @@
         <v>63</v>
       </c>
       <c r="D301" s="56">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="E301" s="56">
-        <v>1104</v>
+        <v>1075</v>
       </c>
       <c r="F301" s="56">
-        <v>1227</v>
+        <v>1216.2857142857144</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5303294912096872</v>
+        <v>5.5673009161381248</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16268,10 +16296,10 @@
         <v>1272</v>
       </c>
       <c r="F302" s="56">
-        <v>1204.8571428571427</v>
+        <v>1194.1428571428571</v>
       </c>
       <c r="G302" s="56">
-        <v>5.6793929333649507</v>
+        <v>5.7183873669099183</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16282,16 +16310,16 @@
         <v>90</v>
       </c>
       <c r="D303" s="56">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="E303" s="56">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="F303" s="56">
-        <v>1179.5714285714284</v>
+        <v>1169</v>
       </c>
       <c r="G303" s="56">
-        <v>5.9706915344556135</v>
+        <v>6.0246853232310889</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16302,16 +16330,16 @@
         <v>74</v>
       </c>
       <c r="D304" s="56">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="E304" s="56">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="F304" s="56">
-        <v>1168</v>
+        <v>1158.2857142857142</v>
       </c>
       <c r="G304" s="56">
-        <v>6.1766144814090014</v>
+        <v>6.2284163788850515</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16322,16 +16350,16 @@
         <v>90</v>
       </c>
       <c r="D305" s="56">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="E305" s="56">
-        <v>1363</v>
+        <v>1377</v>
       </c>
       <c r="F305" s="56">
-        <v>1161.8571428571429</v>
+        <v>1156</v>
       </c>
       <c r="G305" s="56">
-        <v>6.2215664576417069</v>
+        <v>6.2530894710825518</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16339,19 +16367,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D306" s="56">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="E306" s="56">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="F306" s="56">
-        <v>1182.5714285714287</v>
+        <v>1180</v>
       </c>
       <c r="G306" s="56">
-        <v>6.1609084319884033</v>
+        <v>6.1864406779661021</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16359,19 +16387,19 @@
         <v>44157</v>
       </c>
       <c r="C307" s="56">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D307" s="56">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E307" s="56">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F307" s="56">
-        <v>1157</v>
+        <v>1155.5714285714287</v>
       </c>
       <c r="G307" s="56">
-        <v>6.0995184590690208</v>
+        <v>6.1441463716157738</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16382,16 +16410,16 @@
         <v>27</v>
       </c>
       <c r="D308" s="56">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E308" s="56">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F308" s="56">
-        <v>1065.2857142857142</v>
+        <v>1068.8571428571429</v>
       </c>
       <c r="G308" s="56">
-        <v>6.1418801126458362</v>
+        <v>6.1614541566426091</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16399,19 +16427,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D309" s="56">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="E309" s="56">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="F309" s="56">
-        <v>1093.1428571428571</v>
+        <v>1097.4285714285713</v>
       </c>
       <c r="G309" s="56">
-        <v>5.9200209095661265</v>
+        <v>5.9489716219734454</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16422,16 +16450,16 @@
         <v>85</v>
       </c>
       <c r="D310" s="56">
-        <v>1175</v>
+        <v>1202</v>
       </c>
       <c r="E310" s="56">
-        <v>1260</v>
+        <v>1287</v>
       </c>
       <c r="F310" s="56">
-        <v>1079.1428571428571</v>
+        <v>1088.7142857142858</v>
       </c>
       <c r="G310" s="56">
-        <v>5.9306327773365108</v>
+        <v>5.9309801863272531</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16439,19 +16467,19 @@
         <v>44161</v>
       </c>
       <c r="C311" s="56">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D311" s="56">
-        <v>1239</v>
+        <v>1323</v>
       </c>
       <c r="E311" s="56">
-        <v>1324</v>
+        <v>1410</v>
       </c>
       <c r="F311" s="56">
-        <v>1059.2857142857142</v>
+        <v>1082.1428571428571</v>
       </c>
       <c r="G311" s="56">
-        <v>6.1901550910316923</v>
+        <v>6.1386138613861396</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16459,19 +16487,19 @@
         <v>44162</v>
       </c>
       <c r="C312" s="56">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D312" s="56">
-        <v>1189</v>
+        <v>1230</v>
       </c>
       <c r="E312" s="56">
-        <v>1264</v>
+        <v>1306</v>
       </c>
       <c r="F312" s="56">
-        <v>1045.1428571428571</v>
+        <v>1072</v>
       </c>
       <c r="G312" s="56">
-        <v>6.0688901038819028</v>
+        <v>6.0101279317697234</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16479,19 +16507,19 @@
         <v>44163</v>
       </c>
       <c r="C313" s="56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D313" s="56">
-        <v>976</v>
+        <v>1013</v>
       </c>
       <c r="E313" s="56">
-        <v>1034</v>
+        <v>1072</v>
       </c>
       <c r="F313" s="56">
-        <v>1037.2857142857142</v>
+        <v>1067.5714285714287</v>
       </c>
       <c r="G313" s="56">
-        <v>6.0046825506128636</v>
+        <v>5.9280074936437837</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16502,16 +16530,16 @@
         <v>62</v>
       </c>
       <c r="D314" s="56">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E314" s="56">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F314" s="56">
-        <v>1043.7142857142858</v>
+        <v>1073.8571428571429</v>
       </c>
       <c r="G314" s="56">
-        <v>6.145633725704899</v>
+        <v>6.0396434747904753</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16519,19 +16547,19 @@
         <v>44165</v>
       </c>
       <c r="C315" s="56">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D315" s="56">
-        <v>1053</v>
+        <v>1094</v>
       </c>
       <c r="E315" s="56">
-        <v>1123</v>
+        <v>1165</v>
       </c>
       <c r="F315" s="56">
-        <v>1138.1428571428571</v>
+        <v>1173.4285714285713</v>
       </c>
       <c r="G315" s="56">
-        <v>6.1754738295468812</v>
+        <v>6.0628195763330899</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.4">
@@ -16542,16 +16570,16 @@
         <v>49</v>
       </c>
       <c r="D316" s="56">
-        <v>894</v>
+        <v>956</v>
       </c>
       <c r="E316" s="56">
-        <v>943</v>
+        <v>1005</v>
       </c>
       <c r="F316" s="56">
-        <v>1063.2857142857142</v>
+        <v>1106.7142857142858</v>
       </c>
       <c r="G316" s="56">
-        <v>6.5027542657530564</v>
+        <v>6.3121208209629538</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16559,19 +16587,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D317" s="56">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="E317" s="56">
-        <v>1006</v>
+        <v>1050</v>
       </c>
       <c r="F317" s="56">
-        <v>1027</v>
+        <v>1072.8571428571429</v>
       </c>
       <c r="G317" s="56">
-        <v>6.4543051884824036</v>
+        <v>6.2716378162450068</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16579,19 +16607,19 @@
         <v>44168</v>
       </c>
       <c r="C318" s="56">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D318" s="56">
-        <v>446</v>
+        <v>915</v>
       </c>
       <c r="E318" s="56">
-        <v>480</v>
+        <v>964</v>
       </c>
       <c r="F318" s="56">
-        <v>906.42857142857144</v>
+        <v>1009.1428571428572</v>
       </c>
       <c r="G318" s="56">
-        <v>6.5090622537431049</v>
+        <v>6.1296715741789356</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16599,19 +16627,39 @@
         <v>44169</v>
       </c>
       <c r="C319" s="56">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D319" s="56">
-        <v>467</v>
+        <v>865</v>
       </c>
       <c r="E319" s="56">
-        <v>510</v>
+        <v>921</v>
       </c>
       <c r="F319" s="56">
-        <v>798.71428571428578</v>
+        <v>954.14285714285711</v>
       </c>
       <c r="G319" s="56">
-        <v>6.814523341083885</v>
+        <v>6.1835604132355142</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B320" s="73">
+        <v>44170</v>
+      </c>
+      <c r="C320" s="56">
+        <v>62</v>
+      </c>
+      <c r="D320" s="56">
+        <v>1256</v>
+      </c>
+      <c r="E320" s="56">
+        <v>1316</v>
+      </c>
+      <c r="F320" s="56">
+        <v>989.28571428571433</v>
+      </c>
+      <c r="G320" s="56">
+        <v>6.0089556550628345</v>
       </c>
     </row>
   </sheetData>
@@ -16623,7 +16671,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L240"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -24953,6 +25001,41 @@
         <v>40</v>
       </c>
       <c r="L240" s="57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B241" s="14">
+        <v>44172</v>
+      </c>
+      <c r="C241" s="15">
+        <v>7519</v>
+      </c>
+      <c r="D241" s="15">
+        <v>336</v>
+      </c>
+      <c r="E241" s="15">
+        <v>274</v>
+      </c>
+      <c r="F241" s="15">
+        <v>171</v>
+      </c>
+      <c r="G241" s="15">
+        <v>0</v>
+      </c>
+      <c r="H241" s="15">
+        <v>3153</v>
+      </c>
+      <c r="I241" s="15">
+        <v>3452</v>
+      </c>
+      <c r="J241" s="15">
+        <v>93</v>
+      </c>
+      <c r="K241" s="15">
+        <v>40</v>
+      </c>
+      <c r="L241" s="57">
         <v>14</v>
       </c>
     </row>
@@ -25006,7 +25089,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25022,7 +25105,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25030,7 +25113,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25054,7 +25137,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>819</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25110,7 +25193,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25118,7 +25201,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25134,7 +25217,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25142,7 +25225,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25150,7 +25233,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25158,7 +25241,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25182,7 +25265,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -25198,7 +25281,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25230,7 +25313,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25442,7 +25525,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7239</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25466,7 +25549,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7452</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25474,7 +25557,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4752</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25482,7 +25565,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25490,7 +25573,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1416</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25569,10 +25652,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1426269137792104E-2</v>
+        <v>3.1737565008667826E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25580,10 +25663,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3792640343808757E-2</v>
+        <v>6.3608481130817449E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25591,10 +25674,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24523233951114692</v>
+        <v>0.24483264435258034</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25602,10 +25685,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15928015041633092</v>
+        <v>0.15935458061074809</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25613,10 +25696,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15028203062046736</v>
+        <v>0.15002000266702226</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25624,10 +25707,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14558152027934462</v>
+        <v>0.14575276703560475</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25635,10 +25718,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7832393231265113E-2</v>
+        <v>8.7878383784504605E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25646,10 +25729,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D12" s="44">
-        <v>6.1509535320977707E-2</v>
+        <v>6.1741565542072274E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25657,10 +25740,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3647596024711258E-2</v>
+        <v>4.3605814108547809E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25668,10 +25751,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1415525114155251E-2</v>
+        <v>1.1468195759434592E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25679,10 +25762,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7446</v>
+        <v>7499</v>
       </c>
       <c r="D15" s="47">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月7日時点</t>
+    <t>令和2年12月8日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L317"/>
+  <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7777,7 +7777,7 @@
         <v>44169</v>
       </c>
       <c r="C314" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E314" s="8">
         <v>44169</v>
@@ -7797,7 +7797,7 @@
         <v>44170</v>
       </c>
       <c r="C315" s="9">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E315" s="8">
         <v>44170</v>
@@ -7817,7 +7817,7 @@
         <v>44171</v>
       </c>
       <c r="C316" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E316" s="8">
         <v>44171</v>
@@ -7833,6 +7833,12 @@
       </c>
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B317" s="74">
+        <v>44172</v>
+      </c>
+      <c r="C317" s="9">
+        <v>70</v>
+      </c>
       <c r="E317" s="8">
         <v>44172</v>
       </c>
@@ -7844,6 +7850,20 @@
       </c>
       <c r="I317" s="75">
         <v>73.142857142857139</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E318" s="8">
+        <v>44173</v>
+      </c>
+      <c r="F318" s="65">
+        <v>80</v>
+      </c>
+      <c r="H318" s="8">
+        <v>44173</v>
+      </c>
+      <c r="I318" s="75">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7855,7 +7875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10368,6 +10388,14 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B318" s="8">
+        <v>44173</v>
+      </c>
+      <c r="C318" s="62">
+        <v>0.875</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10377,7 +10405,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15970,16 +15998,16 @@
         <v>18</v>
       </c>
       <c r="D286" s="56">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E286" s="56">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F286" s="56">
-        <v>1090.1428571428571</v>
+        <v>1090.7142857142858</v>
       </c>
       <c r="G286" s="56">
-        <v>2.9353950989385402</v>
+        <v>2.9338572364112636</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -15990,16 +16018,16 @@
         <v>43</v>
       </c>
       <c r="D287" s="56">
-        <v>1331</v>
+        <v>1349</v>
       </c>
       <c r="E287" s="56">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="F287" s="56">
-        <v>1087.1428571428571</v>
+        <v>1090.2857142857142</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9697766097240472</v>
+        <v>2.9612159329140462</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -16016,10 +16044,10 @@
         <v>518</v>
       </c>
       <c r="F288" s="56">
-        <v>983.57142857142856</v>
+        <v>986.71428571428578</v>
       </c>
       <c r="G288" s="56">
-        <v>3.1372549019607843</v>
+        <v>3.1272621977703778</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -16030,16 +16058,16 @@
         <v>61</v>
       </c>
       <c r="D289" s="56">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="E289" s="56">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="F289" s="56">
-        <v>1032.8571428571429</v>
+        <v>1037.4285714285716</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3471645919778701</v>
+        <v>3.3324153125860643</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -16050,16 +16078,16 @@
         <v>46</v>
       </c>
       <c r="D290" s="56">
-        <v>1161</v>
+        <v>1170</v>
       </c>
       <c r="E290" s="56">
-        <v>1207</v>
+        <v>1216</v>
       </c>
       <c r="F290" s="56">
-        <v>1026.4285714285713</v>
+        <v>1032.2857142857142</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5490605427974957</v>
+        <v>3.5289233324107396</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -16070,16 +16098,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="E291" s="56">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="F291" s="56">
-        <v>1045.4285714285716</v>
+        <v>1053.4285714285716</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8808417600437282</v>
+        <v>3.8513696772443722</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -16090,16 +16118,16 @@
         <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="E292" s="56">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="F292" s="56">
-        <v>1054.1428571428571</v>
+        <v>1064.1428571428571</v>
       </c>
       <c r="G292" s="56">
-        <v>4.3095270361837645</v>
+        <v>4.269029399919452</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -16116,10 +16144,10 @@
         <v>456</v>
       </c>
       <c r="F293" s="56">
-        <v>1053.1428571428571</v>
+        <v>1062.5714285714287</v>
       </c>
       <c r="G293" s="56">
-        <v>4.2322300596852953</v>
+        <v>4.1946759881688616</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -16127,19 +16155,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D294" s="56">
-        <v>1621</v>
+        <v>1635</v>
       </c>
       <c r="E294" s="56">
-        <v>1685</v>
+        <v>1700</v>
       </c>
       <c r="F294" s="56">
-        <v>1097.5714285714287</v>
+        <v>1106.5714285714287</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3342444357672782</v>
+        <v>4.3119029176349075</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16150,16 +16178,16 @@
         <v>58</v>
       </c>
       <c r="D295" s="56">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="E295" s="56">
-        <v>1427</v>
+        <v>1438</v>
       </c>
       <c r="F295" s="56">
-        <v>1227.4285714285713</v>
+        <v>1238</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1899441340782131</v>
+        <v>4.165705054234941</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16170,16 +16198,16 @@
         <v>75</v>
       </c>
       <c r="D296" s="56">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="E296" s="56">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="F296" s="56">
-        <v>1210.4285714285713</v>
+        <v>1220.4285714285716</v>
       </c>
       <c r="G296" s="56">
-        <v>4.4140210079074711</v>
+        <v>4.3895587030317218</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16190,16 +16218,16 @@
         <v>62</v>
       </c>
       <c r="D297" s="56">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="E297" s="56">
-        <v>1531</v>
+        <v>1547</v>
       </c>
       <c r="F297" s="56">
-        <v>1256.7142857142858</v>
+        <v>1267.7142857142858</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4333295441627829</v>
+        <v>4.4061302681992336</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16210,16 +16238,16 @@
         <v>89</v>
       </c>
       <c r="D298" s="56">
-        <v>1304</v>
+        <v>1325</v>
       </c>
       <c r="E298" s="56">
-        <v>1393</v>
+        <v>1414</v>
       </c>
       <c r="F298" s="56">
-        <v>1263.5714285714284</v>
+        <v>1275.4285714285716</v>
       </c>
       <c r="G298" s="56">
-        <v>4.7032221594120971</v>
+        <v>4.670698924731183</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16230,16 +16258,16 @@
         <v>62</v>
       </c>
       <c r="D299" s="56">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="E299" s="56">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="F299" s="56">
-        <v>1278.7142857142856</v>
+        <v>1290.5714285714284</v>
       </c>
       <c r="G299" s="56">
-        <v>4.7145570327337722</v>
+        <v>4.6823112685410662</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16256,10 +16284,10 @@
         <v>629</v>
       </c>
       <c r="F300" s="56">
-        <v>1303.4285714285716</v>
+        <v>1315.2857142857142</v>
       </c>
       <c r="G300" s="56">
-        <v>5.2060499780797898</v>
+        <v>5.1699793635277516</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16270,16 +16298,16 @@
         <v>63</v>
       </c>
       <c r="D301" s="56">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="E301" s="56">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="F301" s="56">
-        <v>1216.2857142857144</v>
+        <v>1228.2857142857144</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5673009161381248</v>
+        <v>5.5129099790648981</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16290,16 +16318,16 @@
         <v>62</v>
       </c>
       <c r="D302" s="56">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="E302" s="56">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="F302" s="56">
-        <v>1194.1428571428571</v>
+        <v>1205.4285714285713</v>
       </c>
       <c r="G302" s="56">
-        <v>5.7183873669099183</v>
+        <v>5.6648494904005702</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16310,16 +16338,16 @@
         <v>90</v>
       </c>
       <c r="D303" s="56">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="E303" s="56">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="F303" s="56">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="G303" s="56">
-        <v>6.0246853232310889</v>
+        <v>5.9634692149510098</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16330,16 +16358,16 @@
         <v>74</v>
       </c>
       <c r="D304" s="56">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="E304" s="56">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="F304" s="56">
-        <v>1158.2857142857142</v>
+        <v>1169.5714285714284</v>
       </c>
       <c r="G304" s="56">
-        <v>6.2284163788850515</v>
+        <v>6.1683156223280804</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16350,16 +16378,16 @@
         <v>90</v>
       </c>
       <c r="D305" s="56">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="E305" s="56">
-        <v>1377</v>
+        <v>1397</v>
       </c>
       <c r="F305" s="56">
-        <v>1156</v>
+        <v>1167.1428571428571</v>
       </c>
       <c r="G305" s="56">
-        <v>6.2530894710825518</v>
+        <v>6.1933904528763772</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16370,16 +16398,16 @@
         <v>67</v>
       </c>
       <c r="D306" s="56">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="E306" s="56">
-        <v>1103</v>
+        <v>1127</v>
       </c>
       <c r="F306" s="56">
-        <v>1180</v>
+        <v>1192.5714285714287</v>
       </c>
       <c r="G306" s="56">
-        <v>6.1864406779661021</v>
+        <v>6.1212266411116429</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16396,10 +16424,10 @@
         <v>458</v>
       </c>
       <c r="F307" s="56">
-        <v>1155.5714285714287</v>
+        <v>1168.1428571428571</v>
       </c>
       <c r="G307" s="56">
-        <v>6.1441463716157738</v>
+        <v>6.0780237250825486</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16410,16 +16438,16 @@
         <v>27</v>
       </c>
       <c r="D308" s="56">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="E308" s="56">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F308" s="56">
-        <v>1068.8571428571429</v>
+        <v>1080.8571428571429</v>
       </c>
       <c r="G308" s="56">
-        <v>6.1614541566426091</v>
+        <v>6.0930478456251649</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16427,19 +16455,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D309" s="56">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="E309" s="56">
-        <v>1472</v>
+        <v>1484</v>
       </c>
       <c r="F309" s="56">
-        <v>1097.4285714285713</v>
+        <v>1110.2857142857142</v>
       </c>
       <c r="G309" s="56">
-        <v>5.9489716219734454</v>
+        <v>5.8929490478641284</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16450,16 +16478,16 @@
         <v>85</v>
       </c>
       <c r="D310" s="56">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="E310" s="56">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="F310" s="56">
-        <v>1088.7142857142858</v>
+        <v>1100.4285714285716</v>
       </c>
       <c r="G310" s="56">
-        <v>5.9309801863272531</v>
+        <v>5.8808256523432423</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16467,19 +16495,19 @@
         <v>44161</v>
       </c>
       <c r="C311" s="56">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D311" s="56">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="E311" s="56">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="F311" s="56">
-        <v>1082.1428571428571</v>
+        <v>1093.5714285714287</v>
       </c>
       <c r="G311" s="56">
-        <v>6.1386138613861396</v>
+        <v>6.1005878510777256</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16490,16 +16518,16 @@
         <v>76</v>
       </c>
       <c r="D312" s="56">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="E312" s="56">
-        <v>1306</v>
+        <v>1321</v>
       </c>
       <c r="F312" s="56">
-        <v>1072</v>
+        <v>1082.7142857142858</v>
       </c>
       <c r="G312" s="56">
-        <v>6.0101279317697234</v>
+        <v>5.9770418260984286</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16510,16 +16538,16 @@
         <v>59</v>
       </c>
       <c r="D313" s="56">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="E313" s="56">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="F313" s="56">
-        <v>1067.5714285714287</v>
+        <v>1077.4285714285716</v>
       </c>
       <c r="G313" s="56">
-        <v>5.9280074936437837</v>
+        <v>5.9002916998143728</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16536,10 +16564,10 @@
         <v>502</v>
       </c>
       <c r="F314" s="56">
-        <v>1073.8571428571429</v>
+        <v>1083.7142857142858</v>
       </c>
       <c r="G314" s="56">
-        <v>6.0396434747904753</v>
+        <v>6.0110730292644341</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16550,16 +16578,16 @@
         <v>71</v>
       </c>
       <c r="D315" s="56">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E315" s="56">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F315" s="56">
-        <v>1173.4285714285713</v>
+        <v>1181.8571428571427</v>
       </c>
       <c r="G315" s="56">
-        <v>6.0628195763330899</v>
+        <v>6.043756799226399</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.4">
@@ -16570,16 +16598,16 @@
         <v>49</v>
       </c>
       <c r="D316" s="56">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="E316" s="56">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="F316" s="56">
-        <v>1106.7142857142858</v>
+        <v>1117.4285714285713</v>
       </c>
       <c r="G316" s="56">
-        <v>6.3121208209629538</v>
+        <v>6.2643825108667865</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16587,19 +16615,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D317" s="56">
-        <v>983</v>
+        <v>1015</v>
       </c>
       <c r="E317" s="56">
-        <v>1050</v>
+        <v>1084</v>
       </c>
       <c r="F317" s="56">
-        <v>1072.8571428571429</v>
+        <v>1088</v>
       </c>
       <c r="G317" s="56">
-        <v>6.2716378162450068</v>
+        <v>6.223739495798319</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16607,19 +16635,19 @@
         <v>44168</v>
       </c>
       <c r="C318" s="56">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D318" s="56">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E318" s="56">
-        <v>964</v>
+        <v>981</v>
       </c>
       <c r="F318" s="56">
-        <v>1009.1428571428572</v>
+        <v>1025.4285714285713</v>
       </c>
       <c r="G318" s="56">
-        <v>6.1296715741789356</v>
+        <v>6.074115352465868</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16627,19 +16655,19 @@
         <v>44169</v>
       </c>
       <c r="C319" s="56">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D319" s="56">
-        <v>865</v>
+        <v>948</v>
       </c>
       <c r="E319" s="56">
-        <v>921</v>
+        <v>1009</v>
       </c>
       <c r="F319" s="56">
-        <v>954.14285714285711</v>
+        <v>980.85714285714278</v>
       </c>
       <c r="G319" s="56">
-        <v>6.1835604132355142</v>
+        <v>6.1316632682784737</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16647,19 +16675,39 @@
         <v>44170</v>
       </c>
       <c r="C320" s="56">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D320" s="56">
-        <v>1256</v>
+        <v>1325</v>
       </c>
       <c r="E320" s="56">
-        <v>1316</v>
+        <v>1387</v>
       </c>
       <c r="F320" s="56">
-        <v>989.28571428571433</v>
+        <v>1023.5714285714286</v>
       </c>
       <c r="G320" s="56">
-        <v>6.0089556550628345</v>
+        <v>5.9472288147424255</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B321" s="73">
+        <v>44171</v>
+      </c>
+      <c r="C321" s="56">
+        <v>21</v>
+      </c>
+      <c r="D321" s="56">
+        <v>390</v>
+      </c>
+      <c r="E321" s="56">
+        <v>411</v>
+      </c>
+      <c r="F321" s="56">
+        <v>1010.5714285714286</v>
+      </c>
+      <c r="G321" s="56">
+        <v>5.4440045248868776</v>
       </c>
     </row>
   </sheetData>
@@ -16671,7 +16719,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25037,6 +25085,41 @@
       </c>
       <c r="L241" s="57">
         <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B242" s="14">
+        <v>44173</v>
+      </c>
+      <c r="C242" s="15">
+        <v>7599</v>
+      </c>
+      <c r="D242" s="15">
+        <v>332</v>
+      </c>
+      <c r="E242" s="15">
+        <v>223</v>
+      </c>
+      <c r="F242" s="15">
+        <v>181</v>
+      </c>
+      <c r="G242" s="15">
+        <v>0</v>
+      </c>
+      <c r="H242" s="15">
+        <v>3187</v>
+      </c>
+      <c r="I242" s="15">
+        <v>3537</v>
+      </c>
+      <c r="J242" s="15">
+        <v>95</v>
+      </c>
+      <c r="K242" s="15">
+        <v>44</v>
+      </c>
+      <c r="L242" s="57">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -25089,7 +25172,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1075</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25105,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25113,7 +25196,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>989</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25137,7 +25220,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25145,7 +25228,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25161,7 +25244,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25169,7 +25252,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25193,7 +25276,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25201,7 +25284,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25217,7 +25300,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25225,7 +25308,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25233,7 +25316,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25241,7 +25324,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25281,7 +25364,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25313,7 +25396,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25377,7 +25460,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -25525,7 +25608,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7292</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25533,7 +25616,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25549,7 +25632,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7505</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25557,7 +25640,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4796</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25565,7 +25648,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1075</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25573,7 +25656,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1421</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25581,7 +25664,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25655,7 +25738,7 @@
         <v>238</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1737565008667826E-2</v>
+        <v>3.1402559704446498E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25663,10 +25746,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3608481130817449E-2</v>
+        <v>6.3728724106082602E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25674,10 +25757,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1836</v>
+        <v>1859</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24483264435258034</v>
+        <v>0.24528301886792453</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25685,10 +25768,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15935458061074809</v>
+        <v>0.15925583850112152</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25696,10 +25779,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15002000266702226</v>
+        <v>0.15054756564190527</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25707,10 +25790,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14575276703560475</v>
+        <v>0.14526982451510753</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25718,10 +25801,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7878383784504605E-2</v>
+        <v>8.7874389761182212E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25729,10 +25812,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D12" s="44">
-        <v>6.1741565542072274E-2</v>
+        <v>6.148568412719356E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25740,10 +25823,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3605814108547809E-2</v>
+        <v>4.3541364296081277E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25751,10 +25834,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1468195759434592E-2</v>
+        <v>1.1611030478955007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25762,7 +25845,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7499</v>
+        <v>7579</v>
       </c>
       <c r="D15" s="47">
         <v>0.99999999999999989</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月8日時点</t>
+    <t>令和2年12月9日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L318"/>
+  <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7797,7 +7797,7 @@
         <v>44170</v>
       </c>
       <c r="C315" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E315" s="8">
         <v>44170</v>
@@ -7817,7 +7817,7 @@
         <v>44171</v>
       </c>
       <c r="C316" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E316" s="8">
         <v>44171</v>
@@ -7837,7 +7837,7 @@
         <v>44172</v>
       </c>
       <c r="C317" s="9">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E317" s="8">
         <v>44172</v>
@@ -7853,6 +7853,12 @@
       </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B318" s="74">
+        <v>44173</v>
+      </c>
+      <c r="C318" s="9">
+        <v>74</v>
+      </c>
       <c r="E318" s="8">
         <v>44173</v>
       </c>
@@ -7864,6 +7870,20 @@
       </c>
       <c r="I318" s="75">
         <v>74</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E319" s="8">
+        <v>44174</v>
+      </c>
+      <c r="F319" s="65">
+        <v>93</v>
+      </c>
+      <c r="H319" s="8">
+        <v>44174</v>
+      </c>
+      <c r="I319" s="75">
+        <v>76.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7875,7 +7895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E318"/>
+  <dimension ref="A1:E319"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10396,6 +10416,14 @@
         <v>0.875</v>
       </c>
     </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B319" s="8">
+        <v>44174</v>
+      </c>
+      <c r="C319" s="62">
+        <v>0.89915966386554624</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10405,7 +10433,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15998,16 +16026,16 @@
         <v>18</v>
       </c>
       <c r="D286" s="56">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="E286" s="56">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F286" s="56">
-        <v>1090.7142857142858</v>
+        <v>1092.2857142857142</v>
       </c>
       <c r="G286" s="56">
-        <v>2.9338572364112636</v>
+        <v>2.9296364111953963</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.4">
@@ -16018,16 +16046,16 @@
         <v>43</v>
       </c>
       <c r="D287" s="56">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="E287" s="56">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="F287" s="56">
-        <v>1090.2857142857142</v>
+        <v>1093.5714285714284</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9612159329140462</v>
+        <v>2.9523187459177005</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -16044,10 +16072,10 @@
         <v>518</v>
       </c>
       <c r="F288" s="56">
-        <v>986.71428571428578</v>
+        <v>990</v>
       </c>
       <c r="G288" s="56">
-        <v>3.1272621977703778</v>
+        <v>3.116883116883117</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -16058,16 +16086,16 @@
         <v>61</v>
       </c>
       <c r="D289" s="56">
-        <v>1592</v>
+        <v>1605</v>
       </c>
       <c r="E289" s="56">
-        <v>1653</v>
+        <v>1666</v>
       </c>
       <c r="F289" s="56">
-        <v>1037.4285714285716</v>
+        <v>1042.5714285714287</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3324153125860643</v>
+        <v>3.3159769799945185</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -16078,16 +16106,16 @@
         <v>46</v>
       </c>
       <c r="D290" s="56">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="E290" s="56">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="F290" s="56">
-        <v>1032.2857142857142</v>
+        <v>1038.1428571428571</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5289233324107396</v>
+        <v>3.5090133480115595</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -16098,16 +16126,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1297</v>
+        <v>1314</v>
       </c>
       <c r="E291" s="56">
-        <v>1360</v>
+        <v>1377</v>
       </c>
       <c r="F291" s="56">
-        <v>1053.4285714285716</v>
+        <v>1061.7142857142858</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8513696772443722</v>
+        <v>3.8213132400430569</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -16118,16 +16146,16 @@
         <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="E292" s="56">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="F292" s="56">
-        <v>1064.1428571428571</v>
+        <v>1073.5714285714284</v>
       </c>
       <c r="G292" s="56">
-        <v>4.269029399919452</v>
+        <v>4.2315369261477045</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -16138,16 +16166,16 @@
         <v>12</v>
       </c>
       <c r="D293" s="56">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="E293" s="56">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F293" s="56">
-        <v>1062.5714285714287</v>
+        <v>1072.2857142857144</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1946759881688616</v>
+        <v>4.1566746602717828</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -16155,19 +16183,19 @@
         <v>44144</v>
       </c>
       <c r="C294" s="56">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D294" s="56">
-        <v>1635</v>
+        <v>1668</v>
       </c>
       <c r="E294" s="56">
-        <v>1700</v>
+        <v>1734</v>
       </c>
       <c r="F294" s="56">
-        <v>1106.5714285714287</v>
+        <v>1119.4285714285716</v>
       </c>
       <c r="G294" s="56">
-        <v>4.3119029176349075</v>
+        <v>4.2751403777437469</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16175,19 +16203,19 @@
         <v>44145</v>
       </c>
       <c r="C295" s="56">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D295" s="56">
-        <v>1380</v>
+        <v>1418</v>
       </c>
       <c r="E295" s="56">
-        <v>1438</v>
+        <v>1478</v>
       </c>
       <c r="F295" s="56">
-        <v>1238</v>
+        <v>1256.5714285714287</v>
       </c>
       <c r="G295" s="56">
-        <v>4.165705054234941</v>
+        <v>4.1382446566621187</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16195,19 +16223,19 @@
         <v>44146</v>
       </c>
       <c r="C296" s="56">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D296" s="56">
-        <v>1455</v>
+        <v>1488</v>
       </c>
       <c r="E296" s="56">
-        <v>1530</v>
+        <v>1564</v>
       </c>
       <c r="F296" s="56">
-        <v>1220.4285714285716</v>
+        <v>1242</v>
       </c>
       <c r="G296" s="56">
-        <v>4.3895587030317218</v>
+        <v>4.3593282723717506</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16215,19 +16243,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D297" s="56">
-        <v>1485</v>
+        <v>1527</v>
       </c>
       <c r="E297" s="56">
-        <v>1547</v>
+        <v>1591</v>
       </c>
       <c r="F297" s="56">
-        <v>1267.7142857142858</v>
+        <v>1294.8571428571429</v>
       </c>
       <c r="G297" s="56">
-        <v>4.4061302681992336</v>
+        <v>4.3799646954986757</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16235,19 +16263,19 @@
         <v>44148</v>
       </c>
       <c r="C298" s="56">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D298" s="56">
-        <v>1325</v>
+        <v>1397</v>
       </c>
       <c r="E298" s="56">
-        <v>1414</v>
+        <v>1493</v>
       </c>
       <c r="F298" s="56">
-        <v>1275.4285714285716</v>
+        <v>1311.4285714285713</v>
       </c>
       <c r="G298" s="56">
-        <v>4.670698924731183</v>
+        <v>4.6840958605664493</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16255,19 +16283,19 @@
         <v>44149</v>
       </c>
       <c r="C299" s="56">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D299" s="56">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="E299" s="56">
-        <v>949</v>
+        <v>992</v>
       </c>
       <c r="F299" s="56">
-        <v>1290.5714285714284</v>
+        <v>1331.5714285714284</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6823112685410662</v>
+        <v>4.688338161141508</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16275,19 +16303,19 @@
         <v>44150</v>
       </c>
       <c r="C300" s="56">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D300" s="56">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="E300" s="56">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="F300" s="56">
-        <v>1315.2857142857142</v>
+        <v>1357.5714285714287</v>
       </c>
       <c r="G300" s="56">
-        <v>5.1699793635277516</v>
+        <v>5.1457434494370204</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16295,19 +16323,19 @@
         <v>44151</v>
       </c>
       <c r="C301" s="56">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D301" s="56">
-        <v>1028</v>
+        <v>1573</v>
       </c>
       <c r="E301" s="56">
-        <v>1091</v>
+        <v>1647</v>
       </c>
       <c r="F301" s="56">
-        <v>1228.2857142857144</v>
+        <v>1345.1428571428571</v>
       </c>
       <c r="G301" s="56">
-        <v>5.5129099790648981</v>
+        <v>5.2782497875955823</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16315,19 +16343,19 @@
         <v>44152</v>
       </c>
       <c r="C302" s="56">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D302" s="56">
-        <v>1216</v>
+        <v>1667</v>
       </c>
       <c r="E302" s="56">
-        <v>1278</v>
+        <v>1743</v>
       </c>
       <c r="F302" s="56">
-        <v>1205.4285714285713</v>
+        <v>1383</v>
       </c>
       <c r="G302" s="56">
-        <v>5.6648494904005702</v>
+        <v>5.299039355438488</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16335,19 +16363,19 @@
         <v>44153</v>
       </c>
       <c r="C303" s="56">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D303" s="56">
-        <v>1269</v>
+        <v>1734</v>
       </c>
       <c r="E303" s="56">
-        <v>1359</v>
+        <v>1837</v>
       </c>
       <c r="F303" s="56">
-        <v>1181</v>
+        <v>1422</v>
       </c>
       <c r="G303" s="56">
-        <v>5.9634692149510098</v>
+        <v>5.4249547920433994</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16355,19 +16383,19 @@
         <v>44154</v>
       </c>
       <c r="C304" s="56">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D304" s="56">
-        <v>1393</v>
+        <v>1977</v>
       </c>
       <c r="E304" s="56">
-        <v>1467</v>
+        <v>2062</v>
       </c>
       <c r="F304" s="56">
-        <v>1169.5714285714284</v>
+        <v>1489.2857142857142</v>
       </c>
       <c r="G304" s="56">
-        <v>6.1683156223280804</v>
+        <v>5.3812949640287764</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16375,19 +16403,19 @@
         <v>44155</v>
       </c>
       <c r="C305" s="56">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D305" s="56">
-        <v>1307</v>
+        <v>1802</v>
       </c>
       <c r="E305" s="56">
-        <v>1397</v>
+        <v>1909</v>
       </c>
       <c r="F305" s="56">
-        <v>1167.1428571428571</v>
+        <v>1548.7142857142858</v>
       </c>
       <c r="G305" s="56">
-        <v>6.1933904528763772</v>
+        <v>5.2762660271192692</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16395,19 +16423,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D306" s="56">
-        <v>1060</v>
+        <v>1359</v>
       </c>
       <c r="E306" s="56">
-        <v>1127</v>
+        <v>1445</v>
       </c>
       <c r="F306" s="56">
-        <v>1192.5714285714287</v>
+        <v>1613.4285714285713</v>
       </c>
       <c r="G306" s="56">
-        <v>6.1212266411116429</v>
+        <v>5.2682840446254655</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16415,19 +16443,19 @@
         <v>44157</v>
       </c>
       <c r="C307" s="56">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D307" s="56">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="E307" s="56">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="F307" s="56">
-        <v>1168.1428571428571</v>
+        <v>1599.8571428571429</v>
       </c>
       <c r="G307" s="56">
-        <v>6.0780237250825486</v>
+        <v>5.2415394231627825</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16435,19 +16463,19 @@
         <v>44158</v>
       </c>
       <c r="C308" s="56">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D308" s="56">
-        <v>453</v>
+        <v>632</v>
       </c>
       <c r="E308" s="56">
-        <v>480</v>
+        <v>661</v>
       </c>
       <c r="F308" s="56">
-        <v>1080.8571428571429</v>
+        <v>1459</v>
       </c>
       <c r="G308" s="56">
-        <v>6.0930478456251649</v>
+        <v>5.3069617154606874</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16455,19 +16483,19 @@
         <v>44159</v>
       </c>
       <c r="C309" s="56">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D309" s="56">
-        <v>1425</v>
+        <v>2105</v>
       </c>
       <c r="E309" s="56">
-        <v>1484</v>
+        <v>2187</v>
       </c>
       <c r="F309" s="56">
-        <v>1110.2857142857142</v>
+        <v>1522.4285714285713</v>
       </c>
       <c r="G309" s="56">
-        <v>5.8929490478641284</v>
+        <v>5.1421600825748346</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16475,19 +16503,19 @@
         <v>44160</v>
       </c>
       <c r="C310" s="56">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D310" s="56">
-        <v>1205</v>
+        <v>1811</v>
       </c>
       <c r="E310" s="56">
-        <v>1290</v>
+        <v>1923</v>
       </c>
       <c r="F310" s="56">
-        <v>1100.4285714285716</v>
+        <v>1534.7142857142858</v>
       </c>
       <c r="G310" s="56">
-        <v>5.8808256523432423</v>
+        <v>5.1847714791026709</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16495,19 +16523,19 @@
         <v>44161</v>
       </c>
       <c r="C311" s="56">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D311" s="56">
-        <v>1331</v>
+        <v>1923</v>
       </c>
       <c r="E311" s="56">
-        <v>1419</v>
+        <v>2030</v>
       </c>
       <c r="F311" s="56">
-        <v>1093.5714285714287</v>
+        <v>1530.1428571428571</v>
       </c>
       <c r="G311" s="56">
-        <v>6.1005878510777256</v>
+        <v>5.4056577350387451</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16515,19 +16543,19 @@
         <v>44162</v>
       </c>
       <c r="C312" s="56">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D312" s="56">
-        <v>1245</v>
+        <v>1713</v>
       </c>
       <c r="E312" s="56">
-        <v>1321</v>
+        <v>1795</v>
       </c>
       <c r="F312" s="56">
-        <v>1082.7142857142858</v>
+        <v>1513.8571428571429</v>
       </c>
       <c r="G312" s="56">
-        <v>5.9770418260984286</v>
+        <v>5.2278946871756151</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16535,19 +16563,19 @@
         <v>44163</v>
       </c>
       <c r="C313" s="56">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D313" s="56">
-        <v>1031</v>
+        <v>1239</v>
       </c>
       <c r="E313" s="56">
-        <v>1090</v>
+        <v>1310</v>
       </c>
       <c r="F313" s="56">
-        <v>1077.4285714285716</v>
+        <v>1494.5714285714287</v>
       </c>
       <c r="G313" s="56">
-        <v>5.9002916998143728</v>
+        <v>5.1519785891798886</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16558,16 +16586,16 @@
         <v>62</v>
       </c>
       <c r="D314" s="56">
-        <v>440</v>
+        <v>589</v>
       </c>
       <c r="E314" s="56">
-        <v>502</v>
+        <v>651</v>
       </c>
       <c r="F314" s="56">
-        <v>1083.7142857142858</v>
+        <v>1508.1428571428571</v>
       </c>
       <c r="G314" s="56">
-        <v>6.0110730292644341</v>
+        <v>5.1624514540115563</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16575,19 +16603,19 @@
         <v>44165</v>
       </c>
       <c r="C315" s="56">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D315" s="56">
-        <v>1096</v>
+        <v>1725</v>
       </c>
       <c r="E315" s="56">
-        <v>1167</v>
+        <v>1808</v>
       </c>
       <c r="F315" s="56">
-        <v>1181.8571428571427</v>
+        <v>1672</v>
       </c>
       <c r="G315" s="56">
-        <v>6.043756799226399</v>
+        <v>5.1179084073820915</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.4">
@@ -16595,19 +16623,19 @@
         <v>44166</v>
       </c>
       <c r="C316" s="56">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D316" s="56">
-        <v>984</v>
+        <v>1570</v>
       </c>
       <c r="E316" s="56">
-        <v>1033</v>
+        <v>1630</v>
       </c>
       <c r="F316" s="56">
-        <v>1117.4285714285713</v>
+        <v>1592.4285714285713</v>
       </c>
       <c r="G316" s="56">
-        <v>6.2643825108667865</v>
+        <v>5.1762806136180144</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16615,19 +16643,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D317" s="56">
-        <v>1015</v>
+        <v>1503</v>
       </c>
       <c r="E317" s="56">
-        <v>1084</v>
+        <v>1580</v>
       </c>
       <c r="F317" s="56">
-        <v>1088</v>
+        <v>1543.4285714285713</v>
       </c>
       <c r="G317" s="56">
-        <v>6.223739495798319</v>
+        <v>5.0166604961125518</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16635,19 +16663,19 @@
         <v>44168</v>
       </c>
       <c r="C318" s="56">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D318" s="56">
-        <v>931</v>
+        <v>1510</v>
       </c>
       <c r="E318" s="56">
-        <v>981</v>
+        <v>1568</v>
       </c>
       <c r="F318" s="56">
-        <v>1025.4285714285713</v>
+        <v>1477.4285714285713</v>
       </c>
       <c r="G318" s="56">
-        <v>6.074115352465868</v>
+        <v>4.7669696383678213</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16655,19 +16683,19 @@
         <v>44169</v>
       </c>
       <c r="C319" s="56">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D319" s="56">
-        <v>948</v>
+        <v>1496</v>
       </c>
       <c r="E319" s="56">
-        <v>1009</v>
+        <v>1576</v>
       </c>
       <c r="F319" s="56">
-        <v>980.85714285714278</v>
+        <v>1446.1428571428571</v>
       </c>
       <c r="G319" s="56">
-        <v>6.1316632682784737</v>
+        <v>4.8503408080608512</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16675,19 +16703,19 @@
         <v>44170</v>
       </c>
       <c r="C320" s="56">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D320" s="56">
-        <v>1325</v>
+        <v>1680</v>
       </c>
       <c r="E320" s="56">
-        <v>1387</v>
+        <v>1758</v>
       </c>
       <c r="F320" s="56">
-        <v>1023.5714285714286</v>
+        <v>1510.4285714285713</v>
       </c>
       <c r="G320" s="56">
-        <v>5.9472288147424255</v>
+        <v>4.7299214833033769</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.4">
@@ -16698,16 +16726,36 @@
         <v>21</v>
       </c>
       <c r="D321" s="56">
-        <v>390</v>
+        <v>572</v>
       </c>
       <c r="E321" s="56">
-        <v>411</v>
+        <v>593</v>
       </c>
       <c r="F321" s="56">
-        <v>1010.5714285714286</v>
+        <v>1502.1428571428573</v>
       </c>
       <c r="G321" s="56">
-        <v>5.4440045248868776</v>
+        <v>4.3660230191191856</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B322" s="73">
+        <v>44172</v>
+      </c>
+      <c r="C322" s="56">
+        <v>71</v>
+      </c>
+      <c r="D322" s="56">
+        <v>1193</v>
+      </c>
+      <c r="E322" s="56">
+        <v>1264</v>
+      </c>
+      <c r="F322" s="56">
+        <v>1424.4285714285716</v>
+      </c>
+      <c r="G322" s="56">
+        <v>4.4839000902798674</v>
       </c>
     </row>
   </sheetData>
@@ -16719,7 +16767,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:L243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25119,6 +25167,41 @@
         <v>44</v>
       </c>
       <c r="L242" s="57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B243" s="14">
+        <v>44174</v>
+      </c>
+      <c r="C243" s="15">
+        <v>7692</v>
+      </c>
+      <c r="D243" s="15">
+        <v>319</v>
+      </c>
+      <c r="E243" s="15">
+        <v>217</v>
+      </c>
+      <c r="F243" s="15">
+        <v>192</v>
+      </c>
+      <c r="G243" s="15">
+        <v>0</v>
+      </c>
+      <c r="H243" s="15">
+        <v>3231</v>
+      </c>
+      <c r="I243" s="15">
+        <v>3600</v>
+      </c>
+      <c r="J243" s="15">
+        <v>95</v>
+      </c>
+      <c r="K243" s="15">
+        <v>38</v>
+      </c>
+      <c r="L243" s="57">
         <v>15</v>
       </c>
     </row>
@@ -25172,7 +25255,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25188,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25196,7 +25279,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1007</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25212,7 +25295,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -25220,7 +25303,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>835</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25228,7 +25311,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25260,7 +25343,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -25276,7 +25359,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25284,7 +25367,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25300,7 +25383,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25308,7 +25391,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25316,7 +25399,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25324,7 +25407,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25340,7 +25423,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25396,7 +25479,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25460,7 +25543,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -25524,7 +25607,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
@@ -25608,7 +25691,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7367</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25632,7 +25715,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7585</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25640,7 +25723,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4848</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25648,7 +25731,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25656,7 +25739,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1434</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25735,10 +25818,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1402559704446498E-2</v>
+        <v>3.1673618352450472E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25746,10 +25829,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D6" s="44">
-        <v>6.3728724106082602E-2</v>
+        <v>6.4781021897810223E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25757,10 +25840,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1859</v>
+        <v>1872</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24528301886792453</v>
+        <v>0.24400417101147029</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25768,10 +25851,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1207</v>
+        <v>1216</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15925583850112152</v>
+        <v>0.15849843587069865</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25779,10 +25862,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15054756564190527</v>
+        <v>0.15080813347236705</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25790,10 +25873,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1101</v>
+        <v>1123</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14526982451510753</v>
+        <v>0.14637643378519291</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25801,10 +25884,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7874389761182212E-2</v>
+        <v>8.7721584984358711E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25812,10 +25895,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D12" s="44">
-        <v>6.148568412719356E-2</v>
+        <v>6.1522419186652764E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25823,10 +25906,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3541364296081277E-2</v>
+        <v>4.3143899895724716E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25837,7 +25920,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1611030478955007E-2</v>
+        <v>1.1470281543274244E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25845,10 +25928,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7579</v>
+        <v>7672</v>
       </c>
       <c r="D15" s="47">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月9日時点</t>
+    <t>令和2年12月10日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -738,10 +738,10 @@
     <rPh sb="6" eb="7">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="8" eb="9">
+    <rPh sb="9" eb="10">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="10" eb="12">
       <t>ジテン</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L319"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7837,7 +7837,7 @@
         <v>44172</v>
       </c>
       <c r="C317" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E317" s="8">
         <v>44172</v>
@@ -7857,7 +7857,7 @@
         <v>44173</v>
       </c>
       <c r="C318" s="9">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E318" s="8">
         <v>44173</v>
@@ -7873,17 +7873,37 @@
       </c>
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B319" s="74">
+        <v>44174</v>
+      </c>
+      <c r="C319" s="9">
+        <v>120</v>
+      </c>
       <c r="E319" s="8">
         <v>44174</v>
       </c>
       <c r="F319" s="65">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H319" s="8">
         <v>44174</v>
       </c>
       <c r="I319" s="75">
-        <v>76.428571428571431</v>
+        <v>76.285714285714292</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E320" s="8">
+        <v>44175</v>
+      </c>
+      <c r="F320" s="65">
+        <v>151</v>
+      </c>
+      <c r="H320" s="8">
+        <v>44175</v>
+      </c>
+      <c r="I320" s="75">
+        <v>86.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -7895,7 +7915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10421,7 +10441,15 @@
         <v>44174</v>
       </c>
       <c r="C319" s="62">
-        <v>0.89915966386554624</v>
+        <v>0.89747899159663869</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B320" s="8">
+        <v>44175</v>
+      </c>
+      <c r="C320" s="62">
+        <v>1.0134453781512605</v>
       </c>
     </row>
   </sheetData>
@@ -10433,7 +10461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16046,16 +16074,16 @@
         <v>43</v>
       </c>
       <c r="D287" s="56">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E287" s="56">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="F287" s="56">
-        <v>1093.5714285714284</v>
+        <v>1093.7142857142856</v>
       </c>
       <c r="G287" s="56">
-        <v>2.9523187459177005</v>
+        <v>2.9519331243469171</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.4">
@@ -16066,16 +16094,16 @@
         <v>31</v>
       </c>
       <c r="D288" s="56">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E288" s="56">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F288" s="56">
-        <v>990</v>
+        <v>990.28571428571433</v>
       </c>
       <c r="G288" s="56">
-        <v>3.116883116883117</v>
+        <v>3.1159838430467395</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.4">
@@ -16092,10 +16120,10 @@
         <v>1666</v>
       </c>
       <c r="F289" s="56">
-        <v>1042.5714285714287</v>
+        <v>1042.8571428571429</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3159769799945185</v>
+        <v>3.3150684931506844</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -16112,10 +16140,10 @@
         <v>1221</v>
       </c>
       <c r="F290" s="56">
-        <v>1038.1428571428571</v>
+        <v>1038.4285714285713</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5090133480115595</v>
+        <v>3.5080478745357002</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -16126,16 +16154,16 @@
         <v>63</v>
       </c>
       <c r="D291" s="56">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E291" s="56">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F291" s="56">
-        <v>1061.7142857142858</v>
+        <v>1062.2857142857142</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8213132400430569</v>
+        <v>3.8192576654115116</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -16146,16 +16174,16 @@
         <v>56</v>
       </c>
       <c r="D292" s="56">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E292" s="56">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F292" s="56">
-        <v>1073.5714285714284</v>
+        <v>1074.4285714285713</v>
       </c>
       <c r="G292" s="56">
-        <v>4.2315369261477045</v>
+        <v>4.228161148783407</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -16172,10 +16200,10 @@
         <v>469</v>
       </c>
       <c r="F293" s="56">
-        <v>1072.2857142857144</v>
+        <v>1073.1428571428573</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1566746602717828</v>
+        <v>4.1533546325878596</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -16186,16 +16214,16 @@
         <v>66</v>
       </c>
       <c r="D294" s="56">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="E294" s="56">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="F294" s="56">
-        <v>1119.4285714285716</v>
+        <v>1120.4285714285716</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2751403777437469</v>
+        <v>4.2713247481830932</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16206,16 +16234,16 @@
         <v>60</v>
       </c>
       <c r="D295" s="56">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E295" s="56">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F295" s="56">
-        <v>1256.5714285714287</v>
+        <v>1257.7142857142858</v>
       </c>
       <c r="G295" s="56">
-        <v>4.1382446566621187</v>
+        <v>4.134484325306679</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16226,16 +16254,16 @@
         <v>76</v>
       </c>
       <c r="D296" s="56">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="E296" s="56">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="F296" s="56">
-        <v>1242</v>
+        <v>1243.4285714285713</v>
       </c>
       <c r="G296" s="56">
-        <v>4.3593282723717506</v>
+        <v>4.3543198529411766</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16243,19 +16271,19 @@
         <v>44147</v>
       </c>
       <c r="C297" s="56">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D297" s="56">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="E297" s="56">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="F297" s="56">
-        <v>1294.8571428571429</v>
+        <v>1296.8571428571429</v>
       </c>
       <c r="G297" s="56">
-        <v>4.3799646954986757</v>
+        <v>4.3842256003525</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16266,16 +16294,16 @@
         <v>96</v>
       </c>
       <c r="D298" s="56">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="E298" s="56">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="F298" s="56">
-        <v>1311.4285714285713</v>
+        <v>1313.5714285714287</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6840958605664493</v>
+        <v>4.6873300706905923</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16286,16 +16314,16 @@
         <v>63</v>
       </c>
       <c r="D299" s="56">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E299" s="56">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F299" s="56">
-        <v>1331.5714285714284</v>
+        <v>1333.5714285714287</v>
       </c>
       <c r="G299" s="56">
-        <v>4.688338161141508</v>
+        <v>4.6920192822710227</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16312,10 +16340,10 @@
         <v>651</v>
       </c>
       <c r="F300" s="56">
-        <v>1357.5714285714287</v>
+        <v>1359.5714285714287</v>
       </c>
       <c r="G300" s="56">
-        <v>5.1457434494370204</v>
+        <v>5.1486813071346011</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16326,16 +16354,16 @@
         <v>74</v>
       </c>
       <c r="D301" s="56">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="E301" s="56">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="F301" s="56">
-        <v>1345.1428571428571</v>
+        <v>1347.5714285714284</v>
       </c>
       <c r="G301" s="56">
-        <v>5.2782497875955823</v>
+        <v>5.2793384925262377</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16346,16 +16374,16 @@
         <v>76</v>
       </c>
       <c r="D302" s="56">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="E302" s="56">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="F302" s="56">
-        <v>1383</v>
+        <v>1385.4285714285713</v>
       </c>
       <c r="G302" s="56">
-        <v>5.299039355438488</v>
+        <v>5.3000618684264804</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16366,16 +16394,16 @@
         <v>103</v>
       </c>
       <c r="D303" s="56">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="E303" s="56">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="F303" s="56">
-        <v>1422</v>
+        <v>1424.5714285714284</v>
       </c>
       <c r="G303" s="56">
-        <v>5.4249547920433994</v>
+        <v>5.4251905334937822</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16386,16 +16414,16 @@
         <v>85</v>
       </c>
       <c r="D304" s="56">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="E304" s="56">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="F304" s="56">
-        <v>1489.2857142857142</v>
+        <v>1491.5714285714284</v>
       </c>
       <c r="G304" s="56">
-        <v>5.3812949640287764</v>
+        <v>5.373048558567187</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16406,16 +16434,16 @@
         <v>107</v>
       </c>
       <c r="D305" s="56">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="E305" s="56">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="F305" s="56">
-        <v>1548.7142857142858</v>
+        <v>1550.8571428571429</v>
       </c>
       <c r="G305" s="56">
-        <v>5.2762660271192692</v>
+        <v>5.2689756816506996</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16423,19 +16451,19 @@
         <v>44156</v>
       </c>
       <c r="C306" s="56">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D306" s="56">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="E306" s="56">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="F306" s="56">
-        <v>1613.4285714285713</v>
+        <v>1616</v>
       </c>
       <c r="G306" s="56">
-        <v>5.2682840446254655</v>
+        <v>5.2687411598302685</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16446,16 +16474,16 @@
         <v>56</v>
       </c>
       <c r="D307" s="56">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E307" s="56">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F307" s="56">
-        <v>1599.8571428571429</v>
+        <v>1602.5714285714287</v>
       </c>
       <c r="G307" s="56">
-        <v>5.2415394231627825</v>
+        <v>5.241576038509538</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16466,16 +16494,16 @@
         <v>29</v>
       </c>
       <c r="D308" s="56">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E308" s="56">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F308" s="56">
-        <v>1459</v>
+        <v>1461.2857142857144</v>
       </c>
       <c r="G308" s="56">
-        <v>5.3069617154606874</v>
+        <v>5.3084367973408941</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16486,16 +16514,16 @@
         <v>82</v>
       </c>
       <c r="D309" s="56">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="E309" s="56">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="F309" s="56">
-        <v>1522.4285714285713</v>
+        <v>1524.7142857142856</v>
       </c>
       <c r="G309" s="56">
-        <v>5.1421600825748346</v>
+        <v>5.1438208563665322</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16506,16 +16534,16 @@
         <v>112</v>
       </c>
       <c r="D310" s="56">
-        <v>1811</v>
+        <v>1818</v>
       </c>
       <c r="E310" s="56">
-        <v>1923</v>
+        <v>1930</v>
       </c>
       <c r="F310" s="56">
-        <v>1534.7142857142858</v>
+        <v>1537.5714285714287</v>
       </c>
       <c r="G310" s="56">
-        <v>5.1847714791026709</v>
+        <v>5.1844281334200488</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16526,16 +16554,16 @@
         <v>107</v>
       </c>
       <c r="D311" s="56">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E311" s="56">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="F311" s="56">
-        <v>1530.1428571428571</v>
+        <v>1533</v>
       </c>
       <c r="G311" s="56">
-        <v>5.4056577350387451</v>
+        <v>5.4049016867020789</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16546,16 +16574,16 @@
         <v>82</v>
       </c>
       <c r="D312" s="56">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="E312" s="56">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="F312" s="56">
-        <v>1513.8571428571429</v>
+        <v>1516.7142857142856</v>
       </c>
       <c r="G312" s="56">
-        <v>5.2278946871756151</v>
+        <v>5.2274653857021756</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16566,16 +16594,16 @@
         <v>71</v>
       </c>
       <c r="D313" s="56">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="E313" s="56">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="F313" s="56">
-        <v>1494.5714285714287</v>
+        <v>1497.2857142857142</v>
       </c>
       <c r="G313" s="56">
-        <v>5.1519785891798886</v>
+        <v>5.1426390611582864</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16592,10 +16620,10 @@
         <v>651</v>
       </c>
       <c r="F314" s="56">
-        <v>1508.1428571428571</v>
+        <v>1510.7142857142858</v>
       </c>
       <c r="G314" s="56">
-        <v>5.1624514540115563</v>
+        <v>5.1536643026004727</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16606,16 +16634,16 @@
         <v>83</v>
       </c>
       <c r="D315" s="56">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="E315" s="56">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F315" s="56">
-        <v>1672</v>
+        <v>1674.4285714285716</v>
       </c>
       <c r="G315" s="56">
-        <v>5.1179084073820915</v>
+        <v>5.1104854534596029</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.4">
@@ -16626,16 +16654,16 @@
         <v>60</v>
       </c>
       <c r="D316" s="56">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="E316" s="56">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="F316" s="56">
-        <v>1592.4285714285713</v>
+        <v>1594.8571428571427</v>
       </c>
       <c r="G316" s="56">
-        <v>5.1762806136180144</v>
+        <v>5.1683984235041205</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16643,19 +16671,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D317" s="56">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="E317" s="56">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="F317" s="56">
-        <v>1543.4285714285713</v>
+        <v>1545.8571428571429</v>
       </c>
       <c r="G317" s="56">
-        <v>5.0166604961125518</v>
+        <v>5.018020515663987</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16666,16 +16694,16 @@
         <v>58</v>
       </c>
       <c r="D318" s="56">
-        <v>1510</v>
+        <v>1533</v>
       </c>
       <c r="E318" s="56">
-        <v>1568</v>
+        <v>1591</v>
       </c>
       <c r="F318" s="56">
-        <v>1477.4285714285713</v>
+        <v>1482.8571428571429</v>
       </c>
       <c r="G318" s="56">
-        <v>4.7669696383678213</v>
+        <v>4.759152215799614</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16683,19 +16711,19 @@
         <v>44169</v>
       </c>
       <c r="C319" s="56">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D319" s="56">
-        <v>1496</v>
+        <v>1516</v>
       </c>
       <c r="E319" s="56">
-        <v>1576</v>
+        <v>1600</v>
       </c>
       <c r="F319" s="56">
-        <v>1446.1428571428571</v>
+        <v>1454.7142857142858</v>
       </c>
       <c r="G319" s="56">
-        <v>4.8503408080608512</v>
+        <v>4.8708632033781791</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16703,19 +16731,19 @@
         <v>44170</v>
       </c>
       <c r="C320" s="56">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D320" s="56">
-        <v>1680</v>
+        <v>1692</v>
       </c>
       <c r="E320" s="56">
-        <v>1758</v>
+        <v>1772</v>
       </c>
       <c r="F320" s="56">
-        <v>1510.4285714285713</v>
+        <v>1520.5714285714284</v>
       </c>
       <c r="G320" s="56">
-        <v>4.7299214833033769</v>
+        <v>4.7641420785566631</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.4">
@@ -16732,10 +16760,10 @@
         <v>593</v>
       </c>
       <c r="F321" s="56">
-        <v>1502.1428571428573</v>
+        <v>1512.2857142857144</v>
       </c>
       <c r="G321" s="56">
-        <v>4.3660230191191856</v>
+        <v>4.4028722600151173</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.4">
@@ -16743,19 +16771,39 @@
         <v>44172</v>
       </c>
       <c r="C322" s="56">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D322" s="56">
-        <v>1193</v>
+        <v>1252</v>
       </c>
       <c r="E322" s="56">
-        <v>1264</v>
+        <v>1330</v>
       </c>
       <c r="F322" s="56">
-        <v>1424.4285714285716</v>
+        <v>1443.8571428571429</v>
       </c>
       <c r="G322" s="56">
-        <v>4.4839000902798674</v>
+        <v>4.5620979713013359</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B323" s="73">
+        <v>44173</v>
+      </c>
+      <c r="C323" s="56">
+        <v>72</v>
+      </c>
+      <c r="D323" s="56">
+        <v>1048</v>
+      </c>
+      <c r="E323" s="56">
+        <v>1120</v>
+      </c>
+      <c r="F323" s="56">
+        <v>1370.7142857142858</v>
+      </c>
+      <c r="G323" s="56">
+        <v>4.9306786198269572</v>
       </c>
     </row>
   </sheetData>
@@ -16767,7 +16815,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L243"/>
+  <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25203,6 +25251,41 @@
       </c>
       <c r="L243" s="57">
         <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B244" s="14">
+        <v>44175</v>
+      </c>
+      <c r="C244" s="15">
+        <v>7842</v>
+      </c>
+      <c r="D244" s="15">
+        <v>322</v>
+      </c>
+      <c r="E244" s="15">
+        <v>288</v>
+      </c>
+      <c r="F244" s="15">
+        <v>203</v>
+      </c>
+      <c r="G244" s="15">
+        <v>0</v>
+      </c>
+      <c r="H244" s="15">
+        <v>3255</v>
+      </c>
+      <c r="I244" s="15">
+        <v>3636</v>
+      </c>
+      <c r="J244" s="15">
+        <v>95</v>
+      </c>
+      <c r="K244" s="15">
+        <v>43</v>
+      </c>
+      <c r="L244" s="57">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -25255,7 +25338,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1093</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25271,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25279,7 +25362,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1023</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25295,7 +25378,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -25303,7 +25386,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>851</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25311,7 +25394,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25327,7 +25410,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25335,7 +25418,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25359,7 +25442,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25367,7 +25450,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25383,7 +25466,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25391,7 +25474,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25399,7 +25482,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25407,7 +25490,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25423,7 +25506,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25439,7 +25522,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
@@ -25447,7 +25530,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25455,7 +25538,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -25471,7 +25554,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -25479,7 +25562,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25487,7 +25570,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -25495,7 +25578,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -25527,7 +25610,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -25559,7 +25642,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -25631,7 +25714,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
@@ -25691,7 +25774,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7460</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25699,7 +25782,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25715,7 +25798,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7678</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25723,7 +25806,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>4924</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25731,7 +25814,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1093</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25739,7 +25822,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1443</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25747,7 +25830,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25818,10 +25901,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1673618352450472E-2</v>
+        <v>3.1449757095372025E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25829,10 +25912,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="D6" s="44">
-        <v>6.4781021897810223E-2</v>
+        <v>6.9291741242648933E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25840,10 +25923,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1872</v>
+        <v>1894</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24400417101147029</v>
+        <v>0.242137560726157</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25851,10 +25934,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1216</v>
+        <v>1233</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15849843587069865</v>
+        <v>0.15763231909997444</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25862,10 +25945,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1157</v>
+        <v>1180</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15080813347236705</v>
+        <v>0.15085655842495527</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25873,10 +25956,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1123</v>
+        <v>1146</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14637643378519291</v>
+        <v>0.14650984402965994</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25884,10 +25967,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7721584984358711E-2</v>
+        <v>8.706213244694451E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25895,10 +25978,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D12" s="44">
-        <v>6.1522419186652764E-2</v>
+        <v>6.098184607517259E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25906,10 +25989,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D13" s="44">
-        <v>4.3143899895724716E-2</v>
+        <v>4.2572232165686529E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -25917,10 +26000,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1470281543274244E-2</v>
+        <v>1.150600869342879E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -25928,10 +26011,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7672</v>
+        <v>7822</v>
       </c>
       <c r="D15" s="47">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月10日時点</t>
+    <t>令和2年12月11日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7857,7 +7857,7 @@
         <v>44173</v>
       </c>
       <c r="C318" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E318" s="8">
         <v>44173</v>
@@ -7877,22 +7877,28 @@
         <v>44174</v>
       </c>
       <c r="C319" s="9">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E319" s="8">
         <v>44174</v>
       </c>
       <c r="F319" s="65">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H319" s="8">
         <v>44174</v>
       </c>
       <c r="I319" s="75">
-        <v>76.285714285714292</v>
+        <v>76.142857142857139</v>
       </c>
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B320" s="74">
+        <v>44175</v>
+      </c>
+      <c r="C320" s="9">
+        <v>102</v>
+      </c>
       <c r="E320" s="8">
         <v>44175</v>
       </c>
@@ -7903,7 +7909,21 @@
         <v>44175</v>
       </c>
       <c r="I320" s="75">
-        <v>86.142857142857139</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="321" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E321" s="8">
+        <v>44176</v>
+      </c>
+      <c r="F321" s="65">
+        <v>117</v>
+      </c>
+      <c r="H321" s="8">
+        <v>44176</v>
+      </c>
+      <c r="I321" s="75">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7915,7 +7935,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10441,7 +10461,7 @@
         <v>44174</v>
       </c>
       <c r="C319" s="62">
-        <v>0.89747899159663869</v>
+        <v>0.89579831932773113</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.4">
@@ -10449,7 +10469,15 @@
         <v>44175</v>
       </c>
       <c r="C320" s="62">
-        <v>1.0134453781512605</v>
+        <v>1.0117647058823529</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B321" s="8">
+        <v>44176</v>
+      </c>
+      <c r="C321" s="62">
+        <v>1.1438721136767318</v>
       </c>
     </row>
   </sheetData>
@@ -10461,7 +10489,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:G324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16114,16 +16142,16 @@
         <v>61</v>
       </c>
       <c r="D289" s="56">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E289" s="56">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="F289" s="56">
-        <v>1042.8571428571429</v>
+        <v>1043.1428571428571</v>
       </c>
       <c r="G289" s="56">
-        <v>3.3150684931506844</v>
+        <v>3.3141605039715145</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.4">
@@ -16134,16 +16162,16 @@
         <v>46</v>
       </c>
       <c r="D290" s="56">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="E290" s="56">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="F290" s="56">
-        <v>1038.4285714285713</v>
+        <v>1039</v>
       </c>
       <c r="G290" s="56">
-        <v>3.5080478745357002</v>
+        <v>3.5061185205554799</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.4">
@@ -16160,10 +16188,10 @@
         <v>1379</v>
       </c>
       <c r="F291" s="56">
-        <v>1062.2857142857142</v>
+        <v>1062.8571428571429</v>
       </c>
       <c r="G291" s="56">
-        <v>3.8192576654115116</v>
+        <v>3.8172043010752685</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.4">
@@ -16180,10 +16208,10 @@
         <v>853</v>
       </c>
       <c r="F292" s="56">
-        <v>1074.4285714285713</v>
+        <v>1075</v>
       </c>
       <c r="G292" s="56">
-        <v>4.228161148783407</v>
+        <v>4.2259136212624586</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.4">
@@ -16194,16 +16222,16 @@
         <v>12</v>
       </c>
       <c r="D293" s="56">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E293" s="56">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F293" s="56">
-        <v>1073.1428571428573</v>
+        <v>1074</v>
       </c>
       <c r="G293" s="56">
-        <v>4.1533546325878596</v>
+        <v>4.1500399042298488</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.4">
@@ -16220,10 +16248,10 @@
         <v>1736</v>
       </c>
       <c r="F294" s="56">
-        <v>1120.4285714285716</v>
+        <v>1121.2857142857142</v>
       </c>
       <c r="G294" s="56">
-        <v>4.2713247481830932</v>
+        <v>4.2680596254299905</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.4">
@@ -16240,10 +16268,10 @@
         <v>1480</v>
       </c>
       <c r="F295" s="56">
-        <v>1257.7142857142858</v>
+        <v>1258.5714285714287</v>
       </c>
       <c r="G295" s="56">
-        <v>4.134484325306679</v>
+        <v>4.1316685584562993</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.4">
@@ -16254,16 +16282,16 @@
         <v>76</v>
       </c>
       <c r="D296" s="56">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="E296" s="56">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="F296" s="56">
-        <v>1243.4285714285713</v>
+        <v>1244.1428571428571</v>
       </c>
       <c r="G296" s="56">
-        <v>4.3543198529411766</v>
+        <v>4.3518199563669775</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.4">
@@ -16274,16 +16302,16 @@
         <v>65</v>
       </c>
       <c r="D297" s="56">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E297" s="56">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="F297" s="56">
-        <v>1296.8571428571429</v>
+        <v>1297.4285714285716</v>
       </c>
       <c r="G297" s="56">
-        <v>4.3842256003525</v>
+        <v>4.3822946487557806</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.4">
@@ -16294,16 +16322,16 @@
         <v>96</v>
       </c>
       <c r="D298" s="56">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="E298" s="56">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="F298" s="56">
-        <v>1313.5714285714287</v>
+        <v>1314.8571428571429</v>
       </c>
       <c r="G298" s="56">
-        <v>4.6873300706905923</v>
+        <v>4.6827466318991737</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.4">
@@ -16314,16 +16342,16 @@
         <v>63</v>
       </c>
       <c r="D299" s="56">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E299" s="56">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F299" s="56">
-        <v>1333.5714285714287</v>
+        <v>1335</v>
       </c>
       <c r="G299" s="56">
-        <v>4.6920192822710227</v>
+        <v>4.6869983948635632</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.4">
@@ -16340,10 +16368,10 @@
         <v>651</v>
       </c>
       <c r="F300" s="56">
-        <v>1359.5714285714287</v>
+        <v>1360.7142857142858</v>
       </c>
       <c r="G300" s="56">
-        <v>5.1486813071346011</v>
+        <v>5.1443569553805775</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.4">
@@ -16360,10 +16388,10 @@
         <v>1652</v>
       </c>
       <c r="F301" s="56">
-        <v>1347.5714285714284</v>
+        <v>1348.7142857142858</v>
       </c>
       <c r="G301" s="56">
-        <v>5.2793384925262377</v>
+        <v>5.2748649507467427</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.4">
@@ -16374,16 +16402,16 @@
         <v>76</v>
       </c>
       <c r="D302" s="56">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E302" s="56">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F302" s="56">
-        <v>1385.4285714285713</v>
+        <v>1386.7142857142856</v>
       </c>
       <c r="G302" s="56">
-        <v>5.3000618684264804</v>
+        <v>5.295147831461831</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.4">
@@ -16394,16 +16422,16 @@
         <v>103</v>
       </c>
       <c r="D303" s="56">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="E303" s="56">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="F303" s="56">
-        <v>1424.5714285714284</v>
+        <v>1426.1428571428571</v>
       </c>
       <c r="G303" s="56">
-        <v>5.4251905334937822</v>
+        <v>5.4192126615245924</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.4">
@@ -16420,10 +16448,10 @@
         <v>2064</v>
       </c>
       <c r="F304" s="56">
-        <v>1491.5714285714284</v>
+        <v>1493</v>
       </c>
       <c r="G304" s="56">
-        <v>5.373048558567187</v>
+        <v>5.3679073772844701</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.4">
@@ -16434,16 +16462,16 @@
         <v>107</v>
       </c>
       <c r="D305" s="56">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="E305" s="56">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="F305" s="56">
-        <v>1550.8571428571429</v>
+        <v>1551.8571428571429</v>
       </c>
       <c r="G305" s="56">
-        <v>5.2689756816506996</v>
+        <v>5.2655804105679831</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.4">
@@ -16454,16 +16482,16 @@
         <v>87</v>
       </c>
       <c r="D306" s="56">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E306" s="56">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="F306" s="56">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="G306" s="56">
-        <v>5.2687411598302685</v>
+        <v>5.2654828165032246</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.4">
@@ -16480,10 +16508,10 @@
         <v>557</v>
       </c>
       <c r="F307" s="56">
-        <v>1602.5714285714287</v>
+        <v>1603.5714285714287</v>
       </c>
       <c r="G307" s="56">
-        <v>5.241576038509538</v>
+        <v>5.2383073496659236</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.4">
@@ -16500,10 +16528,10 @@
         <v>663</v>
       </c>
       <c r="F308" s="56">
-        <v>1461.2857142857144</v>
+        <v>1462.2857142857144</v>
       </c>
       <c r="G308" s="56">
-        <v>5.3084367973408941</v>
+        <v>5.3048065650644789</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.4">
@@ -16520,10 +16548,10 @@
         <v>2189</v>
       </c>
       <c r="F309" s="56">
-        <v>1524.7142857142856</v>
+        <v>1525.5714285714284</v>
       </c>
       <c r="G309" s="56">
-        <v>5.1438208563665322</v>
+        <v>5.1409307987639288</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.4">
@@ -16534,16 +16562,16 @@
         <v>112</v>
       </c>
       <c r="D310" s="56">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="E310" s="56">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="F310" s="56">
-        <v>1537.5714285714287</v>
+        <v>1538.1428571428571</v>
       </c>
       <c r="G310" s="56">
-        <v>5.1844281334200488</v>
+        <v>5.1825020897185849</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.4">
@@ -16554,16 +16582,16 @@
         <v>107</v>
       </c>
       <c r="D311" s="56">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="E311" s="56">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="F311" s="56">
-        <v>1533</v>
+        <v>1534.1428571428571</v>
       </c>
       <c r="G311" s="56">
-        <v>5.4049016867020789</v>
+        <v>5.4008753142750727</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.4">
@@ -16574,16 +16602,16 @@
         <v>82</v>
       </c>
       <c r="D312" s="56">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="E312" s="56">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="F312" s="56">
-        <v>1516.7142857142856</v>
+        <v>1518.1428571428571</v>
       </c>
       <c r="G312" s="56">
-        <v>5.2274653857021756</v>
+        <v>5.2225463442175597</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.4">
@@ -16594,16 +16622,16 @@
         <v>71</v>
       </c>
       <c r="D313" s="56">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E313" s="56">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F313" s="56">
-        <v>1497.2857142857142</v>
+        <v>1498.7142857142858</v>
       </c>
       <c r="G313" s="56">
-        <v>5.1426390611582864</v>
+        <v>5.1377371079973315</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.4">
@@ -16620,10 +16648,10 @@
         <v>651</v>
       </c>
       <c r="F314" s="56">
-        <v>1510.7142857142858</v>
+        <v>1512.1428571428571</v>
       </c>
       <c r="G314" s="56">
-        <v>5.1536643026004727</v>
+        <v>5.1487954652810588</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.4">
@@ -16640,10 +16668,10 @@
         <v>1809</v>
       </c>
       <c r="F315" s="56">
-        <v>1674.4285714285716</v>
+        <v>1675.8571428571429</v>
       </c>
       <c r="G315" s="56">
-        <v>5.1104854534596029</v>
+        <v>5.1061290597562019</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.4">
@@ -16651,19 +16679,19 @@
         <v>44166</v>
       </c>
       <c r="C316" s="56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D316" s="56">
-        <v>1572</v>
+        <v>1585</v>
       </c>
       <c r="E316" s="56">
-        <v>1632</v>
+        <v>1646</v>
       </c>
       <c r="F316" s="56">
-        <v>1594.8571428571427</v>
+        <v>1598.2857142857144</v>
       </c>
       <c r="G316" s="56">
-        <v>5.1683984235041205</v>
+        <v>5.1662495530925989</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16671,19 +16699,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D317" s="56">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="E317" s="56">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="F317" s="56">
-        <v>1545.8571428571429</v>
+        <v>1549.4285714285716</v>
       </c>
       <c r="G317" s="56">
-        <v>5.018020515663987</v>
+        <v>5.0064539922552092</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16691,19 +16719,19 @@
         <v>44168</v>
       </c>
       <c r="C318" s="56">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D318" s="56">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="E318" s="56">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="F318" s="56">
-        <v>1482.8571428571429</v>
+        <v>1486.4285714285713</v>
       </c>
       <c r="G318" s="56">
-        <v>4.759152215799614</v>
+        <v>4.7381066794810192</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16714,16 +16742,16 @@
         <v>84</v>
       </c>
       <c r="D319" s="56">
-        <v>1516</v>
+        <v>1533</v>
       </c>
       <c r="E319" s="56">
-        <v>1600</v>
+        <v>1617</v>
       </c>
       <c r="F319" s="56">
-        <v>1454.7142857142858</v>
+        <v>1460.1428571428571</v>
       </c>
       <c r="G319" s="56">
-        <v>4.8708632033781791</v>
+        <v>4.8429703551511594</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16731,19 +16759,19 @@
         <v>44170</v>
       </c>
       <c r="C320" s="56">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D320" s="56">
-        <v>1692</v>
+        <v>1699</v>
       </c>
       <c r="E320" s="56">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="F320" s="56">
-        <v>1520.5714285714284</v>
+        <v>1527</v>
       </c>
       <c r="G320" s="56">
-        <v>4.7641420785566631</v>
+        <v>4.7440815944605594</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.4">
@@ -16754,16 +16782,16 @@
         <v>21</v>
       </c>
       <c r="D321" s="56">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E321" s="56">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F321" s="56">
-        <v>1512.2857142857144</v>
+        <v>1519.2857142857144</v>
       </c>
       <c r="G321" s="56">
-        <v>4.4028722600151173</v>
+        <v>4.3825825260979965</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.4">
@@ -16771,19 +16799,19 @@
         <v>44172</v>
       </c>
       <c r="C322" s="56">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D322" s="56">
-        <v>1252</v>
+        <v>1285</v>
       </c>
       <c r="E322" s="56">
-        <v>1330</v>
+        <v>1366</v>
       </c>
       <c r="F322" s="56">
-        <v>1443.8571428571429</v>
+        <v>1456</v>
       </c>
       <c r="G322" s="56">
-        <v>4.5620979713013359</v>
+        <v>4.5534838076545636</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.4">
@@ -16791,19 +16819,39 @@
         <v>44173</v>
       </c>
       <c r="C323" s="56">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D323" s="56">
-        <v>1048</v>
+        <v>1095</v>
       </c>
       <c r="E323" s="56">
-        <v>1120</v>
+        <v>1168</v>
       </c>
       <c r="F323" s="56">
-        <v>1370.7142857142858</v>
+        <v>1387.7142857142858</v>
       </c>
       <c r="G323" s="56">
-        <v>4.9306786198269572</v>
+        <v>4.901153212520593</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B324" s="73">
+        <v>44174</v>
+      </c>
+      <c r="C324" s="56">
+        <v>101</v>
+      </c>
+      <c r="D324" s="56">
+        <v>1166</v>
+      </c>
+      <c r="E324" s="56">
+        <v>1267</v>
+      </c>
+      <c r="F324" s="56">
+        <v>1341.7142857142856</v>
+      </c>
+      <c r="G324" s="56">
+        <v>5.3248136315228969</v>
       </c>
     </row>
   </sheetData>
@@ -16815,7 +16863,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25223,16 +25271,16 @@
         <v>44174</v>
       </c>
       <c r="C243" s="15">
-        <v>7692</v>
+        <v>7690</v>
       </c>
       <c r="D243" s="15">
         <v>319</v>
       </c>
       <c r="E243" s="15">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F243" s="15">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G243" s="15">
         <v>0</v>
@@ -25258,7 +25306,7 @@
         <v>44175</v>
       </c>
       <c r="C244" s="15">
-        <v>7842</v>
+        <v>7841</v>
       </c>
       <c r="D244" s="15">
         <v>322</v>
@@ -25267,7 +25315,7 @@
         <v>288</v>
       </c>
       <c r="F244" s="15">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G244" s="15">
         <v>0</v>
@@ -25286,6 +25334,41 @@
       </c>
       <c r="L244" s="57">
         <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B245" s="14">
+        <v>44176</v>
+      </c>
+      <c r="C245" s="15">
+        <v>7958</v>
+      </c>
+      <c r="D245" s="15">
+        <v>347</v>
+      </c>
+      <c r="E245" s="15">
+        <v>279</v>
+      </c>
+      <c r="F245" s="15">
+        <v>200</v>
+      </c>
+      <c r="G245" s="15">
+        <v>0</v>
+      </c>
+      <c r="H245" s="15">
+        <v>3264</v>
+      </c>
+      <c r="I245" s="15">
+        <v>3724</v>
+      </c>
+      <c r="J245" s="15">
+        <v>97</v>
+      </c>
+      <c r="K245" s="15">
+        <v>47</v>
+      </c>
+      <c r="L245" s="57">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -25338,7 +25421,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1104</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25346,7 +25429,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -25354,7 +25437,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25362,7 +25445,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1051</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25370,7 +25453,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -25386,7 +25469,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>866</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25410,7 +25493,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25418,7 +25501,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25442,7 +25525,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25450,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25466,7 +25549,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25474,7 +25557,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25482,7 +25565,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25490,7 +25573,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25506,7 +25589,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25530,7 +25613,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25562,7 +25645,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25570,7 +25653,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -25610,7 +25693,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -25618,7 +25701,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -25626,7 +25709,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -25642,7 +25725,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -25658,7 +25741,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
@@ -25774,7 +25857,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7601</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25782,7 +25865,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25798,7 +25881,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7828</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25806,7 +25889,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>5032</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25814,7 +25897,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1104</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25822,7 +25905,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1465</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25830,7 +25913,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25901,10 +25984,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1449757095372025E-2</v>
+        <v>3.1494079113126731E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25912,10 +25995,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="D6" s="44">
-        <v>6.9291741242648933E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25923,10 +26006,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="D7" s="44">
-        <v>0.242137560726157</v>
+        <v>0.24137062232300327</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25934,10 +26017,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15763231909997444</v>
+        <v>0.15747039556563366</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25945,10 +26028,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15085655842495527</v>
+        <v>0.15066767447719828</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25956,10 +26039,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14650984402965994</v>
+        <v>0.14613252708490804</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25967,10 +26050,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="D11" s="44">
-        <v>8.706213244694451E-2</v>
+        <v>8.7175610985134794E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25978,10 +26061,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D12" s="44">
-        <v>6.098184607517259E-2</v>
+        <v>6.072058453010834E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25989,10 +26072,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D13" s="44">
-        <v>4.2572232165686529E-2</v>
+        <v>4.2202066011589823E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26003,7 +26086,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="44">
-        <v>1.150600869342879E-2</v>
+        <v>1.1337868480725623E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -26011,10 +26094,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7822</v>
+        <v>7938</v>
       </c>
       <c r="D15" s="47">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月11日時点</t>
+    <t>令和2年12月12日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L321"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7857,7 +7857,7 @@
         <v>44173</v>
       </c>
       <c r="C318" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E318" s="8">
         <v>44173</v>
@@ -7877,7 +7877,7 @@
         <v>44174</v>
       </c>
       <c r="C319" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E319" s="8">
         <v>44174</v>
@@ -7897,22 +7897,28 @@
         <v>44175</v>
       </c>
       <c r="C320" s="9">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E320" s="8">
         <v>44175</v>
       </c>
       <c r="F320" s="65">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H320" s="8">
         <v>44175</v>
       </c>
       <c r="I320" s="75">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="321" spans="5:9" x14ac:dyDescent="0.4">
+        <v>85.857142857142861</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B321" s="74">
+        <v>44176</v>
+      </c>
+      <c r="C321" s="9">
+        <v>98</v>
+      </c>
       <c r="E321" s="8">
         <v>44176</v>
       </c>
@@ -7923,7 +7929,21 @@
         <v>44176</v>
       </c>
       <c r="I321" s="75">
-        <v>92</v>
+        <v>91.857142857142861</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E322" s="8">
+        <v>44177</v>
+      </c>
+      <c r="F322" s="65">
+        <v>121</v>
+      </c>
+      <c r="H322" s="8">
+        <v>44177</v>
+      </c>
+      <c r="I322" s="75">
+        <v>98.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -7935,7 +7955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10469,7 +10489,7 @@
         <v>44175</v>
       </c>
       <c r="C320" s="62">
-        <v>1.0117647058823529</v>
+        <v>1.0100840336134453</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.4">
@@ -10477,7 +10497,15 @@
         <v>44176</v>
       </c>
       <c r="C321" s="62">
-        <v>1.1438721136767318</v>
+        <v>1.1420959147424512</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B322" s="8">
+        <v>44177</v>
+      </c>
+      <c r="C322" s="62">
+        <v>1.3167938931297709</v>
       </c>
     </row>
   </sheetData>
@@ -10489,7 +10517,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G324"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16854,6 +16882,26 @@
         <v>5.3248136315228969</v>
       </c>
     </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B325" s="73">
+        <v>44175</v>
+      </c>
+      <c r="C325" s="56">
+        <v>73</v>
+      </c>
+      <c r="D325" s="56">
+        <v>711</v>
+      </c>
+      <c r="E325" s="56">
+        <v>784</v>
+      </c>
+      <c r="F325" s="56">
+        <v>1225.8571428571429</v>
+      </c>
+      <c r="G325" s="56">
+        <v>6.0146870264599599</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16863,7 +16911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25306,10 +25354,10 @@
         <v>44175</v>
       </c>
       <c r="C244" s="15">
-        <v>7841</v>
+        <v>7840</v>
       </c>
       <c r="D244" s="15">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E244" s="15">
         <v>288</v>
@@ -25341,10 +25389,10 @@
         <v>44176</v>
       </c>
       <c r="C245" s="15">
-        <v>7958</v>
+        <v>7957</v>
       </c>
       <c r="D245" s="15">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E245" s="15">
         <v>279</v>
@@ -25369,6 +25417,41 @@
       </c>
       <c r="L245" s="57">
         <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B246" s="14">
+        <v>44177</v>
+      </c>
+      <c r="C246" s="15">
+        <v>8078</v>
+      </c>
+      <c r="D246" s="15">
+        <v>337</v>
+      </c>
+      <c r="E246" s="15">
+        <v>338</v>
+      </c>
+      <c r="F246" s="15">
+        <v>221</v>
+      </c>
+      <c r="G246" s="15">
+        <v>0</v>
+      </c>
+      <c r="H246" s="15">
+        <v>3288</v>
+      </c>
+      <c r="I246" s="15">
+        <v>3750</v>
+      </c>
+      <c r="J246" s="15">
+        <v>97</v>
+      </c>
+      <c r="K246" s="15">
+        <v>47</v>
+      </c>
+      <c r="L246" s="57">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -25421,7 +25504,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25437,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25445,7 +25528,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1081</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25461,7 +25544,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -25469,7 +25552,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>875</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25477,7 +25560,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25493,7 +25576,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25501,7 +25584,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25525,7 +25608,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25533,7 +25616,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25549,7 +25632,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25557,7 +25640,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25565,7 +25648,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25573,7 +25656,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25589,7 +25672,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25597,7 +25680,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -25613,7 +25696,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25621,7 +25704,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -25629,7 +25712,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -25637,7 +25720,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -25661,7 +25744,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -25677,7 +25760,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -25725,7 +25808,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -25757,7 +25840,7 @@
         <v>62</v>
       </c>
       <c r="C47" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
@@ -25821,7 +25904,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
@@ -25857,7 +25940,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7713</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25865,7 +25948,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25881,7 +25964,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>7944</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25889,7 +25972,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>5103</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25897,7 +25980,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25905,7 +25988,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1489</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25913,7 +25996,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -25987,7 +26070,7 @@
         <v>250</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1494079113126731E-2</v>
+        <v>3.1025068255150161E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -25995,10 +26078,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="D6" s="44">
-        <v>7.1428571428571425E-2</v>
+        <v>7.2722759990071981E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26006,10 +26089,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1916</v>
+        <v>1940</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24137062232300327</v>
+        <v>0.24075452965996524</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26017,10 +26100,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1250</v>
+        <v>1272</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15747039556563366</v>
+        <v>0.15785554728220402</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26028,10 +26111,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15066767447719828</v>
+        <v>0.15028543062794739</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26039,10 +26122,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14613252708490804</v>
+        <v>0.14643832216430877</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26050,10 +26133,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D11" s="44">
-        <v>8.7175610985134794E-2</v>
+        <v>8.6994291387441053E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26061,10 +26144,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D12" s="44">
-        <v>6.072058453010834E-2</v>
+        <v>6.0809133780094317E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26072,10 +26155,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D13" s="44">
-        <v>4.2202066011589823E-2</v>
+        <v>4.1945892280963015E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26086,7 +26169,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1337868480725623E-2</v>
+        <v>1.1169024571854059E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -26094,10 +26177,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>7938</v>
+        <v>8058</v>
       </c>
       <c r="D15" s="47">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月12日時点</t>
+    <t>令和2年12月13日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L322"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7917,7 +7917,7 @@
         <v>44176</v>
       </c>
       <c r="C321" s="9">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E321" s="8">
         <v>44176</v>
@@ -7933,6 +7933,12 @@
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B322" s="74">
+        <v>44177</v>
+      </c>
+      <c r="C322" s="9">
+        <v>90</v>
+      </c>
       <c r="E322" s="8">
         <v>44177</v>
       </c>
@@ -7944,6 +7950,20 @@
       </c>
       <c r="I322" s="75">
         <v>98.571428571428569</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E323" s="8">
+        <v>44178</v>
+      </c>
+      <c r="F323" s="65">
+        <v>111</v>
+      </c>
+      <c r="H323" s="8">
+        <v>44178</v>
+      </c>
+      <c r="I323" s="75">
+        <v>103.28571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -7955,7 +7975,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10508,6 +10528,14 @@
         <v>1.3167938931297709</v>
       </c>
     </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B323" s="8">
+        <v>44178</v>
+      </c>
+      <c r="C323" s="62">
+        <v>1.3719165085388993</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10517,7 +10545,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G325"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16902,6 +16930,26 @@
         <v>6.0146870264599599</v>
       </c>
     </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B326" s="73">
+        <v>44176</v>
+      </c>
+      <c r="C326" s="56">
+        <v>48</v>
+      </c>
+      <c r="D326" s="56">
+        <v>494</v>
+      </c>
+      <c r="E326" s="56">
+        <v>542</v>
+      </c>
+      <c r="F326" s="56">
+        <v>1072.2857142857142</v>
+      </c>
+      <c r="G326" s="56">
+        <v>6.3965884861407254</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16911,7 +16959,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25451,6 +25499,41 @@
         <v>47</v>
       </c>
       <c r="L246" s="57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B247" s="14">
+        <v>44178</v>
+      </c>
+      <c r="C247" s="15">
+        <v>8189</v>
+      </c>
+      <c r="D247" s="15">
+        <v>331</v>
+      </c>
+      <c r="E247" s="15">
+        <v>378</v>
+      </c>
+      <c r="F247" s="15">
+        <v>231</v>
+      </c>
+      <c r="G247" s="15">
+        <v>0</v>
+      </c>
+      <c r="H247" s="15">
+        <v>3317</v>
+      </c>
+      <c r="I247" s="15">
+        <v>3783</v>
+      </c>
+      <c r="J247" s="15">
+        <v>98</v>
+      </c>
+      <c r="K247" s="15">
+        <v>51</v>
+      </c>
+      <c r="L247" s="57">
         <v>15</v>
       </c>
     </row>
@@ -25504,7 +25587,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1129</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25520,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25528,7 +25611,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1101</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25552,7 +25635,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25560,7 +25643,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25576,7 +25659,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25584,7 +25667,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25592,7 +25675,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -25608,7 +25691,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25616,7 +25699,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25640,7 +25723,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25648,7 +25731,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25656,7 +25739,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25672,7 +25755,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25720,7 +25803,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -25728,7 +25811,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25744,7 +25827,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
@@ -25760,7 +25843,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -25776,7 +25859,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
@@ -25808,7 +25891,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -25856,7 +25939,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
@@ -25940,7 +26023,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7832</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -25948,7 +26031,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -25964,7 +26047,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>8064</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -25972,7 +26055,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>5192</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -25980,7 +26063,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1129</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -25988,7 +26071,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1511</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -25996,7 +26079,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -26067,10 +26150,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D5" s="44">
-        <v>3.1025068255150161E-2</v>
+        <v>3.0848329048843187E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26078,10 +26161,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="D6" s="44">
-        <v>7.2722759990071981E-2</v>
+        <v>7.4550128534704371E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26089,10 +26172,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1940</v>
+        <v>1969</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24075452965996524</v>
+        <v>0.24103317419512793</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26100,10 +26183,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15785554728220402</v>
+        <v>0.15717958134410576</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26111,10 +26194,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="D9" s="44">
-        <v>0.15028543062794739</v>
+        <v>0.14946749908189497</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26122,10 +26205,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14643832216430877</v>
+        <v>0.14616232096951892</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26133,10 +26216,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="D11" s="44">
-        <v>8.6994291387441053E-2</v>
+        <v>8.703635695923613E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26144,10 +26227,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0809133780094317E-2</v>
+        <v>6.0594932060227688E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26155,10 +26238,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D13" s="44">
-        <v>4.1945892280963015E-2</v>
+        <v>4.1498347410943812E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26166,10 +26249,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1169024571854059E-2</v>
+        <v>1.1629330395397234E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -26177,7 +26260,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>8058</v>
+        <v>8169</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月13日時点</t>
+    <t>令和2年12月14日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L323"/>
+  <dimension ref="A1:L324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7917,7 +7917,7 @@
         <v>44176</v>
       </c>
       <c r="C321" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E321" s="8">
         <v>44176</v>
@@ -7937,7 +7937,7 @@
         <v>44177</v>
       </c>
       <c r="C322" s="9">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="E322" s="8">
         <v>44177</v>
@@ -7953,6 +7953,12 @@
       </c>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B323" s="74">
+        <v>44178</v>
+      </c>
+      <c r="C323" s="9">
+        <v>36</v>
+      </c>
       <c r="E323" s="8">
         <v>44178</v>
       </c>
@@ -7964,6 +7970,20 @@
       </c>
       <c r="I323" s="75">
         <v>103.28571428571429</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E324" s="8">
+        <v>44179</v>
+      </c>
+      <c r="F324" s="65">
+        <v>80</v>
+      </c>
+      <c r="H324" s="8">
+        <v>44179</v>
+      </c>
+      <c r="I324" s="75">
+        <v>107.14285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -7975,7 +7995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10536,6 +10556,14 @@
         <v>1.3719165085388993</v>
       </c>
     </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B324" s="8">
+        <v>44179</v>
+      </c>
+      <c r="C324" s="62">
+        <v>1.46484375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10545,7 +10573,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -14595,10 +14623,10 @@
         <v>44059</v>
       </c>
       <c r="C209" s="56">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D209" s="56">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E209" s="56">
         <v>611</v>
@@ -14607,7 +14635,7 @@
         <v>913.42857142857144</v>
       </c>
       <c r="G209" s="56">
-        <v>4.4729433844228961</v>
+        <v>4.4885830466061938</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.4">
@@ -14627,7 +14655,7 @@
         <v>1013</v>
       </c>
       <c r="G210" s="56">
-        <v>4.2307149908334507</v>
+        <v>4.2448173741362289</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.4">
@@ -14644,10 +14672,10 @@
         <v>1248</v>
       </c>
       <c r="F211" s="56">
-        <v>1043.4285714285716</v>
+        <v>1043.4285714285713</v>
       </c>
       <c r="G211" s="56">
-        <v>4.1757940854326403</v>
+        <v>4.189485213581599</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.4">
@@ -14667,7 +14695,7 @@
         <v>1088.7142857142858</v>
       </c>
       <c r="G212" s="56">
-        <v>4.4088702270043303</v>
+        <v>4.4219918645847001</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.4">
@@ -14687,7 +14715,7 @@
         <v>1082.7142857142856</v>
       </c>
       <c r="G213" s="56">
-        <v>4.367330782425122</v>
+        <v>4.3805251352421166</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.4">
@@ -14698,16 +14726,16 @@
         <v>34</v>
       </c>
       <c r="D214" s="56">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="E214" s="56">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="F214" s="56">
-        <v>1066.5714285714287</v>
+        <v>1068.4285714285713</v>
       </c>
       <c r="G214" s="56">
-        <v>4.0450040182159119</v>
+        <v>4.0513437625350983</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.4">
@@ -14724,10 +14752,10 @@
         <v>899</v>
       </c>
       <c r="F215" s="56">
-        <v>1073.4285714285716</v>
+        <v>1075.2857142857142</v>
       </c>
       <c r="G215" s="56">
-        <v>3.7929198828852808</v>
+        <v>3.7996545768566494</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.4">
@@ -14744,10 +14772,10 @@
         <v>546</v>
       </c>
       <c r="F216" s="56">
-        <v>1064.1428571428571</v>
+        <v>1066</v>
       </c>
       <c r="G216" s="56">
-        <v>3.8528661565310784</v>
+        <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.4">
@@ -14764,10 +14792,10 @@
         <v>1078</v>
       </c>
       <c r="F217" s="56">
-        <v>1050</v>
+        <v>1051.8571428571429</v>
       </c>
       <c r="G217" s="56">
-        <v>3.8911564625850339</v>
+        <v>3.8842862963465974</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.4">
@@ -14778,16 +14806,16 @@
         <v>34</v>
       </c>
       <c r="D218" s="56">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E218" s="56">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F218" s="56">
-        <v>1032.2857142857142</v>
+        <v>1034.2857142857142</v>
       </c>
       <c r="G218" s="56">
-        <v>3.8610572931082201</v>
+        <v>3.8535911602209949</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.4">
@@ -14804,10 +14832,10 @@
         <v>1150</v>
       </c>
       <c r="F219" s="56">
-        <v>995.71428571428578</v>
+        <v>997.71428571428578</v>
       </c>
       <c r="G219" s="56">
-        <v>3.8450502152080346</v>
+        <v>3.8373424971363117</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.4">
@@ -14824,10 +14852,10 @@
         <v>1157</v>
       </c>
       <c r="F220" s="56">
-        <v>995.85714285714289</v>
+        <v>997.85714285714289</v>
       </c>
       <c r="G220" s="56">
-        <v>3.4715248888251322</v>
+        <v>3.4645669291338583</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.4">
@@ -14844,10 +14872,10 @@
         <v>1072</v>
       </c>
       <c r="F221" s="56">
-        <v>1003.7142857142857</v>
+        <v>1003.8571428571428</v>
       </c>
       <c r="G221" s="56">
-        <v>3.401651010532309</v>
+        <v>3.401166927565106</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.4">
@@ -14864,10 +14892,10 @@
         <v>901</v>
       </c>
       <c r="F222" s="56">
-        <v>1004</v>
+        <v>1004.1428571428571</v>
       </c>
       <c r="G222" s="56">
-        <v>3.4860557768924298</v>
+        <v>3.4855598235879928</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.4">
@@ -14884,10 +14912,10 @@
         <v>440</v>
       </c>
       <c r="F223" s="56">
-        <v>988.85714285714289</v>
+        <v>989</v>
       </c>
       <c r="G223" s="56">
-        <v>3.2793990176249643</v>
+        <v>3.2789253213924603</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.4">
@@ -14904,10 +14932,10 @@
         <v>1120</v>
       </c>
       <c r="F224" s="56">
-        <v>994.85714285714278</v>
+        <v>995</v>
       </c>
       <c r="G224" s="56">
-        <v>3.0298678920160826</v>
+        <v>3.0294328786791098</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.4">
@@ -16738,16 +16766,16 @@
         <v>61</v>
       </c>
       <c r="D316" s="56">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="E316" s="56">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="F316" s="56">
-        <v>1598.2857142857144</v>
+        <v>1598.7142857142858</v>
       </c>
       <c r="G316" s="56">
-        <v>5.1662495530925989</v>
+        <v>5.1648646233580546</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16758,16 +16786,16 @@
         <v>77</v>
       </c>
       <c r="D317" s="56">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="E317" s="56">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="F317" s="56">
-        <v>1549.4285714285716</v>
+        <v>1550.1428571428573</v>
       </c>
       <c r="G317" s="56">
-        <v>5.0064539922552092</v>
+        <v>5.0041470832181361</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16778,16 +16806,16 @@
         <v>57</v>
       </c>
       <c r="D318" s="56">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E318" s="56">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F318" s="56">
-        <v>1486.4285714285713</v>
+        <v>1487</v>
       </c>
       <c r="G318" s="56">
-        <v>4.7381066794810192</v>
+        <v>4.7362859064271303</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16795,19 +16823,19 @@
         <v>44169</v>
       </c>
       <c r="C319" s="56">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D319" s="56">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="E319" s="56">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="F319" s="56">
-        <v>1460.1428571428571</v>
+        <v>1461.2857142857144</v>
       </c>
       <c r="G319" s="56">
-        <v>4.8429703551511594</v>
+        <v>4.8294065891093956</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16818,16 +16846,16 @@
         <v>83</v>
       </c>
       <c r="D320" s="56">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="E320" s="56">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="F320" s="56">
-        <v>1527</v>
+        <v>1528.8571428571429</v>
       </c>
       <c r="G320" s="56">
-        <v>4.7440815944605594</v>
+        <v>4.7289719626168223</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.4">
@@ -16844,10 +16872,10 @@
         <v>597</v>
       </c>
       <c r="F321" s="56">
-        <v>1519.2857142857144</v>
+        <v>1521.1428571428571</v>
       </c>
       <c r="G321" s="56">
-        <v>4.3825825260979965</v>
+        <v>4.3678376855156866</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.4">
@@ -16858,16 +16886,16 @@
         <v>81</v>
       </c>
       <c r="D322" s="56">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E322" s="56">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F322" s="56">
-        <v>1456</v>
+        <v>1457.7142857142858</v>
       </c>
       <c r="G322" s="56">
-        <v>4.5534838076545636</v>
+        <v>4.5383258184669675</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.4">
@@ -16878,16 +16906,16 @@
         <v>73</v>
       </c>
       <c r="D323" s="56">
-        <v>1095</v>
+        <v>1115</v>
       </c>
       <c r="E323" s="56">
-        <v>1168</v>
+        <v>1188</v>
       </c>
       <c r="F323" s="56">
-        <v>1387.7142857142858</v>
+        <v>1391.8571428571429</v>
       </c>
       <c r="G323" s="56">
-        <v>4.901153212520593</v>
+        <v>4.8762960681654857</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.4">
@@ -16895,19 +16923,19 @@
         <v>44174</v>
       </c>
       <c r="C324" s="56">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D324" s="56">
-        <v>1166</v>
+        <v>1189</v>
       </c>
       <c r="E324" s="56">
-        <v>1267</v>
+        <v>1291</v>
       </c>
       <c r="F324" s="56">
-        <v>1341.7142857142856</v>
+        <v>1349</v>
       </c>
       <c r="G324" s="56">
-        <v>5.3248136315228969</v>
+        <v>5.2960491473360873</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.4">
@@ -16915,19 +16943,19 @@
         <v>44175</v>
       </c>
       <c r="C325" s="56">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D325" s="56">
-        <v>711</v>
+        <v>1332</v>
       </c>
       <c r="E325" s="56">
-        <v>784</v>
+        <v>1436</v>
       </c>
       <c r="F325" s="56">
-        <v>1225.8571428571429</v>
+        <v>1326.4285714285713</v>
       </c>
       <c r="G325" s="56">
-        <v>6.0146870264599599</v>
+        <v>5.8924916514057957</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.4">
@@ -16935,19 +16963,39 @@
         <v>44176</v>
       </c>
       <c r="C326" s="56">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D326" s="56">
-        <v>494</v>
+        <v>864</v>
       </c>
       <c r="E326" s="56">
-        <v>542</v>
+        <v>925</v>
       </c>
       <c r="F326" s="56">
-        <v>1072.2857142857142</v>
+        <v>1227</v>
       </c>
       <c r="G326" s="56">
-        <v>6.3965884861407254</v>
+        <v>6.1138930942121812</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B327" s="73">
+        <v>44177</v>
+      </c>
+      <c r="C327" s="56">
+        <v>67</v>
+      </c>
+      <c r="D327" s="56">
+        <v>582</v>
+      </c>
+      <c r="E327" s="56">
+        <v>649</v>
+      </c>
+      <c r="F327" s="56">
+        <v>1064.4285714285713</v>
+      </c>
+      <c r="G327" s="56">
+        <v>6.8312978123741779</v>
       </c>
     </row>
   </sheetData>
@@ -16959,7 +17007,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L247"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25535,6 +25583,41 @@
       </c>
       <c r="L247" s="57">
         <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B248" s="14">
+        <v>44179</v>
+      </c>
+      <c r="C248" s="15">
+        <v>8269</v>
+      </c>
+      <c r="D248" s="15">
+        <v>324</v>
+      </c>
+      <c r="E248" s="15">
+        <v>353</v>
+      </c>
+      <c r="F248" s="15">
+        <v>238</v>
+      </c>
+      <c r="G248" s="15">
+        <v>0</v>
+      </c>
+      <c r="H248" s="15">
+        <v>3339</v>
+      </c>
+      <c r="I248" s="15">
+        <v>3866</v>
+      </c>
+      <c r="J248" s="15">
+        <v>98</v>
+      </c>
+      <c r="K248" s="15">
+        <v>51</v>
+      </c>
+      <c r="L248" s="57">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -25587,7 +25670,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1144</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25603,7 +25686,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>834</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25611,7 +25694,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1136</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25627,7 +25710,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -25635,7 +25718,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25659,7 +25742,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25667,7 +25750,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25691,7 +25774,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25699,7 +25782,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25715,7 +25798,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25723,7 +25806,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25731,7 +25814,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25739,7 +25822,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25763,7 +25846,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -25779,7 +25862,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25819,7 +25902,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -25939,7 +26022,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
@@ -26023,7 +26106,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>7939</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -26031,7 +26114,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -26047,7 +26130,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>8175</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -26055,7 +26138,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>5267</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -26063,7 +26146,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1144</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -26071,7 +26154,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1528</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -26079,7 +26162,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -26153,7 +26236,7 @@
         <v>252</v>
       </c>
       <c r="D5" s="44">
-        <v>3.0848329048843187E-2</v>
+        <v>3.0549157473633168E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26161,10 +26244,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="D6" s="44">
-        <v>7.4550128534704371E-2</v>
+        <v>7.5403079161110442E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26172,10 +26255,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1969</v>
+        <v>1993</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24103317419512793</v>
+        <v>0.24160504303551947</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26183,10 +26266,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15717958134410576</v>
+        <v>0.15698872590617044</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26194,10 +26277,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1221</v>
+        <v>1235</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14946749908189497</v>
+        <v>0.14971511698387682</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26205,10 +26288,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14616232096951892</v>
+        <v>0.14607831252273004</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26216,10 +26299,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D11" s="44">
-        <v>8.703635695923613E-2</v>
+        <v>8.6798399806037096E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26230,7 +26313,7 @@
         <v>495</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0594932060227688E-2</v>
+        <v>6.0007273608922294E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26238,10 +26321,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D13" s="44">
-        <v>4.1498347410943812E-2</v>
+        <v>4.1338344041702023E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26252,7 +26335,7 @@
         <v>95</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1629330395397234E-2</v>
+        <v>1.1516547460298218E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -26260,7 +26343,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>8169</v>
+        <v>8249</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'新型コロナウイルス感染者数（検査確定日、公表日、7日間平均）'!$B$2:$C$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">年代別感染者数!$E$17:$E$30</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月14日時点</t>
+    <t>令和2年12月15日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L324"/>
+  <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7897,7 +7897,7 @@
         <v>44175</v>
       </c>
       <c r="C320" s="9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E320" s="8">
         <v>44175</v>
@@ -7917,7 +7917,7 @@
         <v>44176</v>
       </c>
       <c r="C321" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E321" s="8">
         <v>44176</v>
@@ -7937,7 +7937,7 @@
         <v>44177</v>
       </c>
       <c r="C322" s="9">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E322" s="8">
         <v>44177</v>
@@ -7957,7 +7957,7 @@
         <v>44178</v>
       </c>
       <c r="C323" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E323" s="8">
         <v>44178</v>
@@ -7973,6 +7973,12 @@
       </c>
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B324" s="74">
+        <v>44179</v>
+      </c>
+      <c r="C324" s="9">
+        <v>92</v>
+      </c>
       <c r="E324" s="8">
         <v>44179</v>
       </c>
@@ -7984,6 +7990,20 @@
       </c>
       <c r="I324" s="75">
         <v>107.14285714285714</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E325" s="8">
+        <v>44180</v>
+      </c>
+      <c r="F325" s="65">
+        <v>119</v>
+      </c>
+      <c r="H325" s="8">
+        <v>44180</v>
+      </c>
+      <c r="I325" s="75">
+        <v>112.71428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -7995,7 +8015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10564,6 +10584,14 @@
         <v>1.46484375</v>
       </c>
     </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B325" s="8">
+        <v>44180</v>
+      </c>
+      <c r="C325" s="62">
+        <v>1.5231660231660231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10573,7 +10601,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16763,19 +16791,19 @@
         <v>44166</v>
       </c>
       <c r="C316" s="56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D316" s="56">
-        <v>1588</v>
+        <v>1606</v>
       </c>
       <c r="E316" s="56">
-        <v>1649</v>
+        <v>1668</v>
       </c>
       <c r="F316" s="56">
-        <v>1598.7142857142858</v>
+        <v>1601.4285714285716</v>
       </c>
       <c r="G316" s="56">
-        <v>5.1648646233580546</v>
+        <v>5.1650312221231047</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16783,19 +16811,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D317" s="56">
-        <v>1514</v>
+        <v>1527</v>
       </c>
       <c r="E317" s="56">
-        <v>1591</v>
+        <v>1605</v>
       </c>
       <c r="F317" s="56">
-        <v>1550.1428571428573</v>
+        <v>1554.8571428571429</v>
       </c>
       <c r="G317" s="56">
-        <v>5.0041470832181361</v>
+        <v>5.007350238882764</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16806,16 +16834,16 @@
         <v>57</v>
       </c>
       <c r="D318" s="56">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="E318" s="56">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="F318" s="56">
-        <v>1487</v>
+        <v>1492.2857142857144</v>
       </c>
       <c r="G318" s="56">
-        <v>4.7362859064271303</v>
+        <v>4.7386559448592758</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16826,16 +16854,16 @@
         <v>83</v>
       </c>
       <c r="D319" s="56">
-        <v>1538</v>
+        <v>1553</v>
       </c>
       <c r="E319" s="56">
-        <v>1621</v>
+        <v>1636</v>
       </c>
       <c r="F319" s="56">
-        <v>1461.2857142857144</v>
+        <v>1468.7142857142858</v>
       </c>
       <c r="G319" s="56">
-        <v>4.8294065891093956</v>
+        <v>4.8244334208734561</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16846,16 +16874,16 @@
         <v>83</v>
       </c>
       <c r="D320" s="56">
-        <v>1704</v>
+        <v>1718</v>
       </c>
       <c r="E320" s="56">
-        <v>1785</v>
+        <v>1799</v>
       </c>
       <c r="F320" s="56">
-        <v>1528.8571428571429</v>
+        <v>1538.2857142857144</v>
       </c>
       <c r="G320" s="56">
-        <v>4.7289719626168223</v>
+        <v>4.7185584246702579</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.4">
@@ -16863,19 +16891,19 @@
         <v>44171</v>
       </c>
       <c r="C321" s="56">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D321" s="56">
         <v>576</v>
       </c>
       <c r="E321" s="56">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F321" s="56">
-        <v>1521.1428571428571</v>
+        <v>1530.8571428571429</v>
       </c>
       <c r="G321" s="56">
-        <v>4.3678376855156866</v>
+        <v>4.3774500653350756</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.4">
@@ -16883,19 +16911,19 @@
         <v>44172</v>
       </c>
       <c r="C322" s="56">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D322" s="56">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E322" s="56">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="F322" s="56">
-        <v>1457.7142857142858</v>
+        <v>1468</v>
       </c>
       <c r="G322" s="56">
-        <v>4.5383258184669675</v>
+        <v>4.5746544675880862</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.4">
@@ -16903,19 +16931,19 @@
         <v>44173</v>
       </c>
       <c r="C323" s="56">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D323" s="56">
-        <v>1115</v>
+        <v>1132</v>
       </c>
       <c r="E323" s="56">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="F323" s="56">
-        <v>1391.8571428571429</v>
+        <v>1402.1428571428571</v>
       </c>
       <c r="G323" s="56">
-        <v>4.8762960681654857</v>
+        <v>4.9220421889330481</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.4">
@@ -16923,19 +16951,19 @@
         <v>44174</v>
       </c>
       <c r="C324" s="56">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D324" s="56">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="E324" s="56">
-        <v>1291</v>
+        <v>1304</v>
       </c>
       <c r="F324" s="56">
-        <v>1349</v>
+        <v>1359.1428571428573</v>
       </c>
       <c r="G324" s="56">
-        <v>5.2960491473360873</v>
+        <v>5.3406223717409587</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.4">
@@ -16943,19 +16971,19 @@
         <v>44175</v>
       </c>
       <c r="C325" s="56">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D325" s="56">
-        <v>1332</v>
+        <v>1372</v>
       </c>
       <c r="E325" s="56">
-        <v>1436</v>
+        <v>1479</v>
       </c>
       <c r="F325" s="56">
-        <v>1326.4285714285713</v>
+        <v>1342.1428571428571</v>
       </c>
       <c r="G325" s="56">
-        <v>5.8924916514057957</v>
+        <v>5.9405940594059405</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.4">
@@ -16963,19 +16991,19 @@
         <v>44176</v>
       </c>
       <c r="C326" s="56">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D326" s="56">
-        <v>864</v>
+        <v>1003</v>
       </c>
       <c r="E326" s="56">
-        <v>925</v>
+        <v>1073</v>
       </c>
       <c r="F326" s="56">
-        <v>1227</v>
+        <v>1261.7142857142858</v>
       </c>
       <c r="G326" s="56">
-        <v>6.1138930942121812</v>
+        <v>6.1721404303510763</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.4">
@@ -16983,19 +17011,39 @@
         <v>44177</v>
       </c>
       <c r="C327" s="56">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D327" s="56">
-        <v>582</v>
+        <v>716</v>
       </c>
       <c r="E327" s="56">
-        <v>649</v>
+        <v>796</v>
       </c>
       <c r="F327" s="56">
-        <v>1064.4285714285713</v>
+        <v>1118.1428571428571</v>
       </c>
       <c r="G327" s="56">
-        <v>6.8312978123741779</v>
+        <v>6.9247476683275844</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B328" s="73">
+        <v>44178</v>
+      </c>
+      <c r="C328" s="56">
+        <v>37</v>
+      </c>
+      <c r="D328" s="56">
+        <v>405</v>
+      </c>
+      <c r="E328" s="56">
+        <v>442</v>
+      </c>
+      <c r="F328" s="56">
+        <v>1095.7142857142858</v>
+      </c>
+      <c r="G328" s="56">
+        <v>7.2490221642764014</v>
       </c>
     </row>
   </sheetData>
@@ -17007,7 +17055,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L248"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25618,6 +25666,41 @@
       </c>
       <c r="L248" s="57">
         <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B249" s="14">
+        <v>44180</v>
+      </c>
+      <c r="C249" s="15">
+        <v>8388</v>
+      </c>
+      <c r="D249" s="15">
+        <v>324</v>
+      </c>
+      <c r="E249" s="15">
+        <v>372</v>
+      </c>
+      <c r="F249" s="15">
+        <v>247</v>
+      </c>
+      <c r="G249" s="15">
+        <v>0</v>
+      </c>
+      <c r="H249" s="15">
+        <v>3378</v>
+      </c>
+      <c r="I249" s="15">
+        <v>3909</v>
+      </c>
+      <c r="J249" s="15">
+        <v>101</v>
+      </c>
+      <c r="K249" s="15">
+        <v>57</v>
+      </c>
+      <c r="L249" s="57">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -25670,7 +25753,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1153</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25686,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>851</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25694,7 +25777,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1151</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25710,7 +25793,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -25718,7 +25801,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25726,7 +25809,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25742,7 +25825,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25774,7 +25857,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25782,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25798,7 +25881,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25806,7 +25889,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -25814,7 +25897,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25822,7 +25905,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25838,7 +25921,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25862,7 +25945,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25870,7 +25953,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -25878,7 +25961,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -25902,7 +25985,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -25918,7 +26001,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
@@ -25982,7 +26065,7 @@
         <v>59</v>
       </c>
       <c r="C44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
@@ -26106,7 +26189,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>8016</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -26114,7 +26197,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -26130,7 +26213,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>8255</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -26138,7 +26221,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>5325</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -26146,7 +26229,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1153</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -26154,7 +26237,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1538</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -26162,7 +26245,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -26233,10 +26316,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D5" s="44">
-        <v>3.0549157473633168E-2</v>
+        <v>3.0592734225621414E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26244,10 +26327,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="D6" s="44">
-        <v>7.5403079161110442E-2</v>
+        <v>7.612332695984704E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26255,10 +26338,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24160504303551947</v>
+        <v>0.24115678776290631</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26266,10 +26349,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1295</v>
+        <v>1312</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15698872590617044</v>
+        <v>0.15678776290630975</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26277,10 +26360,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1235</v>
+        <v>1254</v>
       </c>
       <c r="D9" s="44">
-        <v>0.14971511698387682</v>
+        <v>0.1498565965583174</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26288,10 +26371,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="D10" s="44">
-        <v>0.14607831252273004</v>
+        <v>0.1455544933078394</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26299,10 +26382,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="D11" s="44">
-        <v>8.6798399806037096E-2</v>
+        <v>8.6639579349904391E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26310,10 +26393,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0007273608922294E-2</v>
+        <v>6.0348948374760993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26321,10 +26404,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D13" s="44">
-        <v>4.1338344041702023E-2</v>
+        <v>4.1467495219885277E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26332,10 +26415,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1516547460298218E-2</v>
+        <v>1.1472275334608031E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -26343,7 +26426,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>8249</v>
+        <v>8368</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>

--- a/work/12_chiba2.xlsx
+++ b/work/12_chiba2.xlsx
@@ -725,7 +725,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>令和2年12月15日時点</t>
+    <t>令和2年12月16日時点</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
@@ -1544,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L325"/>
+  <dimension ref="A1:L326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -7857,7 +7857,7 @@
         <v>44173</v>
       </c>
       <c r="C318" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E318" s="8">
         <v>44173</v>
@@ -7977,7 +7977,7 @@
         <v>44179</v>
       </c>
       <c r="C324" s="9">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E324" s="8">
         <v>44179</v>
@@ -7993,6 +7993,12 @@
       </c>
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B325" s="74">
+        <v>44180</v>
+      </c>
+      <c r="C325" s="9">
+        <v>98</v>
+      </c>
       <c r="E325" s="8">
         <v>44180</v>
       </c>
@@ -8004,6 +8010,20 @@
       </c>
       <c r="I325" s="75">
         <v>112.71428571428571</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E326" s="8">
+        <v>44181</v>
+      </c>
+      <c r="F326" s="65">
+        <v>123</v>
+      </c>
+      <c r="H326" s="8">
+        <v>44181</v>
+      </c>
+      <c r="I326" s="75">
+        <v>117.28571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -8015,7 +8035,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10590,6 +10610,14 @@
       </c>
       <c r="C325" s="62">
         <v>1.5231660231660231</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B326" s="8">
+        <v>44181</v>
+      </c>
+      <c r="C326" s="62">
+        <v>1.5403377110694183</v>
       </c>
     </row>
   </sheetData>
@@ -16794,16 +16822,16 @@
         <v>62</v>
       </c>
       <c r="D316" s="56">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E316" s="56">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F316" s="56">
-        <v>1601.4285714285716</v>
+        <v>1601.2857142857144</v>
       </c>
       <c r="G316" s="56">
-        <v>5.1650312221231047</v>
+        <v>5.1654920153448121</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.4">
@@ -16811,19 +16839,19 @@
         <v>44167</v>
       </c>
       <c r="C317" s="56">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D317" s="56">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="E317" s="56">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="F317" s="56">
-        <v>1554.8571428571429</v>
+        <v>1556.1428571428573</v>
       </c>
       <c r="G317" s="56">
-        <v>5.007350238882764</v>
+        <v>5.049114109978885</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.4">
@@ -16831,19 +16859,19 @@
         <v>44168</v>
       </c>
       <c r="C318" s="56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D318" s="56">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="E318" s="56">
-        <v>1598</v>
+        <v>1607</v>
       </c>
       <c r="F318" s="56">
-        <v>1492.2857142857144</v>
+        <v>1494.8571428571429</v>
       </c>
       <c r="G318" s="56">
-        <v>4.7386559448592758</v>
+        <v>4.7878440366972477</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.4">
@@ -16854,16 +16882,16 @@
         <v>83</v>
       </c>
       <c r="D319" s="56">
-        <v>1553</v>
+        <v>1560</v>
       </c>
       <c r="E319" s="56">
-        <v>1636</v>
+        <v>1643</v>
       </c>
       <c r="F319" s="56">
-        <v>1468.7142857142858</v>
+        <v>1472.2857142857144</v>
       </c>
       <c r="G319" s="56">
-        <v>4.8244334208734561</v>
+        <v>4.8709489617698427</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.4">
@@ -16874,16 +16902,16 @@
         <v>83</v>
       </c>
       <c r="D320" s="56">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="E320" s="56">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="F320" s="56">
-        <v>1538.2857142857144</v>
+        <v>1542.4285714285713</v>
       </c>
       <c r="G320" s="56">
-        <v>4.7185584246702579</v>
+        <v>4.7614636405743402</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.4">
@@ -16891,19 +16919,19 @@
         <v>44171</v>
       </c>
       <c r="C321" s="56">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D321" s="56">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E321" s="56">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="F321" s="56">
-        <v>1530.8571428571429</v>
+        <v>1536.8571428571427</v>
       </c>
       <c r="G321" s="56">
-        <v>4.3774500653350756</v>
+        <v>4.4533283748605426</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.4">
@@ -16911,19 +16939,19 @@
         <v>44172</v>
       </c>
       <c r="C322" s="56">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D322" s="56">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="E322" s="56">
-        <v>1369</v>
+        <v>1381</v>
       </c>
       <c r="F322" s="56">
-        <v>1468</v>
+        <v>1475.7142857142858</v>
       </c>
       <c r="G322" s="56">
-        <v>4.5746544675880862</v>
+        <v>4.6572424477149497</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.4">
@@ -16934,16 +16962,16 @@
         <v>75</v>
       </c>
       <c r="D323" s="56">
-        <v>1132</v>
+        <v>1153</v>
       </c>
       <c r="E323" s="56">
-        <v>1207</v>
+        <v>1228</v>
       </c>
       <c r="F323" s="56">
-        <v>1402.1428571428571</v>
+        <v>1413</v>
       </c>
       <c r="G323" s="56">
-        <v>4.9220421889330481</v>
+        <v>4.9954494893315795</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.4">
@@ -16951,19 +16979,19 @@
         <v>44174</v>
       </c>
       <c r="C324" s="56">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D324" s="56">
-        <v>1201</v>
+        <v>1216</v>
       </c>
       <c r="E324" s="56">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="F324" s="56">
-        <v>1359.1428571428573</v>
+        <v>1370.5714285714284</v>
       </c>
       <c r="G324" s="56">
-        <v>5.3406223717409587</v>
+        <v>5.3482068390325281</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.4">
@@ -16971,19 +16999,19 @@
         <v>44175</v>
       </c>
       <c r="C325" s="56">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D325" s="56">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="E325" s="56">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="F325" s="56">
-        <v>1342.1428571428571</v>
+        <v>1354.5714285714284</v>
       </c>
       <c r="G325" s="56">
-        <v>5.9405940594059405</v>
+        <v>5.9388185654008439</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.4">
@@ -16991,19 +17019,19 @@
         <v>44176</v>
       </c>
       <c r="C326" s="56">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D326" s="56">
-        <v>1003</v>
+        <v>1069</v>
       </c>
       <c r="E326" s="56">
-        <v>1073</v>
+        <v>1146</v>
       </c>
       <c r="F326" s="56">
-        <v>1261.7142857142858</v>
+        <v>1283.5714285714287</v>
       </c>
       <c r="G326" s="56">
-        <v>6.1721404303510763</v>
+        <v>6.2006011354781254</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.4">
@@ -17014,16 +17042,16 @@
         <v>80</v>
       </c>
       <c r="D327" s="56">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="E327" s="56">
-        <v>796</v>
+        <v>882</v>
       </c>
       <c r="F327" s="56">
-        <v>1118.1428571428571</v>
+        <v>1151.7142857142858</v>
       </c>
       <c r="G327" s="56">
-        <v>6.9247476683275844</v>
+        <v>6.8717439841230448</v>
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.4">
@@ -17034,16 +17062,16 @@
         <v>37</v>
       </c>
       <c r="D328" s="56">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="E328" s="56">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="F328" s="56">
-        <v>1095.7142857142858</v>
+        <v>1131.8571428571429</v>
       </c>
       <c r="G328" s="56">
-        <v>7.2490221642764014</v>
+        <v>7.1185157137447925</v>
       </c>
     </row>
   </sheetData>
@@ -17055,7 +17083,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L249"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -25701,6 +25729,41 @@
       </c>
       <c r="L249" s="57">
         <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B250" s="14">
+        <v>44181</v>
+      </c>
+      <c r="C250" s="15">
+        <v>8511</v>
+      </c>
+      <c r="D250" s="15">
+        <v>342</v>
+      </c>
+      <c r="E250" s="15">
+        <v>428</v>
+      </c>
+      <c r="F250" s="15">
+        <v>239</v>
+      </c>
+      <c r="G250" s="15">
+        <v>0</v>
+      </c>
+      <c r="H250" s="15">
+        <v>3391</v>
+      </c>
+      <c r="I250" s="15">
+        <v>3948</v>
+      </c>
+      <c r="J250" s="15">
+        <v>102</v>
+      </c>
+      <c r="K250" s="15">
+        <v>61</v>
+      </c>
+      <c r="L250" s="57">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -25753,7 +25816,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>1170</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -25761,7 +25824,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -25769,7 +25832,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -25777,7 +25840,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>1170</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -25793,7 +25856,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -25801,7 +25864,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>913</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -25809,7 +25872,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -25825,7 +25888,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -25833,7 +25896,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -25857,7 +25920,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -25865,7 +25928,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -25881,7 +25944,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -25897,7 +25960,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -25905,7 +25968,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -25913,7 +25976,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
@@ -25921,7 +25984,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -25945,7 +26008,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
@@ -25953,7 +26016,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -25961,7 +26024,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
@@ -25969,7 +26032,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -25977,7 +26040,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -25985,7 +26048,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
@@ -26189,7 +26252,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4">
-        <v>8128</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
@@ -26197,7 +26260,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -26213,7 +26276,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="6">
-        <v>8374</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -26221,7 +26284,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="11">
-        <v>5403</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -26229,7 +26292,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="3">
-        <v>1170</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -26237,7 +26300,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="1">
-        <v>1555</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
@@ -26245,7 +26308,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
@@ -26316,10 +26379,10 @@
         <v>91</v>
       </c>
       <c r="C5" s="43">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D5" s="44">
-        <v>3.0592734225621414E-2</v>
+        <v>3.0502885408079144E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26327,10 +26390,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="43">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="D6" s="44">
-        <v>7.612332695984704E-2</v>
+        <v>7.6669414674361086E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26338,10 +26401,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="43">
-        <v>2018</v>
+        <v>2044</v>
       </c>
       <c r="D7" s="44">
-        <v>0.24115678776290631</v>
+        <v>0.2407254740313273</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26349,10 +26412,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="43">
-        <v>1312</v>
+        <v>1332</v>
       </c>
       <c r="D8" s="44">
-        <v>0.15678776290630975</v>
+        <v>0.15687198209869274</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26360,10 +26423,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="43">
-        <v>1254</v>
+        <v>1273</v>
       </c>
       <c r="D9" s="44">
-        <v>0.1498565965583174</v>
+        <v>0.14992344835708396</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26371,10 +26434,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="43">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="D10" s="44">
-        <v>0.1455544933078394</v>
+        <v>0.1452125780237899</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26382,10 +26445,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="43">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="D11" s="44">
-        <v>8.6639579349904391E-2</v>
+        <v>8.6562242374278647E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26393,10 +26456,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="43">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D12" s="44">
-        <v>6.0348948374760993E-2</v>
+        <v>6.0652455541161228E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -26404,10 +26467,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="43">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D13" s="44">
-        <v>4.1467495219885277E-2</v>
+        <v>4.1455658932987867E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -26415,10 +26478,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="44">
-        <v>1.1472275334608031E-2</v>
+        <v>1.1423860558238134E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -26426,7 +26489,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="46">
-        <v>8368</v>
+        <v>8491</v>
       </c>
       <c r="D15" s="47">
         <v>1</v>
